--- a/data/2025/ShiftCalendar_2025_Q1.xlsx
+++ b/data/2025/ShiftCalendar_2025_Q1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://intel-my.sharepoint.com/personal/hoang_loc_ngo_intel_com/Documents/Documents/Stuffs/Desktop/Py/AutomationReport_OnGoing/vnatmfg_shiftcalendar/web-app/data/2025/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="248" documentId="11_F25DC773A252ABDACC1048CDA11B5BBE5BDE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{94DD62AC-763F-4E73-9669-93DFEB27E2EA}"/>
+  <xr:revisionPtr revIDLastSave="270" documentId="11_F25DC773A252ABDACC1048CDA11B5BBE5BDE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7B47A79A-D1BC-4028-BAD8-364206EF0397}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="465" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$R$119</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$Q$119</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -519,7 +519,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -535,25 +535,6 @@
     </font>
     <font>
       <sz val="16"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="40"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -589,16 +570,44 @@
     </font>
     <font>
       <sz val="18"/>
-      <name val="Calibri"/>
+      <color theme="0"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="18"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
+      <color theme="1"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="8">
@@ -806,22 +815,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -829,341 +832,362 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -14348,15 +14372,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>918022</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>48873</xdr:rowOff>
+      <xdr:colOff>433114</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>152783</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>12715</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>236408</xdr:rowOff>
+      <xdr:colOff>12716</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>340318</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -14386,8 +14410,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="16634272" y="2311061"/>
-          <a:ext cx="11096193" cy="3759410"/>
+          <a:off x="11637978" y="2438783"/>
+          <a:ext cx="11096193" cy="3651171"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -14409,15 +14433,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>889116</xdr:colOff>
+      <xdr:colOff>421525</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>686361</xdr:rowOff>
+      <xdr:rowOff>894179</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>1698309</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>1127</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>207968</xdr:rowOff>
+      <xdr:rowOff>225286</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -14447,8 +14471,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="16605366" y="686361"/>
-          <a:ext cx="11096193" cy="1307545"/>
+          <a:off x="11626389" y="894179"/>
+          <a:ext cx="11096193" cy="1270743"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -14738,4792 +14762,4793 @@
   </sheetPr>
   <dimension ref="B1:X119"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A66" zoomScale="40" zoomScaleNormal="100" zoomScaleSheetLayoutView="40" zoomScalePageLayoutView="25" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="55" zoomScaleNormal="100" zoomScaleSheetLayoutView="55" zoomScalePageLayoutView="25" workbookViewId="0">
+      <selection activeCell="T22" sqref="T22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="20.7109375" style="19" customWidth="1"/>
-    <col min="3" max="17" width="25.7109375" style="1" customWidth="1"/>
-    <col min="18" max="24" width="17.7109375" style="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.140625" style="118"/>
+    <col min="2" max="2" width="17.7109375" style="114" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" style="113" customWidth="1"/>
+    <col min="4" max="17" width="24.7109375" style="124" customWidth="1"/>
+    <col min="18" max="24" width="17.7109375" style="118" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="118"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:24" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="23" t="s">
+    <row r="1" spans="2:24" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="2" spans="2:24" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="24" t="s">
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="27" t="s">
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="28">
+      <c r="J2" s="24">
         <v>1</v>
       </c>
-      <c r="K2" s="29"/>
-      <c r="O2" s="32"/>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="32"/>
-      <c r="R2" s="32"/>
-      <c r="S2" s="32"/>
-      <c r="T2" s="32"/>
-      <c r="U2" s="32"/>
-      <c r="V2" s="32"/>
-      <c r="W2" s="33"/>
-      <c r="X2" s="29"/>
+      <c r="K2" s="25"/>
+      <c r="O2" s="28"/>
+      <c r="P2" s="28"/>
+      <c r="Q2" s="28"/>
+      <c r="R2" s="120"/>
+      <c r="S2" s="120"/>
+      <c r="T2" s="120"/>
+      <c r="U2" s="120"/>
+      <c r="V2" s="120"/>
+      <c r="W2" s="117"/>
+      <c r="X2" s="119"/>
     </row>
     <row r="3" spans="2:24" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="27" t="s">
+      <c r="C3" s="5"/>
+      <c r="D3" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="27" t="s">
+      <c r="E3" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="27" t="s">
+      <c r="F3" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="34" t="s">
+      <c r="G3" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="34" t="s">
+      <c r="H3" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="27" t="s">
+      <c r="I3" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="27" t="s">
+      <c r="J3" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="29"/>
-      <c r="O3" s="32"/>
-      <c r="P3" s="32"/>
-      <c r="Q3" s="32"/>
-      <c r="R3" s="32"/>
-      <c r="S3" s="32"/>
-      <c r="T3" s="32"/>
-      <c r="U3" s="32"/>
-      <c r="V3" s="32"/>
-      <c r="W3" s="33"/>
-      <c r="X3" s="32"/>
+      <c r="K3" s="25"/>
+      <c r="O3" s="28"/>
+      <c r="P3" s="28"/>
+      <c r="Q3" s="28"/>
+      <c r="R3" s="120"/>
+      <c r="S3" s="120"/>
+      <c r="T3" s="120"/>
+      <c r="U3" s="120"/>
+      <c r="V3" s="120"/>
+      <c r="W3" s="117"/>
+      <c r="X3" s="120"/>
     </row>
     <row r="4" spans="2:24" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="37">
+      <c r="C4" s="6"/>
+      <c r="D4" s="32">
         <v>29</v>
       </c>
-      <c r="E4" s="38">
+      <c r="E4" s="33">
         <v>30</v>
       </c>
-      <c r="F4" s="38">
+      <c r="F4" s="33">
         <f>E4+1</f>
         <v>31</v>
       </c>
-      <c r="G4" s="39">
+      <c r="G4" s="34">
         <v>1</v>
       </c>
-      <c r="H4" s="38">
+      <c r="H4" s="33">
         <f t="shared" ref="H4:J4" si="0">G4+1</f>
         <v>2</v>
       </c>
-      <c r="I4" s="38">
+      <c r="I4" s="33">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="J4" s="38">
+      <c r="J4" s="33">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="K4" s="32"/>
-      <c r="O4" s="32"/>
-      <c r="P4" s="32"/>
-      <c r="Q4" s="32"/>
-      <c r="R4" s="32"/>
-      <c r="S4" s="32"/>
-      <c r="T4" s="32"/>
-      <c r="U4" s="32"/>
-      <c r="V4" s="32"/>
-      <c r="W4" s="32"/>
-      <c r="X4" s="32"/>
+      <c r="K4" s="28"/>
+      <c r="O4" s="28"/>
+      <c r="P4" s="28"/>
+      <c r="Q4" s="28"/>
+      <c r="R4" s="120"/>
+      <c r="S4" s="120"/>
+      <c r="T4" s="120"/>
+      <c r="U4" s="120"/>
+      <c r="V4" s="120"/>
+      <c r="W4" s="120"/>
+      <c r="X4" s="120"/>
     </row>
     <row r="5" spans="2:24" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="40" t="s">
+      <c r="D5" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="E5" s="41"/>
-      <c r="F5" s="42" t="s">
+      <c r="E5" s="36"/>
+      <c r="F5" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="G5" s="43"/>
-      <c r="H5" s="44"/>
-      <c r="I5" s="45" t="s">
+      <c r="G5" s="38"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="J5" s="31" t="s">
+      <c r="J5" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="K5" s="32"/>
-      <c r="O5" s="32"/>
-      <c r="P5" s="32"/>
-      <c r="Q5" s="32"/>
-      <c r="R5" s="32"/>
-      <c r="S5" s="32"/>
-      <c r="T5" s="32"/>
-      <c r="U5" s="32"/>
-      <c r="V5" s="32"/>
-      <c r="W5" s="32"/>
-      <c r="X5" s="32"/>
+      <c r="K5" s="28"/>
+      <c r="O5" s="28"/>
+      <c r="P5" s="28"/>
+      <c r="Q5" s="28"/>
+      <c r="R5" s="120"/>
+      <c r="S5" s="120"/>
+      <c r="T5" s="120"/>
+      <c r="U5" s="120"/>
+      <c r="V5" s="120"/>
+      <c r="W5" s="120"/>
+      <c r="X5" s="120"/>
     </row>
     <row r="6" spans="2:24" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="11"/>
-      <c r="C6" s="10" t="s">
+      <c r="B6" s="9"/>
+      <c r="C6" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="38" t="s">
+      <c r="D6" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="46" t="s">
+      <c r="E6" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="38" t="s">
+      <c r="F6" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="38" t="s">
+      <c r="G6" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="38" t="s">
+      <c r="H6" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="47" t="s">
+      <c r="I6" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="J6" s="38" t="s">
+      <c r="J6" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="K6" s="32"/>
-      <c r="O6" s="32"/>
-      <c r="P6" s="32"/>
-      <c r="Q6" s="32"/>
-      <c r="R6" s="32"/>
-      <c r="S6" s="32"/>
-      <c r="T6" s="32"/>
-      <c r="U6" s="32"/>
-      <c r="V6" s="32"/>
-      <c r="W6" s="32"/>
-      <c r="X6" s="32"/>
+      <c r="K6" s="28"/>
+      <c r="O6" s="28"/>
+      <c r="P6" s="28"/>
+      <c r="Q6" s="28"/>
+      <c r="R6" s="120"/>
+      <c r="S6" s="120"/>
+      <c r="T6" s="120"/>
+      <c r="U6" s="120"/>
+      <c r="V6" s="120"/>
+      <c r="W6" s="120"/>
+      <c r="X6" s="120"/>
     </row>
     <row r="7" spans="2:24" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="11"/>
-      <c r="C7" s="10" t="s">
+      <c r="B7" s="9"/>
+      <c r="C7" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="48" t="s">
+      <c r="D7" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="E7" s="49"/>
-      <c r="F7" s="50" t="s">
+      <c r="E7" s="44"/>
+      <c r="F7" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="G7" s="51"/>
-      <c r="H7" s="52"/>
-      <c r="I7" s="53" t="s">
+      <c r="G7" s="46"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="J7" s="36" t="s">
+      <c r="J7" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="K7" s="32"/>
-      <c r="O7" s="32"/>
-      <c r="P7" s="32"/>
-      <c r="Q7" s="32"/>
-      <c r="R7" s="32"/>
-      <c r="S7" s="32"/>
-      <c r="T7" s="32"/>
-      <c r="U7" s="32"/>
-      <c r="V7" s="32"/>
-      <c r="W7" s="32"/>
-      <c r="X7" s="32"/>
+      <c r="K7" s="28"/>
+      <c r="O7" s="28"/>
+      <c r="P7" s="28"/>
+      <c r="Q7" s="28"/>
+      <c r="R7" s="120"/>
+      <c r="S7" s="120"/>
+      <c r="T7" s="120"/>
+      <c r="U7" s="120"/>
+      <c r="V7" s="120"/>
+      <c r="W7" s="120"/>
+      <c r="X7" s="120"/>
     </row>
     <row r="8" spans="2:24" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="12"/>
-      <c r="C8" s="13" t="s">
+      <c r="B8" s="10"/>
+      <c r="C8" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="38" t="s">
+      <c r="D8" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="46" t="s">
+      <c r="E8" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="38" t="s">
+      <c r="F8" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="38" t="s">
+      <c r="G8" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="38" t="s">
+      <c r="H8" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="I8" s="38" t="s">
+      <c r="I8" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="J8" s="38" t="s">
+      <c r="J8" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="K8" s="32"/>
-      <c r="L8" s="32"/>
-      <c r="M8" s="32"/>
-      <c r="N8" s="32"/>
-      <c r="O8" s="32"/>
-      <c r="P8" s="32"/>
-      <c r="Q8" s="32"/>
-      <c r="R8" s="32"/>
-      <c r="S8" s="32"/>
-      <c r="T8" s="32"/>
-      <c r="U8" s="32"/>
-      <c r="V8" s="32"/>
-      <c r="W8" s="32"/>
-      <c r="X8" s="32"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="28"/>
+      <c r="M8" s="28"/>
+      <c r="N8" s="28"/>
+      <c r="O8" s="28"/>
+      <c r="P8" s="28"/>
+      <c r="Q8" s="28"/>
+      <c r="R8" s="120"/>
+      <c r="S8" s="120"/>
+      <c r="T8" s="120"/>
+      <c r="U8" s="120"/>
+      <c r="V8" s="120"/>
+      <c r="W8" s="120"/>
+      <c r="X8" s="120"/>
     </row>
     <row r="9" spans="2:24" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="40" t="s">
+      <c r="D9" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="41"/>
-      <c r="F9" s="42" t="s">
+      <c r="E9" s="36"/>
+      <c r="F9" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="G9" s="43"/>
-      <c r="H9" s="44"/>
-      <c r="I9" s="45" t="s">
+      <c r="G9" s="38"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="J9" s="54" t="s">
+      <c r="J9" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="K9" s="32"/>
-      <c r="L9" s="32"/>
-      <c r="M9" s="32"/>
-      <c r="N9" s="32"/>
-      <c r="O9" s="32"/>
-      <c r="P9" s="32"/>
-      <c r="Q9" s="32"/>
-      <c r="R9" s="32"/>
-      <c r="S9" s="32"/>
-      <c r="T9" s="32"/>
-      <c r="U9" s="32"/>
-      <c r="V9" s="32"/>
-      <c r="W9" s="32"/>
-      <c r="X9" s="32"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="28"/>
+      <c r="P9" s="28"/>
+      <c r="Q9" s="28"/>
+      <c r="R9" s="120"/>
+      <c r="S9" s="120"/>
+      <c r="T9" s="120"/>
+      <c r="U9" s="120"/>
+      <c r="V9" s="120"/>
+      <c r="W9" s="120"/>
+      <c r="X9" s="120"/>
     </row>
     <row r="10" spans="2:24" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="12"/>
-      <c r="C10" s="10" t="s">
+      <c r="B10" s="10"/>
+      <c r="C10" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="48" t="s">
+      <c r="D10" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="49"/>
-      <c r="F10" s="50" t="s">
+      <c r="E10" s="44"/>
+      <c r="F10" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="G10" s="51"/>
-      <c r="H10" s="52"/>
-      <c r="I10" s="53" t="s">
+      <c r="G10" s="46"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="J10" s="55" t="s">
+      <c r="J10" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="K10" s="32"/>
-      <c r="L10" s="32"/>
-      <c r="M10" s="32"/>
-      <c r="N10" s="32"/>
-      <c r="O10" s="32"/>
-      <c r="P10" s="32"/>
-      <c r="Q10" s="32"/>
-      <c r="R10" s="32"/>
-      <c r="S10" s="32"/>
-      <c r="T10" s="32"/>
-      <c r="U10" s="32"/>
-      <c r="V10" s="32"/>
-      <c r="W10" s="32"/>
-      <c r="X10" s="32"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="28"/>
+      <c r="M10" s="28"/>
+      <c r="N10" s="28"/>
+      <c r="O10" s="28"/>
+      <c r="P10" s="28"/>
+      <c r="Q10" s="28"/>
+      <c r="R10" s="120"/>
+      <c r="S10" s="120"/>
+      <c r="T10" s="120"/>
+      <c r="U10" s="120"/>
+      <c r="V10" s="120"/>
+      <c r="W10" s="120"/>
+      <c r="X10" s="120"/>
     </row>
     <row r="11" spans="2:24" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="31" t="s">
+      <c r="D11" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="54" t="s">
+      <c r="E11" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="F11" s="42" t="s">
+      <c r="F11" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="G11" s="43"/>
-      <c r="H11" s="44"/>
-      <c r="I11" s="45" t="s">
+      <c r="G11" s="38"/>
+      <c r="H11" s="39"/>
+      <c r="I11" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="J11" s="31" t="s">
+      <c r="J11" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="K11" s="32"/>
-      <c r="L11" s="32"/>
-      <c r="M11" s="32"/>
-      <c r="N11" s="32"/>
-      <c r="O11" s="32"/>
-      <c r="P11" s="32"/>
-      <c r="Q11" s="32"/>
-      <c r="R11" s="32"/>
-      <c r="S11" s="32"/>
-      <c r="T11" s="32"/>
-      <c r="U11" s="32"/>
-      <c r="V11" s="32"/>
-      <c r="W11" s="32"/>
-      <c r="X11" s="32"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="28"/>
+      <c r="M11" s="28"/>
+      <c r="N11" s="28"/>
+      <c r="O11" s="28"/>
+      <c r="P11" s="28"/>
+      <c r="Q11" s="28"/>
+      <c r="R11" s="120"/>
+      <c r="S11" s="120"/>
+      <c r="T11" s="120"/>
+      <c r="U11" s="120"/>
+      <c r="V11" s="120"/>
+      <c r="W11" s="120"/>
+      <c r="X11" s="120"/>
     </row>
     <row r="12" spans="2:24" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="15"/>
-      <c r="C12" s="10" t="s">
+      <c r="B12" s="13"/>
+      <c r="C12" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="36" t="s">
+      <c r="D12" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="55" t="s">
+      <c r="E12" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="F12" s="50" t="s">
+      <c r="F12" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="G12" s="51"/>
-      <c r="H12" s="52"/>
-      <c r="I12" s="53" t="s">
+      <c r="G12" s="46"/>
+      <c r="H12" s="47"/>
+      <c r="I12" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="J12" s="55" t="s">
+      <c r="J12" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="K12" s="32"/>
-      <c r="L12" s="32"/>
-      <c r="M12" s="32"/>
-      <c r="N12" s="32"/>
-      <c r="O12" s="32"/>
-      <c r="P12" s="32"/>
-      <c r="Q12" s="32"/>
-      <c r="R12" s="32"/>
-      <c r="S12" s="32"/>
-      <c r="T12" s="32"/>
-      <c r="U12" s="32"/>
-      <c r="V12" s="32"/>
-      <c r="W12" s="32"/>
-      <c r="X12" s="32"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="28"/>
+      <c r="M12" s="28"/>
+      <c r="N12" s="28"/>
+      <c r="O12" s="28"/>
+      <c r="P12" s="28"/>
+      <c r="Q12" s="28"/>
+      <c r="R12" s="120"/>
+      <c r="S12" s="120"/>
+      <c r="T12" s="120"/>
+      <c r="U12" s="120"/>
+      <c r="V12" s="120"/>
+      <c r="W12" s="120"/>
+      <c r="X12" s="120"/>
     </row>
     <row r="13" spans="2:24" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="31" t="s">
+      <c r="D13" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="54" t="s">
+      <c r="E13" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="F13" s="50" t="s">
+      <c r="F13" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="G13" s="51"/>
-      <c r="H13" s="52"/>
-      <c r="I13" s="45" t="s">
+      <c r="G13" s="46"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="J13" s="54" t="s">
+      <c r="J13" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="K13" s="32"/>
-      <c r="L13" s="32"/>
-      <c r="M13" s="32"/>
-      <c r="N13" s="32"/>
-      <c r="O13" s="32"/>
-      <c r="P13" s="32"/>
-      <c r="Q13" s="32"/>
-      <c r="R13" s="32"/>
-      <c r="S13" s="32"/>
-      <c r="T13" s="32"/>
-      <c r="U13" s="32"/>
-      <c r="V13" s="32"/>
-      <c r="W13" s="32"/>
-      <c r="X13" s="32"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="28"/>
+      <c r="M13" s="28"/>
+      <c r="N13" s="28"/>
+      <c r="O13" s="28"/>
+      <c r="P13" s="28"/>
+      <c r="Q13" s="28"/>
+      <c r="R13" s="120"/>
+      <c r="S13" s="120"/>
+      <c r="T13" s="120"/>
+      <c r="U13" s="120"/>
+      <c r="V13" s="120"/>
+      <c r="W13" s="120"/>
+      <c r="X13" s="120"/>
     </row>
     <row r="14" spans="2:24" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C14" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="31" t="s">
+      <c r="D14" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="E14" s="31" t="s">
+      <c r="E14" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="F14" s="50" t="s">
+      <c r="F14" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="G14" s="51"/>
-      <c r="H14" s="52"/>
-      <c r="I14" s="45" t="s">
+      <c r="G14" s="46"/>
+      <c r="H14" s="47"/>
+      <c r="I14" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="J14" s="31" t="s">
+      <c r="J14" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="K14" s="32"/>
-      <c r="L14" s="32"/>
-      <c r="M14" s="32"/>
-      <c r="N14" s="32"/>
-      <c r="O14" s="32"/>
-      <c r="P14" s="32"/>
-      <c r="Q14" s="32"/>
-      <c r="R14" s="32"/>
-      <c r="S14" s="32"/>
-      <c r="T14" s="32"/>
-      <c r="U14" s="32"/>
-      <c r="V14" s="32"/>
-      <c r="W14" s="32"/>
-      <c r="X14" s="32"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="28"/>
+      <c r="M14" s="28"/>
+      <c r="N14" s="28"/>
+      <c r="O14" s="28"/>
+      <c r="P14" s="28"/>
+      <c r="Q14" s="28"/>
+      <c r="R14" s="120"/>
+      <c r="S14" s="120"/>
+      <c r="T14" s="120"/>
+      <c r="U14" s="120"/>
+      <c r="V14" s="120"/>
+      <c r="W14" s="120"/>
+      <c r="X14" s="120"/>
     </row>
     <row r="15" spans="2:24" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="C15" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D15" s="56" t="s">
+      <c r="D15" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="E15" s="35" t="s">
+      <c r="E15" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="F15" s="35" t="s">
+      <c r="F15" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="G15" s="35" t="s">
+      <c r="G15" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="H15" s="35" t="s">
+      <c r="H15" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="I15" s="56" t="s">
+      <c r="I15" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="J15" s="56" t="s">
+      <c r="J15" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="K15" s="32"/>
-      <c r="L15" s="32"/>
-      <c r="M15" s="32"/>
-      <c r="N15" s="32"/>
-      <c r="O15" s="32"/>
-      <c r="P15" s="32"/>
-      <c r="Q15" s="32"/>
-      <c r="R15" s="32"/>
-      <c r="S15" s="32"/>
-      <c r="T15" s="32"/>
-      <c r="U15" s="32"/>
-      <c r="V15" s="32"/>
-      <c r="W15" s="32"/>
-      <c r="X15" s="32"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="28"/>
+      <c r="M15" s="28"/>
+      <c r="N15" s="28"/>
+      <c r="O15" s="28"/>
+      <c r="P15" s="28"/>
+      <c r="Q15" s="28"/>
+      <c r="R15" s="120"/>
+      <c r="S15" s="120"/>
+      <c r="T15" s="120"/>
+      <c r="U15" s="120"/>
+      <c r="V15" s="120"/>
+      <c r="W15" s="120"/>
+      <c r="X15" s="120"/>
     </row>
     <row r="16" spans="2:24" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="17"/>
-      <c r="C16" s="16" t="s">
+      <c r="B16" s="15"/>
+      <c r="C16" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D16" s="56" t="s">
+      <c r="D16" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="E16" s="56" t="s">
+      <c r="E16" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="F16" s="36" t="s">
+      <c r="F16" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="G16" s="36" t="s">
+      <c r="G16" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="H16" s="36" t="s">
+      <c r="H16" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="I16" s="36" t="s">
+      <c r="I16" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="J16" s="56" t="s">
+      <c r="J16" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="K16" s="32"/>
-      <c r="L16" s="32"/>
-      <c r="M16" s="32"/>
-      <c r="N16" s="32"/>
-      <c r="O16" s="32"/>
-      <c r="P16" s="32"/>
-      <c r="Q16" s="32"/>
-      <c r="R16" s="32"/>
-      <c r="S16" s="32"/>
-      <c r="T16" s="32"/>
-      <c r="U16" s="32"/>
-      <c r="V16" s="32"/>
-      <c r="W16" s="32"/>
-      <c r="X16" s="32"/>
+      <c r="K16" s="28"/>
+      <c r="L16" s="28"/>
+      <c r="M16" s="28"/>
+      <c r="N16" s="28"/>
+      <c r="O16" s="28"/>
+      <c r="P16" s="28"/>
+      <c r="Q16" s="28"/>
+      <c r="R16" s="120"/>
+      <c r="S16" s="120"/>
+      <c r="T16" s="120"/>
+      <c r="U16" s="120"/>
+      <c r="V16" s="120"/>
+      <c r="W16" s="120"/>
+      <c r="X16" s="120"/>
     </row>
     <row r="17" spans="2:24" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="18"/>
+      <c r="B17" s="16"/>
       <c r="C17" s="2"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="32"/>
-      <c r="J17" s="32"/>
-      <c r="K17" s="32"/>
-      <c r="L17" s="32"/>
-      <c r="M17" s="32"/>
-      <c r="N17" s="32"/>
-      <c r="O17" s="32"/>
-      <c r="P17" s="32"/>
-      <c r="Q17" s="32"/>
-      <c r="R17" s="32"/>
-      <c r="S17" s="32"/>
-      <c r="T17" s="32"/>
-      <c r="U17" s="32"/>
-      <c r="V17" s="32"/>
-      <c r="W17" s="32"/>
-      <c r="X17" s="32"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="28"/>
+      <c r="L17" s="28"/>
+      <c r="M17" s="28"/>
+      <c r="N17" s="28"/>
+      <c r="O17" s="28"/>
+      <c r="P17" s="28"/>
+      <c r="Q17" s="28"/>
+      <c r="R17" s="120"/>
+      <c r="S17" s="120"/>
+      <c r="T17" s="120"/>
+      <c r="U17" s="120"/>
+      <c r="V17" s="120"/>
+      <c r="W17" s="120"/>
+      <c r="X17" s="120"/>
     </row>
     <row r="18" spans="2:24" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="18"/>
+      <c r="B18" s="16"/>
       <c r="C18" s="2"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="32"/>
-      <c r="H18" s="32"/>
-      <c r="I18" s="57"/>
-      <c r="J18" s="57"/>
-      <c r="K18" s="57"/>
-      <c r="L18" s="57"/>
-      <c r="M18" s="57"/>
-      <c r="N18" s="32"/>
-      <c r="O18" s="32"/>
-      <c r="P18" s="32"/>
-      <c r="Q18" s="32"/>
-      <c r="R18" s="32"/>
-      <c r="S18" s="32"/>
-      <c r="T18" s="32"/>
-      <c r="U18" s="32"/>
-      <c r="V18" s="32"/>
-      <c r="W18" s="32"/>
-      <c r="X18" s="32"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="52"/>
+      <c r="J18" s="52"/>
+      <c r="K18" s="52"/>
+      <c r="L18" s="52"/>
+      <c r="M18" s="52"/>
+      <c r="N18" s="28"/>
+      <c r="O18" s="28"/>
+      <c r="P18" s="28"/>
+      <c r="Q18" s="28"/>
+      <c r="R18" s="120"/>
+      <c r="S18" s="120"/>
+      <c r="T18" s="120"/>
+      <c r="U18" s="120"/>
+      <c r="V18" s="120"/>
+      <c r="W18" s="120"/>
+      <c r="X18" s="120"/>
     </row>
     <row r="19" spans="2:24" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D19" s="58"/>
-      <c r="E19" s="58"/>
-      <c r="F19" s="58"/>
-      <c r="G19" s="58"/>
-      <c r="H19" s="58"/>
-      <c r="I19" s="57"/>
-      <c r="J19" s="57"/>
-      <c r="K19" s="57"/>
-      <c r="L19" s="57"/>
-      <c r="M19" s="57"/>
-      <c r="N19" s="58"/>
-      <c r="O19" s="58"/>
-      <c r="P19" s="58"/>
-      <c r="Q19" s="58"/>
-      <c r="R19" s="58"/>
-      <c r="S19" s="58"/>
-      <c r="T19" s="58"/>
-      <c r="U19" s="58"/>
-      <c r="V19" s="58"/>
-      <c r="W19" s="58"/>
-      <c r="X19" s="58"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="52"/>
+      <c r="J19" s="52"/>
+      <c r="K19" s="52"/>
+      <c r="L19" s="52"/>
+      <c r="M19" s="52"/>
+      <c r="N19" s="28"/>
+      <c r="O19" s="28"/>
+      <c r="P19" s="28"/>
+      <c r="Q19" s="28"/>
+      <c r="R19" s="120"/>
+      <c r="S19" s="120"/>
+      <c r="T19" s="120"/>
+      <c r="U19" s="120"/>
+      <c r="V19" s="120"/>
+      <c r="W19" s="120"/>
+      <c r="X19" s="120"/>
     </row>
     <row r="20" spans="2:24" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="59" t="s">
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="E20" s="60"/>
-      <c r="F20" s="60"/>
-      <c r="G20" s="60"/>
-      <c r="H20" s="60"/>
-      <c r="I20" s="60" t="s">
+      <c r="E20" s="54"/>
+      <c r="F20" s="54"/>
+      <c r="G20" s="54"/>
+      <c r="H20" s="54"/>
+      <c r="I20" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="J20" s="61">
+      <c r="J20" s="55">
         <f>J2+1</f>
         <v>2</v>
       </c>
-      <c r="K20" s="59" t="s">
+      <c r="K20" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="L20" s="60"/>
-      <c r="M20" s="60"/>
-      <c r="N20" s="60"/>
-      <c r="O20" s="60"/>
-      <c r="P20" s="60" t="s">
+      <c r="L20" s="54"/>
+      <c r="M20" s="54"/>
+      <c r="N20" s="54"/>
+      <c r="O20" s="54"/>
+      <c r="P20" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="Q20" s="62">
+      <c r="Q20" s="56">
         <f>J20+1</f>
         <v>3</v>
       </c>
     </row>
     <row r="21" spans="2:24" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C21" s="6"/>
-      <c r="D21" s="27" t="s">
+      <c r="C21" s="4"/>
+      <c r="D21" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="E21" s="27" t="s">
+      <c r="E21" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="F21" s="27" t="s">
+      <c r="F21" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="G21" s="34" t="s">
+      <c r="G21" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="H21" s="34" t="s">
+      <c r="H21" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="I21" s="27" t="s">
+      <c r="I21" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="J21" s="27" t="s">
+      <c r="J21" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="K21" s="27" t="s">
+      <c r="K21" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="L21" s="27" t="s">
+      <c r="L21" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="M21" s="27" t="s">
+      <c r="M21" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="N21" s="34" t="s">
+      <c r="N21" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="O21" s="34" t="s">
+      <c r="O21" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="P21" s="27" t="s">
+      <c r="P21" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="Q21" s="27" t="s">
+      <c r="Q21" s="23" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="22" spans="2:24" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="17" t="s">
+      <c r="B22" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="17"/>
-      <c r="D22" s="38">
+      <c r="C22" s="15"/>
+      <c r="D22" s="33">
         <f>+J4+1</f>
         <v>5</v>
       </c>
-      <c r="E22" s="38">
+      <c r="E22" s="33">
         <f>+D22+1</f>
         <v>6</v>
       </c>
-      <c r="F22" s="56">
+      <c r="F22" s="51">
         <f>+E22+1</f>
         <v>7</v>
       </c>
-      <c r="G22" s="56">
+      <c r="G22" s="51">
         <f t="shared" ref="G22:Q22" si="1">+F22+1</f>
         <v>8</v>
       </c>
-      <c r="H22" s="56">
+      <c r="H22" s="51">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="I22" s="56">
+      <c r="I22" s="51">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="J22" s="56">
+      <c r="J22" s="51">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="K22" s="56">
+      <c r="K22" s="51">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="L22" s="56">
+      <c r="L22" s="51">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="M22" s="56">
+      <c r="M22" s="51">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="N22" s="56">
+      <c r="N22" s="51">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="O22" s="56">
+      <c r="O22" s="51">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="P22" s="56">
+      <c r="P22" s="51">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="Q22" s="63">
+      <c r="Q22" s="57">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
     </row>
     <row r="23" spans="2:24" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C23" s="20" t="s">
+      <c r="C23" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D23" s="50" t="s">
+      <c r="D23" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="E23" s="51"/>
-      <c r="F23" s="51"/>
-      <c r="G23" s="52"/>
-      <c r="H23" s="40" t="s">
+      <c r="E23" s="46"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="47"/>
+      <c r="H23" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="I23" s="64"/>
-      <c r="J23" s="41"/>
-      <c r="K23" s="50" t="s">
+      <c r="I23" s="58"/>
+      <c r="J23" s="36"/>
+      <c r="K23" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="L23" s="51"/>
-      <c r="M23" s="51"/>
-      <c r="N23" s="52"/>
-      <c r="O23" s="40" t="s">
+      <c r="L23" s="46"/>
+      <c r="M23" s="46"/>
+      <c r="N23" s="47"/>
+      <c r="O23" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="P23" s="64"/>
-      <c r="Q23" s="41"/>
+      <c r="P23" s="58"/>
+      <c r="Q23" s="36"/>
     </row>
     <row r="24" spans="2:24" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="11"/>
-      <c r="C24" s="20" t="s">
+      <c r="B24" s="9"/>
+      <c r="C24" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D24" s="38" t="s">
+      <c r="D24" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="E24" s="38" t="s">
+      <c r="E24" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="F24" s="38" t="s">
+      <c r="F24" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="G24" s="67" t="s">
+      <c r="G24" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="H24" s="38" t="s">
+      <c r="H24" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="I24" s="38" t="s">
+      <c r="I24" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="J24" s="38" t="s">
+      <c r="J24" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="K24" s="38" t="s">
+      <c r="K24" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="L24" s="38" t="s">
+      <c r="L24" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="M24" s="38" t="s">
+      <c r="M24" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="N24" s="38" t="s">
+      <c r="N24" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="O24" s="38" t="s">
+      <c r="O24" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="P24" s="38" t="s">
+      <c r="P24" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="Q24" s="67" t="s">
+      <c r="Q24" s="61" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="25" spans="2:24" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="11"/>
-      <c r="C25" s="20" t="s">
+      <c r="B25" s="9"/>
+      <c r="C25" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="D25" s="42" t="s">
+      <c r="D25" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="E25" s="43"/>
-      <c r="F25" s="43"/>
-      <c r="G25" s="44"/>
-      <c r="H25" s="69" t="s">
+      <c r="E25" s="38"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="39"/>
+      <c r="H25" s="63" t="s">
         <v>57</v>
       </c>
-      <c r="I25" s="70"/>
-      <c r="J25" s="71"/>
-      <c r="K25" s="42" t="s">
+      <c r="I25" s="64"/>
+      <c r="J25" s="65"/>
+      <c r="K25" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="L25" s="43"/>
-      <c r="M25" s="43"/>
-      <c r="N25" s="44"/>
-      <c r="O25" s="48" t="s">
+      <c r="L25" s="38"/>
+      <c r="M25" s="38"/>
+      <c r="N25" s="39"/>
+      <c r="O25" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="P25" s="72"/>
-      <c r="Q25" s="49"/>
+      <c r="P25" s="66"/>
+      <c r="Q25" s="44"/>
     </row>
     <row r="26" spans="2:24" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="12"/>
-      <c r="C26" s="16" t="s">
+      <c r="B26" s="10"/>
+      <c r="C26" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D26" s="38" t="s">
+      <c r="D26" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="E26" s="38" t="s">
+      <c r="E26" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="F26" s="38" t="s">
+      <c r="F26" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="G26" s="67" t="s">
+      <c r="G26" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="H26" s="38" t="s">
+      <c r="H26" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="I26" s="38" t="s">
+      <c r="I26" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="J26" s="38" t="s">
+      <c r="J26" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="K26" s="38" t="s">
+      <c r="K26" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="L26" s="38" t="s">
+      <c r="L26" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="M26" s="38" t="s">
+      <c r="M26" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="N26" s="38" t="s">
+      <c r="N26" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="O26" s="38" t="s">
+      <c r="O26" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="P26" s="38" t="s">
+      <c r="P26" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="Q26" s="67" t="s">
+      <c r="Q26" s="61" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="27" spans="2:24" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C27" s="20" t="s">
+      <c r="C27" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D27" s="50" t="s">
+      <c r="D27" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="E27" s="51"/>
-      <c r="F27" s="51"/>
-      <c r="G27" s="52"/>
-      <c r="H27" s="40" t="s">
+      <c r="E27" s="46"/>
+      <c r="F27" s="46"/>
+      <c r="G27" s="47"/>
+      <c r="H27" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="I27" s="64"/>
-      <c r="J27" s="41"/>
-      <c r="K27" s="50" t="s">
+      <c r="I27" s="58"/>
+      <c r="J27" s="36"/>
+      <c r="K27" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="L27" s="51"/>
-      <c r="M27" s="52"/>
-      <c r="N27" s="75" t="s">
+      <c r="L27" s="46"/>
+      <c r="M27" s="47"/>
+      <c r="N27" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="O27" s="40" t="s">
+      <c r="O27" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="P27" s="64"/>
-      <c r="Q27" s="41"/>
+      <c r="P27" s="58"/>
+      <c r="Q27" s="36"/>
     </row>
     <row r="28" spans="2:24" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="12"/>
-      <c r="C28" s="20" t="s">
+      <c r="B28" s="10"/>
+      <c r="C28" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="D28" s="42" t="s">
+      <c r="D28" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="E28" s="43"/>
-      <c r="F28" s="43"/>
-      <c r="G28" s="44"/>
-      <c r="H28" s="69" t="s">
+      <c r="E28" s="38"/>
+      <c r="F28" s="38"/>
+      <c r="G28" s="39"/>
+      <c r="H28" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="I28" s="70"/>
-      <c r="J28" s="71"/>
-      <c r="K28" s="42" t="s">
+      <c r="I28" s="64"/>
+      <c r="J28" s="65"/>
+      <c r="K28" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="L28" s="43"/>
-      <c r="M28" s="44"/>
-      <c r="N28" s="77" t="s">
+      <c r="L28" s="38"/>
+      <c r="M28" s="39"/>
+      <c r="N28" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="O28" s="69" t="s">
+      <c r="O28" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="P28" s="70"/>
-      <c r="Q28" s="71"/>
+      <c r="P28" s="64"/>
+      <c r="Q28" s="65"/>
     </row>
     <row r="29" spans="2:24" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="14" t="s">
+      <c r="B29" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C29" s="20" t="s">
+      <c r="C29" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D29" s="50" t="s">
+      <c r="D29" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="E29" s="51"/>
-      <c r="F29" s="52"/>
-      <c r="G29" s="75" t="s">
+      <c r="E29" s="46"/>
+      <c r="F29" s="47"/>
+      <c r="G29" s="69" t="s">
         <v>48</v>
       </c>
-      <c r="H29" s="40" t="s">
+      <c r="H29" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="I29" s="64"/>
-      <c r="J29" s="41"/>
-      <c r="K29" s="50" t="s">
+      <c r="I29" s="58"/>
+      <c r="J29" s="36"/>
+      <c r="K29" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="L29" s="51"/>
-      <c r="M29" s="51"/>
-      <c r="N29" s="30" t="s">
+      <c r="L29" s="46"/>
+      <c r="M29" s="46"/>
+      <c r="N29" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="O29" s="40" t="s">
+      <c r="O29" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="P29" s="64"/>
-      <c r="Q29" s="41"/>
+      <c r="P29" s="58"/>
+      <c r="Q29" s="36"/>
     </row>
     <row r="30" spans="2:24" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="15"/>
-      <c r="C30" s="20" t="s">
+      <c r="B30" s="13"/>
+      <c r="C30" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="D30" s="42" t="s">
+      <c r="D30" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="E30" s="43"/>
-      <c r="F30" s="44"/>
-      <c r="G30" s="77" t="s">
+      <c r="E30" s="38"/>
+      <c r="F30" s="39"/>
+      <c r="G30" s="71" t="s">
         <v>49</v>
       </c>
-      <c r="H30" s="79" t="s">
+      <c r="H30" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="I30" s="79"/>
-      <c r="J30" s="79"/>
-      <c r="K30" s="42" t="s">
+      <c r="I30" s="73"/>
+      <c r="J30" s="73"/>
+      <c r="K30" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="L30" s="43"/>
-      <c r="M30" s="43"/>
-      <c r="N30" s="35" t="s">
+      <c r="L30" s="38"/>
+      <c r="M30" s="38"/>
+      <c r="N30" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="O30" s="79" t="s">
+      <c r="O30" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="P30" s="79"/>
-      <c r="Q30" s="79"/>
+      <c r="P30" s="73"/>
+      <c r="Q30" s="73"/>
     </row>
     <row r="31" spans="2:24" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C31" s="16" t="s">
+      <c r="C31" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D31" s="50" t="s">
+      <c r="D31" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="E31" s="51"/>
-      <c r="F31" s="52"/>
-      <c r="G31" s="75" t="s">
+      <c r="E31" s="46"/>
+      <c r="F31" s="47"/>
+      <c r="G31" s="69" t="s">
         <v>50</v>
       </c>
-      <c r="H31" s="80" t="s">
+      <c r="H31" s="74" t="s">
         <v>32</v>
       </c>
-      <c r="I31" s="80"/>
-      <c r="J31" s="80"/>
-      <c r="K31" s="50" t="s">
+      <c r="I31" s="74"/>
+      <c r="J31" s="74"/>
+      <c r="K31" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="L31" s="51"/>
-      <c r="M31" s="52"/>
-      <c r="N31" s="30" t="s">
+      <c r="L31" s="46"/>
+      <c r="M31" s="47"/>
+      <c r="N31" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="O31" s="80" t="s">
+      <c r="O31" s="74" t="s">
         <v>32</v>
       </c>
-      <c r="P31" s="80"/>
-      <c r="Q31" s="80"/>
+      <c r="P31" s="74"/>
+      <c r="Q31" s="74"/>
     </row>
     <row r="32" spans="2:24" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C32" s="16" t="s">
+      <c r="C32" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D32" s="50" t="s">
+      <c r="D32" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="E32" s="51"/>
-      <c r="F32" s="51"/>
-      <c r="G32" s="52"/>
-      <c r="H32" s="80" t="s">
+      <c r="E32" s="46"/>
+      <c r="F32" s="46"/>
+      <c r="G32" s="47"/>
+      <c r="H32" s="74" t="s">
         <v>36</v>
       </c>
-      <c r="I32" s="80"/>
-      <c r="J32" s="80"/>
-      <c r="K32" s="50" t="s">
+      <c r="I32" s="74"/>
+      <c r="J32" s="74"/>
+      <c r="K32" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="L32" s="51"/>
-      <c r="M32" s="51"/>
-      <c r="N32" s="52"/>
-      <c r="O32" s="80" t="s">
+      <c r="L32" s="46"/>
+      <c r="M32" s="46"/>
+      <c r="N32" s="47"/>
+      <c r="O32" s="74" t="s">
         <v>36</v>
       </c>
-      <c r="P32" s="80"/>
-      <c r="Q32" s="80"/>
+      <c r="P32" s="74"/>
+      <c r="Q32" s="74"/>
     </row>
     <row r="33" spans="2:24" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="17" t="s">
+      <c r="B33" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="C33" s="16" t="s">
+      <c r="C33" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D33" s="56" t="s">
+      <c r="D33" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="E33" s="35" t="s">
+      <c r="E33" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="F33" s="35" t="s">
+      <c r="F33" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="G33" s="35" t="s">
+      <c r="G33" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="H33" s="35" t="s">
+      <c r="H33" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="I33" s="56" t="s">
+      <c r="I33" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="J33" s="56" t="s">
+      <c r="J33" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="K33" s="56" t="s">
+      <c r="K33" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="L33" s="35" t="s">
+      <c r="L33" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="M33" s="35" t="s">
+      <c r="M33" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="N33" s="35" t="s">
+      <c r="N33" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="O33" s="35" t="s">
+      <c r="O33" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="P33" s="56" t="s">
+      <c r="P33" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="Q33" s="56" t="s">
+      <c r="Q33" s="51" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="34" spans="2:24" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="17"/>
-      <c r="C34" s="16" t="s">
+      <c r="B34" s="15"/>
+      <c r="C34" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D34" s="56" t="s">
+      <c r="D34" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="E34" s="56" t="s">
+      <c r="E34" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="F34" s="36" t="s">
+      <c r="F34" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="G34" s="36" t="s">
+      <c r="G34" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="H34" s="36" t="s">
+      <c r="H34" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="I34" s="36" t="s">
+      <c r="I34" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="J34" s="56" t="s">
+      <c r="J34" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="K34" s="56" t="s">
+      <c r="K34" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="L34" s="56" t="s">
+      <c r="L34" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="M34" s="36" t="s">
+      <c r="M34" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="N34" s="36" t="s">
+      <c r="N34" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="O34" s="36" t="s">
+      <c r="O34" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="P34" s="36" t="s">
+      <c r="P34" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="Q34" s="56" t="s">
+      <c r="Q34" s="51" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="35" spans="2:24" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="4"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="58"/>
-      <c r="E35" s="58"/>
-      <c r="F35" s="58"/>
-      <c r="G35" s="58"/>
-      <c r="H35" s="58"/>
-      <c r="I35" s="58"/>
-      <c r="J35" s="58"/>
-      <c r="K35" s="58"/>
-      <c r="L35" s="58"/>
-      <c r="M35" s="58"/>
-      <c r="N35" s="58"/>
-      <c r="O35" s="81"/>
-      <c r="P35" s="81"/>
-      <c r="Q35" s="81"/>
-      <c r="R35" s="81"/>
-      <c r="S35" s="81"/>
-      <c r="T35" s="81"/>
-      <c r="U35" s="58"/>
-      <c r="V35" s="58"/>
-      <c r="W35" s="58"/>
-      <c r="X35" s="58"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="28"/>
+      <c r="G35" s="28"/>
+      <c r="H35" s="28"/>
+      <c r="I35" s="28"/>
+      <c r="J35" s="28"/>
+      <c r="K35" s="28"/>
+      <c r="L35" s="28"/>
+      <c r="M35" s="28"/>
+      <c r="N35" s="28"/>
+      <c r="O35" s="115"/>
+      <c r="P35" s="115"/>
+      <c r="Q35" s="115"/>
+      <c r="R35" s="122"/>
+      <c r="S35" s="122"/>
+      <c r="T35" s="122"/>
+      <c r="U35" s="120"/>
+      <c r="V35" s="120"/>
+      <c r="W35" s="120"/>
+      <c r="X35" s="120"/>
     </row>
     <row r="36" spans="2:24" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="112"/>
-      <c r="C36" s="112"/>
-      <c r="D36" s="112"/>
-      <c r="E36" s="112"/>
-      <c r="F36" s="112"/>
-      <c r="G36" s="112"/>
-      <c r="H36" s="112"/>
-      <c r="I36" s="112"/>
-      <c r="J36" s="112"/>
-      <c r="K36" s="112"/>
-      <c r="L36" s="112"/>
-      <c r="M36" s="112"/>
-      <c r="N36" s="112"/>
-      <c r="O36" s="112"/>
-      <c r="P36" s="112"/>
-      <c r="Q36" s="112"/>
-      <c r="R36" s="112"/>
-      <c r="S36" s="112"/>
-      <c r="T36" s="112"/>
-      <c r="U36" s="112"/>
-      <c r="V36" s="112"/>
-      <c r="W36" s="112"/>
-      <c r="X36" s="112"/>
+      <c r="B36" s="104"/>
+      <c r="C36" s="104"/>
+      <c r="D36" s="105"/>
+      <c r="E36" s="105"/>
+      <c r="F36" s="105"/>
+      <c r="G36" s="105"/>
+      <c r="H36" s="105"/>
+      <c r="I36" s="105"/>
+      <c r="J36" s="105"/>
+      <c r="K36" s="105"/>
+      <c r="L36" s="105"/>
+      <c r="M36" s="105"/>
+      <c r="N36" s="105"/>
+      <c r="O36" s="105"/>
+      <c r="P36" s="105"/>
+      <c r="Q36" s="105"/>
+      <c r="R36" s="123"/>
+      <c r="S36" s="123"/>
+      <c r="T36" s="123"/>
+      <c r="U36" s="123"/>
+      <c r="V36" s="123"/>
+      <c r="W36" s="123"/>
+      <c r="X36" s="123"/>
     </row>
     <row r="37" spans="2:24" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="27" t="s">
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="E37" s="27"/>
-      <c r="F37" s="27"/>
-      <c r="G37" s="27"/>
-      <c r="H37" s="27"/>
-      <c r="I37" s="27" t="s">
+      <c r="E37" s="54"/>
+      <c r="F37" s="54"/>
+      <c r="G37" s="54"/>
+      <c r="H37" s="54"/>
+      <c r="I37" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="J37" s="28">
+      <c r="J37" s="55">
         <f>Q20+1</f>
         <v>4</v>
       </c>
-      <c r="K37" s="59" t="s">
+      <c r="K37" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="L37" s="60"/>
-      <c r="M37" s="60"/>
-      <c r="N37" s="60"/>
-      <c r="O37" s="60"/>
-      <c r="P37" s="60" t="s">
+      <c r="L37" s="54"/>
+      <c r="M37" s="54"/>
+      <c r="N37" s="54"/>
+      <c r="O37" s="54"/>
+      <c r="P37" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="Q37" s="83">
+      <c r="Q37" s="75">
         <f>J37+1</f>
         <v>5</v>
       </c>
-      <c r="R37" s="112"/>
-      <c r="S37" s="112"/>
-      <c r="T37" s="112"/>
-      <c r="U37" s="112"/>
-      <c r="V37" s="112"/>
-      <c r="W37" s="112"/>
-      <c r="X37" s="112"/>
+      <c r="R37" s="123"/>
+      <c r="S37" s="123"/>
+      <c r="T37" s="123"/>
+      <c r="U37" s="123"/>
+      <c r="V37" s="123"/>
+      <c r="W37" s="123"/>
+      <c r="X37" s="123"/>
     </row>
     <row r="38" spans="2:24" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="6" t="s">
+      <c r="B38" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C38" s="6"/>
-      <c r="D38" s="27" t="s">
+      <c r="C38" s="4"/>
+      <c r="D38" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="E38" s="27" t="s">
+      <c r="E38" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="F38" s="27" t="s">
+      <c r="F38" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="G38" s="34" t="s">
+      <c r="G38" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="H38" s="34" t="s">
+      <c r="H38" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="I38" s="27" t="s">
+      <c r="I38" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="J38" s="27" t="s">
+      <c r="J38" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="K38" s="27" t="s">
+      <c r="K38" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="L38" s="27" t="s">
+      <c r="L38" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="M38" s="27" t="s">
+      <c r="M38" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="N38" s="34" t="s">
+      <c r="N38" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="O38" s="34" t="s">
+      <c r="O38" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="P38" s="27" t="s">
+      <c r="P38" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="Q38" s="27" t="s">
+      <c r="Q38" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="R38" s="112"/>
-      <c r="S38" s="112"/>
-      <c r="T38" s="112"/>
-      <c r="U38" s="112"/>
-      <c r="V38" s="112"/>
-      <c r="W38" s="112"/>
-      <c r="X38" s="112"/>
+      <c r="R38" s="123"/>
+      <c r="S38" s="123"/>
+      <c r="T38" s="123"/>
+      <c r="U38" s="123"/>
+      <c r="V38" s="123"/>
+      <c r="W38" s="123"/>
+      <c r="X38" s="123"/>
     </row>
     <row r="39" spans="2:24" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="17" t="s">
+      <c r="B39" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C39" s="17"/>
-      <c r="D39" s="56">
+      <c r="C39" s="15"/>
+      <c r="D39" s="51">
         <f>+Q22+1</f>
         <v>19</v>
       </c>
-      <c r="E39" s="56">
+      <c r="E39" s="51">
         <f>+D39+1</f>
         <v>20</v>
       </c>
-      <c r="F39" s="56">
+      <c r="F39" s="51">
         <f>+E39+1</f>
         <v>21</v>
       </c>
-      <c r="G39" s="56">
+      <c r="G39" s="51">
         <f>+F39+1</f>
         <v>22</v>
       </c>
-      <c r="H39" s="56">
+      <c r="H39" s="51">
         <f>+G39+1</f>
         <v>23</v>
       </c>
-      <c r="I39" s="56">
+      <c r="I39" s="51">
         <f>+H39+1</f>
         <v>24</v>
       </c>
-      <c r="J39" s="56">
+      <c r="J39" s="51">
         <f>+I39+1</f>
         <v>25</v>
       </c>
-      <c r="K39" s="38">
+      <c r="K39" s="33">
         <f>+J39+1</f>
         <v>26</v>
       </c>
-      <c r="L39" s="39">
+      <c r="L39" s="34">
         <f>+K39+1</f>
         <v>27</v>
       </c>
-      <c r="M39" s="39">
+      <c r="M39" s="34">
         <f>+L39+1</f>
         <v>28</v>
       </c>
-      <c r="N39" s="39">
+      <c r="N39" s="34">
         <f>+M39+1</f>
         <v>29</v>
       </c>
-      <c r="O39" s="39">
+      <c r="O39" s="34">
         <f>+N39+1</f>
         <v>30</v>
       </c>
-      <c r="P39" s="39">
+      <c r="P39" s="34">
         <f>+O39+1</f>
         <v>31</v>
       </c>
-      <c r="Q39" s="38">
+      <c r="Q39" s="33">
         <v>1</v>
       </c>
-      <c r="R39" s="112"/>
-      <c r="S39" s="112"/>
-      <c r="T39" s="112"/>
-      <c r="U39" s="112"/>
-      <c r="V39" s="112"/>
-      <c r="W39" s="112"/>
-      <c r="X39" s="112"/>
+      <c r="R39" s="123"/>
+      <c r="S39" s="123"/>
+      <c r="T39" s="123"/>
+      <c r="U39" s="123"/>
+      <c r="V39" s="123"/>
+      <c r="W39" s="123"/>
+      <c r="X39" s="123"/>
     </row>
     <row r="40" spans="2:24" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="9" t="s">
+      <c r="B40" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C40" s="20" t="s">
+      <c r="C40" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D40" s="50" t="s">
+      <c r="D40" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="E40" s="51"/>
-      <c r="F40" s="51"/>
-      <c r="G40" s="52"/>
-      <c r="H40" s="65" t="s">
+      <c r="E40" s="46"/>
+      <c r="F40" s="46"/>
+      <c r="G40" s="47"/>
+      <c r="H40" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="I40" s="66" t="s">
+      <c r="I40" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="J40" s="66" t="s">
+      <c r="J40" s="60" t="s">
         <v>60</v>
       </c>
-      <c r="K40" s="85" t="s">
+      <c r="K40" s="77" t="s">
         <v>62</v>
       </c>
-      <c r="L40" s="42" t="s">
+      <c r="L40" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="M40" s="43"/>
-      <c r="N40" s="44"/>
-      <c r="O40" s="73" t="s">
+      <c r="M40" s="38"/>
+      <c r="N40" s="39"/>
+      <c r="O40" s="67" t="s">
         <v>57</v>
       </c>
-      <c r="P40" s="73" t="s">
+      <c r="P40" s="67" t="s">
         <v>57</v>
       </c>
-      <c r="Q40" s="86" t="s">
+      <c r="Q40" s="78" t="s">
         <v>59</v>
       </c>
-      <c r="R40" s="112"/>
-      <c r="S40" s="112"/>
-      <c r="T40" s="112"/>
-      <c r="U40" s="112"/>
-      <c r="V40" s="112"/>
-      <c r="W40" s="112"/>
-      <c r="X40" s="112"/>
+      <c r="R40" s="123"/>
+      <c r="S40" s="123"/>
+      <c r="T40" s="123"/>
+      <c r="U40" s="123"/>
+      <c r="V40" s="123"/>
+      <c r="W40" s="123"/>
+      <c r="X40" s="123"/>
     </row>
     <row r="41" spans="2:24" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="11"/>
-      <c r="C41" s="20" t="s">
+      <c r="B41" s="9"/>
+      <c r="C41" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D41" s="38" t="s">
+      <c r="D41" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="E41" s="38" t="s">
+      <c r="E41" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="F41" s="38" t="s">
+      <c r="F41" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="G41" s="38" t="s">
+      <c r="G41" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="H41" s="38" t="s">
+      <c r="H41" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="I41" s="38" t="s">
+      <c r="I41" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="J41" s="68" t="s">
+      <c r="J41" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="K41" s="68" t="s">
+      <c r="K41" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="L41" s="38" t="s">
+      <c r="L41" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="M41" s="38" t="s">
+      <c r="M41" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="N41" s="38" t="s">
+      <c r="N41" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="O41" s="38" t="s">
+      <c r="O41" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="P41" s="47" t="s">
+      <c r="P41" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="Q41" s="68" t="s">
+      <c r="Q41" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="R41" s="112"/>
-      <c r="S41" s="112"/>
-      <c r="T41" s="112"/>
-      <c r="U41" s="112"/>
-      <c r="V41" s="112"/>
-      <c r="W41" s="112"/>
-      <c r="X41" s="112"/>
+      <c r="R41" s="123"/>
+      <c r="S41" s="123"/>
+      <c r="T41" s="123"/>
+      <c r="U41" s="123"/>
+      <c r="V41" s="123"/>
+      <c r="W41" s="123"/>
+      <c r="X41" s="123"/>
     </row>
     <row r="42" spans="2:24" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="11"/>
-      <c r="C42" s="20" t="s">
+      <c r="B42" s="9"/>
+      <c r="C42" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="D42" s="42" t="s">
+      <c r="D42" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="E42" s="43"/>
-      <c r="F42" s="43"/>
-      <c r="G42" s="44"/>
-      <c r="H42" s="73" t="s">
+      <c r="E42" s="38"/>
+      <c r="F42" s="38"/>
+      <c r="G42" s="39"/>
+      <c r="H42" s="67" t="s">
         <v>57</v>
       </c>
-      <c r="I42" s="74" t="s">
+      <c r="I42" s="68" t="s">
         <v>57</v>
       </c>
-      <c r="J42" s="74" t="s">
+      <c r="J42" s="68" t="s">
         <v>61</v>
       </c>
-      <c r="K42" s="88" t="s">
+      <c r="K42" s="80" t="s">
         <v>66</v>
       </c>
-      <c r="L42" s="50" t="s">
+      <c r="L42" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="M42" s="51"/>
-      <c r="N42" s="52"/>
-      <c r="O42" s="65" t="s">
+      <c r="M42" s="46"/>
+      <c r="N42" s="47"/>
+      <c r="O42" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="P42" s="65" t="s">
+      <c r="P42" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="Q42" s="89" t="s">
+      <c r="Q42" s="81" t="s">
         <v>58</v>
       </c>
-      <c r="R42" s="112"/>
-      <c r="S42" s="112"/>
-      <c r="T42" s="112"/>
-      <c r="U42" s="112"/>
-      <c r="V42" s="112"/>
-      <c r="W42" s="112"/>
-      <c r="X42" s="112"/>
+      <c r="R42" s="123"/>
+      <c r="S42" s="123"/>
+      <c r="T42" s="123"/>
+      <c r="U42" s="123"/>
+      <c r="V42" s="123"/>
+      <c r="W42" s="123"/>
+      <c r="X42" s="123"/>
     </row>
     <row r="43" spans="2:24" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="12"/>
-      <c r="C43" s="16" t="s">
+      <c r="B43" s="10"/>
+      <c r="C43" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D43" s="38" t="s">
+      <c r="D43" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="E43" s="38" t="s">
+      <c r="E43" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="F43" s="38" t="s">
+      <c r="F43" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="G43" s="38" t="s">
+      <c r="G43" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="H43" s="38" t="s">
+      <c r="H43" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="I43" s="38" t="s">
+      <c r="I43" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="J43" s="68" t="s">
+      <c r="J43" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="K43" s="68" t="s">
+      <c r="K43" s="62" t="s">
         <v>46</v>
       </c>
-      <c r="L43" s="38" t="s">
+      <c r="L43" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="M43" s="38" t="s">
+      <c r="M43" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="N43" s="38" t="s">
+      <c r="N43" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="O43" s="38" t="s">
+      <c r="O43" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="P43" s="47" t="s">
+      <c r="P43" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="Q43" s="68" t="s">
+      <c r="Q43" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="R43" s="112"/>
-      <c r="S43" s="112"/>
-      <c r="T43" s="112"/>
-      <c r="U43" s="112"/>
-      <c r="V43" s="112"/>
-      <c r="W43" s="112"/>
-      <c r="X43" s="112"/>
+      <c r="R43" s="123"/>
+      <c r="S43" s="123"/>
+      <c r="T43" s="123"/>
+      <c r="U43" s="123"/>
+      <c r="V43" s="123"/>
+      <c r="W43" s="123"/>
+      <c r="X43" s="123"/>
     </row>
     <row r="44" spans="2:24" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="9" t="s">
+      <c r="B44" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C44" s="20" t="s">
+      <c r="C44" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D44" s="50" t="s">
+      <c r="D44" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="E44" s="51"/>
-      <c r="F44" s="52"/>
-      <c r="G44" s="75" t="s">
+      <c r="E44" s="46"/>
+      <c r="F44" s="47"/>
+      <c r="G44" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="H44" s="76" t="s">
+      <c r="H44" s="70" t="s">
         <v>20</v>
       </c>
-      <c r="I44" s="31" t="s">
+      <c r="I44" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="J44" s="45" t="s">
+      <c r="J44" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="K44" s="85" t="s">
+      <c r="K44" s="77" t="s">
         <v>21</v>
       </c>
-      <c r="L44" s="42" t="s">
+      <c r="L44" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="M44" s="43"/>
-      <c r="N44" s="44"/>
-      <c r="O44" s="36" t="s">
+      <c r="M44" s="38"/>
+      <c r="N44" s="39"/>
+      <c r="O44" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="P44" s="36" t="s">
+      <c r="P44" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="Q44" s="53" t="s">
+      <c r="Q44" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="R44" s="112"/>
-      <c r="S44" s="112"/>
-      <c r="T44" s="112"/>
-      <c r="U44" s="112"/>
-      <c r="V44" s="112"/>
-      <c r="W44" s="112"/>
-      <c r="X44" s="112"/>
+      <c r="R44" s="123"/>
+      <c r="S44" s="123"/>
+      <c r="T44" s="123"/>
+      <c r="U44" s="123"/>
+      <c r="V44" s="123"/>
+      <c r="W44" s="123"/>
+      <c r="X44" s="123"/>
     </row>
     <row r="45" spans="2:24" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="12"/>
-      <c r="C45" s="20" t="s">
+      <c r="B45" s="10"/>
+      <c r="C45" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="D45" s="42" t="s">
+      <c r="D45" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="E45" s="43"/>
-      <c r="F45" s="44"/>
-      <c r="G45" s="77" t="s">
+      <c r="E45" s="38"/>
+      <c r="F45" s="39"/>
+      <c r="G45" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="H45" s="78" t="s">
+      <c r="H45" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="I45" s="36" t="s">
+      <c r="I45" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="J45" s="53" t="s">
+      <c r="J45" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="K45" s="88" t="s">
+      <c r="K45" s="80" t="s">
         <v>23</v>
       </c>
-      <c r="L45" s="50" t="s">
+      <c r="L45" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="M45" s="51"/>
-      <c r="N45" s="52"/>
-      <c r="O45" s="31" t="s">
+      <c r="M45" s="46"/>
+      <c r="N45" s="47"/>
+      <c r="O45" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="P45" s="31" t="s">
+      <c r="P45" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="Q45" s="45" t="s">
+      <c r="Q45" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="R45" s="112"/>
-      <c r="S45" s="112"/>
-      <c r="T45" s="112"/>
-      <c r="U45" s="112"/>
-      <c r="V45" s="112"/>
-      <c r="W45" s="112"/>
-      <c r="X45" s="112"/>
+      <c r="R45" s="123"/>
+      <c r="S45" s="123"/>
+      <c r="T45" s="123"/>
+      <c r="U45" s="123"/>
+      <c r="V45" s="123"/>
+      <c r="W45" s="123"/>
+      <c r="X45" s="123"/>
     </row>
     <row r="46" spans="2:24" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="14" t="s">
+      <c r="B46" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C46" s="20" t="s">
+      <c r="C46" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D46" s="50" t="s">
+      <c r="D46" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="E46" s="51"/>
-      <c r="F46" s="51"/>
-      <c r="G46" s="30" t="s">
+      <c r="E46" s="46"/>
+      <c r="F46" s="46"/>
+      <c r="G46" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="H46" s="31" t="s">
+      <c r="H46" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="I46" s="31" t="s">
+      <c r="I46" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="J46" s="45" t="s">
+      <c r="J46" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="K46" s="85" t="s">
+      <c r="K46" s="77" t="s">
         <v>27</v>
       </c>
-      <c r="L46" s="42" t="s">
+      <c r="L46" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="M46" s="44"/>
-      <c r="N46" s="35" t="s">
+      <c r="M46" s="39"/>
+      <c r="N46" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="O46" s="36" t="s">
+      <c r="O46" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="P46" s="36" t="s">
+      <c r="P46" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="Q46" s="53" t="s">
+      <c r="Q46" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="R46" s="112"/>
-      <c r="S46" s="112"/>
-      <c r="T46" s="112"/>
-      <c r="U46" s="112"/>
-      <c r="V46" s="112"/>
-      <c r="W46" s="112"/>
-      <c r="X46" s="112"/>
+      <c r="R46" s="123"/>
+      <c r="S46" s="123"/>
+      <c r="T46" s="123"/>
+      <c r="U46" s="123"/>
+      <c r="V46" s="123"/>
+      <c r="W46" s="123"/>
+      <c r="X46" s="123"/>
     </row>
     <row r="47" spans="2:24" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="15"/>
-      <c r="C47" s="20" t="s">
+      <c r="B47" s="13"/>
+      <c r="C47" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="D47" s="42" t="s">
+      <c r="D47" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="E47" s="43"/>
-      <c r="F47" s="43"/>
-      <c r="G47" s="35" t="s">
+      <c r="E47" s="38"/>
+      <c r="F47" s="38"/>
+      <c r="G47" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="H47" s="36" t="s">
+      <c r="H47" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="I47" s="36" t="s">
+      <c r="I47" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="J47" s="53" t="s">
+      <c r="J47" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="K47" s="88" t="s">
+      <c r="K47" s="80" t="s">
         <v>30</v>
       </c>
-      <c r="L47" s="50" t="s">
+      <c r="L47" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="M47" s="52"/>
-      <c r="N47" s="30" t="s">
+      <c r="M47" s="47"/>
+      <c r="N47" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="O47" s="31" t="s">
+      <c r="O47" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="P47" s="31" t="s">
+      <c r="P47" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="Q47" s="45" t="s">
+      <c r="Q47" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="R47" s="112"/>
-      <c r="S47" s="112"/>
-      <c r="T47" s="112"/>
-      <c r="U47" s="112"/>
-      <c r="V47" s="112"/>
-      <c r="W47" s="112"/>
-      <c r="X47" s="112"/>
+      <c r="R47" s="123"/>
+      <c r="S47" s="123"/>
+      <c r="T47" s="123"/>
+      <c r="U47" s="123"/>
+      <c r="V47" s="123"/>
+      <c r="W47" s="123"/>
+      <c r="X47" s="123"/>
     </row>
     <row r="48" spans="2:24" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C48" s="16" t="s">
+      <c r="C48" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D48" s="50" t="s">
+      <c r="D48" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="E48" s="51"/>
-      <c r="F48" s="52"/>
-      <c r="G48" s="30" t="s">
+      <c r="E48" s="46"/>
+      <c r="F48" s="47"/>
+      <c r="G48" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="H48" s="31" t="s">
+      <c r="H48" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="I48" s="31" t="s">
+      <c r="I48" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="J48" s="45" t="s">
+      <c r="J48" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="K48" s="88" t="s">
+      <c r="K48" s="80" t="s">
         <v>34</v>
       </c>
-      <c r="L48" s="50" t="s">
+      <c r="L48" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="M48" s="52"/>
-      <c r="N48" s="30" t="s">
+      <c r="M48" s="47"/>
+      <c r="N48" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="O48" s="31" t="s">
+      <c r="O48" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="P48" s="31" t="s">
+      <c r="P48" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="Q48" s="45" t="s">
+      <c r="Q48" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="R48" s="112"/>
-      <c r="S48" s="112"/>
-      <c r="T48" s="112"/>
-      <c r="U48" s="112"/>
-      <c r="V48" s="112"/>
-      <c r="W48" s="112"/>
-      <c r="X48" s="112"/>
+      <c r="R48" s="123"/>
+      <c r="S48" s="123"/>
+      <c r="T48" s="123"/>
+      <c r="U48" s="123"/>
+      <c r="V48" s="123"/>
+      <c r="W48" s="123"/>
+      <c r="X48" s="123"/>
     </row>
     <row r="49" spans="2:24" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C49" s="16" t="s">
+      <c r="C49" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D49" s="50" t="s">
+      <c r="D49" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="E49" s="51"/>
-      <c r="F49" s="51"/>
-      <c r="G49" s="52"/>
-      <c r="H49" s="31" t="s">
+      <c r="E49" s="46"/>
+      <c r="F49" s="46"/>
+      <c r="G49" s="47"/>
+      <c r="H49" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="I49" s="31" t="s">
+      <c r="I49" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="J49" s="45" t="s">
+      <c r="J49" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="K49" s="96" t="s">
+      <c r="K49" s="88" t="s">
         <v>37</v>
       </c>
-      <c r="L49" s="50" t="s">
+      <c r="L49" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="M49" s="51"/>
-      <c r="N49" s="52"/>
-      <c r="O49" s="31" t="s">
+      <c r="M49" s="46"/>
+      <c r="N49" s="47"/>
+      <c r="O49" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="P49" s="31" t="s">
+      <c r="P49" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="Q49" s="45" t="s">
+      <c r="Q49" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="R49" s="112"/>
-      <c r="S49" s="112"/>
-      <c r="T49" s="112"/>
-      <c r="U49" s="112"/>
-      <c r="V49" s="112"/>
-      <c r="W49" s="112"/>
-      <c r="X49" s="112"/>
+      <c r="R49" s="123"/>
+      <c r="S49" s="123"/>
+      <c r="T49" s="123"/>
+      <c r="U49" s="123"/>
+      <c r="V49" s="123"/>
+      <c r="W49" s="123"/>
+      <c r="X49" s="123"/>
     </row>
     <row r="50" spans="2:24" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="17" t="s">
+      <c r="B50" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="C50" s="16" t="s">
+      <c r="C50" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D50" s="56" t="s">
+      <c r="D50" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="E50" s="35" t="s">
+      <c r="E50" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="F50" s="35" t="s">
+      <c r="F50" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="G50" s="35" t="s">
+      <c r="G50" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="H50" s="35" t="s">
+      <c r="H50" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="I50" s="56" t="s">
+      <c r="I50" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="J50" s="56" t="s">
+      <c r="J50" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="K50" s="56" t="s">
+      <c r="K50" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="L50" s="35" t="s">
+      <c r="L50" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="M50" s="35" t="s">
+      <c r="M50" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="N50" s="35" t="s">
+      <c r="N50" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="O50" s="35" t="s">
+      <c r="O50" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="P50" s="56" t="s">
+      <c r="P50" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="Q50" s="56" t="s">
+      <c r="Q50" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="R50" s="112"/>
-      <c r="S50" s="112"/>
-      <c r="T50" s="112"/>
-      <c r="U50" s="112"/>
-      <c r="V50" s="112"/>
-      <c r="W50" s="112"/>
-      <c r="X50" s="112"/>
+      <c r="R50" s="123"/>
+      <c r="S50" s="123"/>
+      <c r="T50" s="123"/>
+      <c r="U50" s="123"/>
+      <c r="V50" s="123"/>
+      <c r="W50" s="123"/>
+      <c r="X50" s="123"/>
     </row>
     <row r="51" spans="2:24" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="17"/>
-      <c r="C51" s="16" t="s">
+      <c r="B51" s="15"/>
+      <c r="C51" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D51" s="56" t="s">
+      <c r="D51" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="E51" s="56" t="s">
+      <c r="E51" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="F51" s="36" t="s">
+      <c r="F51" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="G51" s="36" t="s">
+      <c r="G51" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="H51" s="36" t="s">
+      <c r="H51" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="I51" s="36" t="s">
+      <c r="I51" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="J51" s="56" t="s">
+      <c r="J51" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="K51" s="56" t="s">
+      <c r="K51" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="L51" s="56" t="s">
+      <c r="L51" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="M51" s="36" t="s">
+      <c r="M51" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="N51" s="36" t="s">
+      <c r="N51" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="O51" s="36" t="s">
+      <c r="O51" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="P51" s="36" t="s">
+      <c r="P51" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="Q51" s="56" t="s">
+      <c r="Q51" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="R51" s="112"/>
-      <c r="S51" s="112"/>
-      <c r="T51" s="112"/>
-      <c r="U51" s="112"/>
-      <c r="V51" s="112"/>
-      <c r="W51" s="112"/>
-      <c r="X51" s="112"/>
+      <c r="R51" s="123"/>
+      <c r="S51" s="123"/>
+      <c r="T51" s="123"/>
+      <c r="U51" s="123"/>
+      <c r="V51" s="123"/>
+      <c r="W51" s="123"/>
+      <c r="X51" s="123"/>
     </row>
     <row r="52" spans="2:24" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="112"/>
-      <c r="C52" s="112"/>
-      <c r="D52" s="112"/>
-      <c r="E52" s="112"/>
-      <c r="F52" s="112"/>
-      <c r="G52" s="112"/>
-      <c r="H52" s="112"/>
-      <c r="I52" s="112"/>
-      <c r="J52" s="112"/>
-      <c r="K52" s="112"/>
-      <c r="L52" s="112"/>
-      <c r="M52" s="112"/>
-      <c r="N52" s="112"/>
-      <c r="O52" s="112"/>
-      <c r="P52" s="112"/>
-      <c r="Q52" s="112"/>
-      <c r="R52" s="112"/>
-      <c r="S52" s="112"/>
-      <c r="T52" s="112"/>
-      <c r="U52" s="112"/>
-      <c r="V52" s="112"/>
-      <c r="W52" s="112"/>
-      <c r="X52" s="112"/>
+      <c r="B52" s="104"/>
+      <c r="C52" s="104"/>
+      <c r="D52" s="105"/>
+      <c r="E52" s="105"/>
+      <c r="F52" s="105"/>
+      <c r="G52" s="105"/>
+      <c r="H52" s="105"/>
+      <c r="I52" s="105"/>
+      <c r="J52" s="105"/>
+      <c r="K52" s="105"/>
+      <c r="L52" s="105"/>
+      <c r="M52" s="105"/>
+      <c r="N52" s="105"/>
+      <c r="O52" s="105"/>
+      <c r="P52" s="105"/>
+      <c r="Q52" s="105"/>
+      <c r="R52" s="123"/>
+      <c r="S52" s="123"/>
+      <c r="T52" s="123"/>
+      <c r="U52" s="123"/>
+      <c r="V52" s="123"/>
+      <c r="W52" s="123"/>
+      <c r="X52" s="123"/>
     </row>
     <row r="53" spans="2:24" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="4"/>
-      <c r="C53" s="5"/>
-      <c r="D53" s="82"/>
-      <c r="E53" s="82"/>
-      <c r="F53" s="82"/>
-      <c r="G53" s="82"/>
-      <c r="H53" s="82"/>
-      <c r="I53" s="82"/>
-      <c r="J53" s="82"/>
-      <c r="K53" s="82"/>
-      <c r="L53" s="82"/>
-      <c r="M53" s="82"/>
-      <c r="N53" s="82"/>
-      <c r="O53" s="82"/>
-      <c r="P53" s="82"/>
-      <c r="Q53" s="82"/>
-      <c r="R53" s="82"/>
-      <c r="S53" s="82"/>
-      <c r="T53" s="82"/>
-      <c r="U53" s="82"/>
-      <c r="V53" s="82"/>
-      <c r="W53" s="58"/>
-      <c r="X53" s="58"/>
+      <c r="B53" s="2"/>
+      <c r="C53" s="19"/>
+      <c r="D53" s="116"/>
+      <c r="E53" s="116"/>
+      <c r="F53" s="116"/>
+      <c r="G53" s="116"/>
+      <c r="H53" s="116"/>
+      <c r="I53" s="116"/>
+      <c r="J53" s="116"/>
+      <c r="K53" s="116"/>
+      <c r="L53" s="116"/>
+      <c r="M53" s="116"/>
+      <c r="N53" s="116"/>
+      <c r="O53" s="116"/>
+      <c r="P53" s="116"/>
+      <c r="Q53" s="116"/>
+      <c r="R53" s="121"/>
+      <c r="S53" s="121"/>
+      <c r="T53" s="121"/>
+      <c r="U53" s="121"/>
+      <c r="V53" s="121"/>
+      <c r="W53" s="120"/>
+      <c r="X53" s="120"/>
     </row>
     <row r="54" spans="2:24" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="6"/>
-      <c r="C54" s="6"/>
-      <c r="D54" s="59" t="s">
+      <c r="B54" s="4"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="E54" s="60"/>
-      <c r="F54" s="60"/>
-      <c r="G54" s="60"/>
-      <c r="H54" s="60"/>
-      <c r="I54" s="60" t="s">
+      <c r="E54" s="54"/>
+      <c r="F54" s="54"/>
+      <c r="G54" s="54"/>
+      <c r="H54" s="54"/>
+      <c r="I54" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="J54" s="83">
+      <c r="J54" s="75">
         <f>Q37+1</f>
         <v>6</v>
       </c>
-      <c r="K54" s="59" t="s">
+      <c r="K54" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="L54" s="60"/>
-      <c r="M54" s="60"/>
-      <c r="N54" s="60"/>
-      <c r="O54" s="60"/>
-      <c r="P54" s="84" t="s">
+      <c r="L54" s="54"/>
+      <c r="M54" s="54"/>
+      <c r="N54" s="54"/>
+      <c r="O54" s="54"/>
+      <c r="P54" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="Q54" s="83">
+      <c r="Q54" s="75">
         <f>J54+1</f>
         <v>7</v>
       </c>
     </row>
     <row r="55" spans="2:24" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="6" t="s">
+      <c r="B55" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C55" s="6"/>
-      <c r="D55" s="27" t="s">
+      <c r="C55" s="4"/>
+      <c r="D55" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="E55" s="27" t="s">
+      <c r="E55" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="F55" s="27" t="s">
+      <c r="F55" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="G55" s="34" t="s">
+      <c r="G55" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="H55" s="34" t="s">
+      <c r="H55" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="I55" s="27" t="s">
+      <c r="I55" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="J55" s="27" t="s">
+      <c r="J55" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="K55" s="27" t="s">
+      <c r="K55" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="L55" s="27" t="s">
+      <c r="L55" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="M55" s="27" t="s">
+      <c r="M55" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="N55" s="34" t="s">
+      <c r="N55" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="O55" s="34" t="s">
+      <c r="O55" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="P55" s="27" t="s">
+      <c r="P55" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="Q55" s="27" t="s">
+      <c r="Q55" s="23" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="56" spans="2:24" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="17" t="s">
+      <c r="B56" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C56" s="21"/>
-      <c r="D56" s="38">
+      <c r="C56" s="18"/>
+      <c r="D56" s="33">
         <f>+Q39+1</f>
         <v>2</v>
       </c>
-      <c r="E56" s="38">
+      <c r="E56" s="33">
         <f>+D56+1</f>
         <v>3</v>
       </c>
-      <c r="F56" s="38">
+      <c r="F56" s="33">
         <f>+E56+1</f>
         <v>4</v>
       </c>
-      <c r="G56" s="38">
+      <c r="G56" s="33">
         <f>+F56+1</f>
         <v>5</v>
       </c>
-      <c r="H56" s="38">
+      <c r="H56" s="33">
         <f>+G56+1</f>
         <v>6</v>
       </c>
-      <c r="I56" s="38">
+      <c r="I56" s="33">
         <f>+H56+1</f>
         <v>7</v>
       </c>
-      <c r="J56" s="38">
+      <c r="J56" s="33">
         <f>+I56+1</f>
         <v>8</v>
       </c>
-      <c r="K56" s="38">
+      <c r="K56" s="33">
         <f>+J56+1</f>
         <v>9</v>
       </c>
-      <c r="L56" s="38">
+      <c r="L56" s="33">
         <f>+K56+1</f>
         <v>10</v>
       </c>
-      <c r="M56" s="38">
+      <c r="M56" s="33">
         <f>+L56+1</f>
         <v>11</v>
       </c>
-      <c r="N56" s="38">
+      <c r="N56" s="33">
         <f>+M56+1</f>
         <v>12</v>
       </c>
-      <c r="O56" s="38">
+      <c r="O56" s="33">
         <f>+N56+1</f>
         <v>13</v>
       </c>
-      <c r="P56" s="38">
+      <c r="P56" s="33">
         <f>+O56+1</f>
         <v>14</v>
       </c>
-      <c r="Q56" s="38">
+      <c r="Q56" s="33">
         <f>+P56+1</f>
         <v>15</v>
       </c>
     </row>
     <row r="57" spans="2:24" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="9" t="s">
+      <c r="B57" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C57" s="10" t="s">
+      <c r="C57" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D57" s="77" t="s">
+      <c r="D57" s="71" t="s">
         <v>63</v>
       </c>
-      <c r="E57" s="87" t="s">
+      <c r="E57" s="79" t="s">
         <v>56</v>
       </c>
-      <c r="F57" s="87" t="s">
+      <c r="F57" s="79" t="s">
         <v>56</v>
       </c>
-      <c r="G57" s="87" t="s">
+      <c r="G57" s="79" t="s">
         <v>56</v>
       </c>
-      <c r="H57" s="78" t="s">
+      <c r="H57" s="72" t="s">
         <v>57</v>
       </c>
-      <c r="I57" s="93" t="s">
+      <c r="I57" s="85" t="s">
         <v>57</v>
       </c>
-      <c r="J57" s="55"/>
-      <c r="K57" s="87" t="s">
+      <c r="J57" s="50"/>
+      <c r="K57" s="79" t="s">
         <v>56</v>
       </c>
-      <c r="L57" s="87" t="s">
+      <c r="L57" s="79" t="s">
         <v>64</v>
       </c>
-      <c r="M57" s="77" t="s">
+      <c r="M57" s="71" t="s">
         <v>65</v>
       </c>
-      <c r="N57" s="77" t="s">
+      <c r="N57" s="71" t="s">
         <v>56</v>
       </c>
-      <c r="O57" s="48" t="s">
+      <c r="O57" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="P57" s="72"/>
-      <c r="Q57" s="49"/>
+      <c r="P57" s="66"/>
+      <c r="Q57" s="44"/>
     </row>
     <row r="58" spans="2:24" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="11"/>
-      <c r="C58" s="10" t="s">
+      <c r="B58" s="9"/>
+      <c r="C58" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D58" s="68" t="s">
+      <c r="D58" s="62" t="s">
         <v>46</v>
       </c>
-      <c r="E58" s="68" t="s">
+      <c r="E58" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="F58" s="38" t="s">
+      <c r="F58" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="G58" s="47" t="s">
+      <c r="G58" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="H58" s="38" t="s">
+      <c r="H58" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="I58" s="38" t="s">
+      <c r="I58" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="J58" s="38" t="s">
+      <c r="J58" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="K58" s="38" t="s">
+      <c r="K58" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="L58" s="38" t="s">
+      <c r="L58" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="M58" s="38" t="s">
+      <c r="M58" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="N58" s="47" t="s">
+      <c r="N58" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="O58" s="38" t="s">
+      <c r="O58" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="P58" s="38" t="s">
+      <c r="P58" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="Q58" s="38" t="s">
+      <c r="Q58" s="33" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="59" spans="2:24" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="11"/>
-      <c r="C59" s="10" t="s">
+      <c r="B59" s="9"/>
+      <c r="C59" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D59" s="75" t="s">
+      <c r="D59" s="69" t="s">
         <v>67</v>
       </c>
-      <c r="E59" s="90" t="s">
+      <c r="E59" s="82" t="s">
         <v>54</v>
       </c>
-      <c r="F59" s="90" t="s">
+      <c r="F59" s="82" t="s">
         <v>54</v>
       </c>
-      <c r="G59" s="90" t="s">
+      <c r="G59" s="82" t="s">
         <v>54</v>
       </c>
-      <c r="H59" s="76" t="s">
+      <c r="H59" s="70" t="s">
         <v>55</v>
       </c>
-      <c r="I59" s="76" t="s">
+      <c r="I59" s="70" t="s">
         <v>55</v>
       </c>
-      <c r="J59" s="54"/>
-      <c r="K59" s="75" t="s">
+      <c r="J59" s="49"/>
+      <c r="K59" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="L59" s="75" t="s">
+      <c r="L59" s="69" t="s">
         <v>68</v>
       </c>
-      <c r="M59" s="90" t="s">
+      <c r="M59" s="82" t="s">
         <v>69</v>
       </c>
-      <c r="N59" s="90" t="s">
+      <c r="N59" s="82" t="s">
         <v>54</v>
       </c>
-      <c r="O59" s="40" t="s">
+      <c r="O59" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="P59" s="64"/>
-      <c r="Q59" s="41"/>
+      <c r="P59" s="58"/>
+      <c r="Q59" s="36"/>
     </row>
     <row r="60" spans="2:24" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="12"/>
-      <c r="C60" s="13" t="s">
+      <c r="B60" s="10"/>
+      <c r="C60" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D60" s="68" t="s">
+      <c r="D60" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="E60" s="68" t="s">
+      <c r="E60" s="62" t="s">
         <v>44</v>
       </c>
-      <c r="F60" s="38" t="s">
+      <c r="F60" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="G60" s="47" t="s">
+      <c r="G60" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="H60" s="38" t="s">
+      <c r="H60" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="I60" s="38" t="s">
+      <c r="I60" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="J60" s="38" t="s">
+      <c r="J60" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="K60" s="38" t="s">
+      <c r="K60" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="L60" s="38" t="s">
+      <c r="L60" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="M60" s="38" t="s">
+      <c r="M60" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="N60" s="47" t="s">
+      <c r="N60" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="O60" s="38" t="s">
+      <c r="O60" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="P60" s="38" t="s">
+      <c r="P60" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="Q60" s="38" t="s">
+      <c r="Q60" s="33" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="61" spans="2:24" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="9" t="s">
+      <c r="B61" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C61" s="10" t="s">
+      <c r="C61" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D61" s="91" t="s">
+      <c r="D61" s="83" t="s">
         <v>21</v>
       </c>
-      <c r="E61" s="87" t="s">
+      <c r="E61" s="79" t="s">
         <v>21</v>
       </c>
-      <c r="F61" s="87" t="s">
+      <c r="F61" s="79" t="s">
         <v>21</v>
       </c>
-      <c r="G61" s="87" t="s">
+      <c r="G61" s="79" t="s">
         <v>21</v>
       </c>
-      <c r="H61" s="78" t="s">
+      <c r="H61" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="I61" s="93" t="s">
+      <c r="I61" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="J61" s="55"/>
-      <c r="K61" s="42" t="s">
+      <c r="J61" s="50"/>
+      <c r="K61" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="L61" s="43"/>
-      <c r="M61" s="43"/>
-      <c r="N61" s="44"/>
-      <c r="O61" s="92" t="s">
+      <c r="L61" s="38"/>
+      <c r="M61" s="38"/>
+      <c r="N61" s="39"/>
+      <c r="O61" s="84" t="s">
         <v>22</v>
       </c>
-      <c r="P61" s="93" t="s">
+      <c r="P61" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="Q61" s="36" t="s">
+      <c r="Q61" s="31" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="62" spans="2:24" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="12"/>
-      <c r="C62" s="10" t="s">
+      <c r="B62" s="10"/>
+      <c r="C62" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D62" s="94" t="s">
+      <c r="D62" s="86" t="s">
         <v>23</v>
       </c>
-      <c r="E62" s="90" t="s">
+      <c r="E62" s="82" t="s">
         <v>23</v>
       </c>
-      <c r="F62" s="90" t="s">
+      <c r="F62" s="82" t="s">
         <v>23</v>
       </c>
-      <c r="G62" s="90" t="s">
+      <c r="G62" s="82" t="s">
         <v>23</v>
       </c>
-      <c r="H62" s="76" t="s">
+      <c r="H62" s="70" t="s">
         <v>20</v>
       </c>
-      <c r="I62" s="76" t="s">
+      <c r="I62" s="70" t="s">
         <v>20</v>
       </c>
-      <c r="J62" s="54"/>
-      <c r="K62" s="50" t="s">
+      <c r="J62" s="49"/>
+      <c r="K62" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="L62" s="51"/>
-      <c r="M62" s="51"/>
-      <c r="N62" s="52"/>
-      <c r="O62" s="95" t="s">
+      <c r="L62" s="46"/>
+      <c r="M62" s="46"/>
+      <c r="N62" s="47"/>
+      <c r="O62" s="87" t="s">
         <v>20</v>
       </c>
-      <c r="P62" s="76" t="s">
+      <c r="P62" s="70" t="s">
         <v>20</v>
       </c>
-      <c r="Q62" s="31" t="s">
+      <c r="Q62" s="27" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="63" spans="2:24" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="14" t="s">
+      <c r="B63" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C63" s="10" t="s">
+      <c r="C63" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D63" s="91" t="s">
+      <c r="D63" s="83" t="s">
         <v>27</v>
       </c>
-      <c r="E63" s="87" t="s">
+      <c r="E63" s="79" t="s">
         <v>27</v>
       </c>
-      <c r="F63" s="87" t="s">
+      <c r="F63" s="79" t="s">
         <v>27</v>
       </c>
-      <c r="G63" s="35" t="s">
+      <c r="G63" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="H63" s="36" t="s">
+      <c r="H63" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="I63" s="36"/>
-      <c r="J63" s="36"/>
-      <c r="K63" s="42" t="s">
+      <c r="I63" s="31"/>
+      <c r="J63" s="31"/>
+      <c r="K63" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="L63" s="43"/>
-      <c r="M63" s="43"/>
-      <c r="N63" s="35" t="s">
+      <c r="L63" s="38"/>
+      <c r="M63" s="38"/>
+      <c r="N63" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="O63" s="79" t="s">
+      <c r="O63" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="P63" s="79"/>
-      <c r="Q63" s="79"/>
+      <c r="P63" s="73"/>
+      <c r="Q63" s="73"/>
     </row>
     <row r="64" spans="2:24" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="15"/>
-      <c r="C64" s="10" t="s">
+      <c r="B64" s="13"/>
+      <c r="C64" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D64" s="94" t="s">
+      <c r="D64" s="86" t="s">
         <v>30</v>
       </c>
-      <c r="E64" s="90" t="s">
+      <c r="E64" s="82" t="s">
         <v>30</v>
       </c>
-      <c r="F64" s="90" t="s">
+      <c r="F64" s="82" t="s">
         <v>30</v>
       </c>
-      <c r="G64" s="30" t="s">
+      <c r="G64" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="H64" s="31" t="s">
+      <c r="H64" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="I64" s="31"/>
-      <c r="J64" s="31"/>
-      <c r="K64" s="50" t="s">
+      <c r="I64" s="27"/>
+      <c r="J64" s="27"/>
+      <c r="K64" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="L64" s="51"/>
-      <c r="M64" s="51"/>
-      <c r="N64" s="30" t="s">
+      <c r="L64" s="46"/>
+      <c r="M64" s="46"/>
+      <c r="N64" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="O64" s="80" t="s">
+      <c r="O64" s="74" t="s">
         <v>25</v>
       </c>
-      <c r="P64" s="80"/>
-      <c r="Q64" s="80"/>
+      <c r="P64" s="74"/>
+      <c r="Q64" s="74"/>
     </row>
     <row r="65" spans="2:24" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C65" s="13" t="s">
+      <c r="C65" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D65" s="94" t="s">
+      <c r="D65" s="86" t="s">
         <v>34</v>
       </c>
-      <c r="E65" s="90" t="s">
+      <c r="E65" s="82" t="s">
         <v>34</v>
       </c>
-      <c r="F65" s="90" t="s">
+      <c r="F65" s="82" t="s">
         <v>34</v>
       </c>
-      <c r="G65" s="30" t="s">
+      <c r="G65" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="H65" s="31" t="s">
+      <c r="H65" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="I65" s="31"/>
-      <c r="J65" s="31"/>
-      <c r="K65" s="50" t="s">
+      <c r="I65" s="27"/>
+      <c r="J65" s="27"/>
+      <c r="K65" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="L65" s="51"/>
-      <c r="M65" s="52"/>
-      <c r="N65" s="30" t="s">
+      <c r="L65" s="46"/>
+      <c r="M65" s="47"/>
+      <c r="N65" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="O65" s="80" t="s">
+      <c r="O65" s="74" t="s">
         <v>32</v>
       </c>
-      <c r="P65" s="80"/>
-      <c r="Q65" s="80"/>
+      <c r="P65" s="74"/>
+      <c r="Q65" s="74"/>
     </row>
     <row r="66" spans="2:24" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C66" s="16" t="s">
+      <c r="C66" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D66" s="97" t="s">
+      <c r="D66" s="89" t="s">
         <v>37</v>
       </c>
-      <c r="E66" s="98" t="s">
+      <c r="E66" s="90" t="s">
         <v>37</v>
       </c>
-      <c r="F66" s="98" t="s">
+      <c r="F66" s="90" t="s">
         <v>37</v>
       </c>
-      <c r="G66" s="98" t="s">
+      <c r="G66" s="90" t="s">
         <v>37</v>
       </c>
-      <c r="H66" s="31" t="s">
+      <c r="H66" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="I66" s="31" t="s">
+      <c r="I66" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="J66" s="31" t="s">
+      <c r="J66" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="K66" s="50" t="s">
+      <c r="K66" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="L66" s="51"/>
-      <c r="M66" s="51"/>
-      <c r="N66" s="52"/>
-      <c r="O66" s="95" t="s">
+      <c r="L66" s="46"/>
+      <c r="M66" s="46"/>
+      <c r="N66" s="47"/>
+      <c r="O66" s="87" t="s">
         <v>36</v>
       </c>
-      <c r="P66" s="76" t="s">
+      <c r="P66" s="70" t="s">
         <v>36</v>
       </c>
-      <c r="Q66" s="31" t="s">
+      <c r="Q66" s="27" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="67" spans="2:24" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="17" t="s">
+      <c r="B67" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="C67" s="16" t="s">
+      <c r="C67" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D67" s="56" t="s">
+      <c r="D67" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="E67" s="99" t="s">
+      <c r="E67" s="91" t="s">
         <v>40</v>
       </c>
-      <c r="F67" s="35" t="s">
+      <c r="F67" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="G67" s="35" t="s">
+      <c r="G67" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="H67" s="35" t="s">
+      <c r="H67" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="I67" s="56" t="s">
+      <c r="I67" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="J67" s="56" t="s">
+      <c r="J67" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="K67" s="56" t="s">
+      <c r="K67" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="L67" s="35" t="s">
+      <c r="L67" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="M67" s="35" t="s">
+      <c r="M67" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="N67" s="35" t="s">
+      <c r="N67" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="O67" s="35" t="s">
+      <c r="O67" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="P67" s="56" t="s">
+      <c r="P67" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="Q67" s="56" t="s">
+      <c r="Q67" s="51" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="68" spans="2:24" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="17"/>
-      <c r="C68" s="16" t="s">
+      <c r="B68" s="15"/>
+      <c r="C68" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D68" s="56" t="s">
+      <c r="D68" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="E68" s="56" t="s">
+      <c r="E68" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="F68" s="53" t="s">
+      <c r="F68" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="G68" s="36" t="s">
+      <c r="G68" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="H68" s="36" t="s">
+      <c r="H68" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="I68" s="36" t="s">
+      <c r="I68" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="J68" s="56" t="s">
+      <c r="J68" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="K68" s="56" t="s">
+      <c r="K68" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="L68" s="56" t="s">
+      <c r="L68" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="M68" s="36" t="s">
+      <c r="M68" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="N68" s="36" t="s">
+      <c r="N68" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="O68" s="36" t="s">
+      <c r="O68" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="P68" s="36" t="s">
+      <c r="P68" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="Q68" s="56" t="s">
+      <c r="Q68" s="51" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="69" spans="2:24" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="112"/>
-      <c r="C69" s="112"/>
-      <c r="D69" s="112"/>
-      <c r="E69" s="112"/>
-      <c r="F69" s="112"/>
-      <c r="G69" s="112"/>
-      <c r="H69" s="112"/>
-      <c r="I69" s="112"/>
-      <c r="J69" s="112"/>
-      <c r="K69" s="112"/>
-      <c r="L69" s="112"/>
-      <c r="M69" s="112"/>
-      <c r="N69" s="112"/>
-      <c r="O69" s="112"/>
-      <c r="P69" s="112"/>
-      <c r="Q69" s="112"/>
-      <c r="R69" s="112"/>
-      <c r="S69" s="112"/>
-      <c r="T69" s="112"/>
-      <c r="U69" s="112"/>
-      <c r="V69" s="112"/>
-      <c r="W69" s="112"/>
-      <c r="X69" s="112"/>
+      <c r="B69" s="104"/>
+      <c r="C69" s="104"/>
+      <c r="D69" s="105"/>
+      <c r="E69" s="105"/>
+      <c r="F69" s="105"/>
+      <c r="G69" s="105"/>
+      <c r="H69" s="105"/>
+      <c r="I69" s="105"/>
+      <c r="J69" s="105"/>
+      <c r="K69" s="105"/>
+      <c r="L69" s="105"/>
+      <c r="M69" s="105"/>
+      <c r="N69" s="105"/>
+      <c r="O69" s="105"/>
+      <c r="P69" s="105"/>
+      <c r="Q69" s="105"/>
+      <c r="R69" s="123"/>
+      <c r="S69" s="123"/>
+      <c r="T69" s="123"/>
+      <c r="U69" s="123"/>
+      <c r="V69" s="123"/>
+      <c r="W69" s="123"/>
+      <c r="X69" s="123"/>
     </row>
     <row r="70" spans="2:24" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="112"/>
-      <c r="C70" s="112"/>
-      <c r="D70" s="112"/>
-      <c r="E70" s="112"/>
-      <c r="F70" s="112"/>
-      <c r="G70" s="112"/>
-      <c r="H70" s="112"/>
-      <c r="I70" s="112"/>
-      <c r="J70" s="112"/>
-      <c r="K70" s="112"/>
-      <c r="L70" s="112"/>
-      <c r="M70" s="112"/>
-      <c r="N70" s="112"/>
-      <c r="O70" s="112"/>
-      <c r="P70" s="112"/>
-      <c r="Q70" s="112"/>
-      <c r="R70" s="112"/>
-      <c r="S70" s="112"/>
-      <c r="T70" s="112"/>
-      <c r="U70" s="112"/>
-      <c r="V70" s="112"/>
-      <c r="W70" s="112"/>
-      <c r="X70" s="112"/>
+      <c r="B70" s="104"/>
+      <c r="C70" s="104"/>
+      <c r="D70" s="105"/>
+      <c r="E70" s="105"/>
+      <c r="F70" s="105"/>
+      <c r="G70" s="105"/>
+      <c r="H70" s="105"/>
+      <c r="I70" s="105"/>
+      <c r="J70" s="105"/>
+      <c r="K70" s="105"/>
+      <c r="L70" s="105"/>
+      <c r="M70" s="105"/>
+      <c r="N70" s="105"/>
+      <c r="O70" s="105"/>
+      <c r="P70" s="105"/>
+      <c r="Q70" s="105"/>
+      <c r="R70" s="123"/>
+      <c r="S70" s="123"/>
+      <c r="T70" s="123"/>
+      <c r="U70" s="123"/>
+      <c r="V70" s="123"/>
+      <c r="W70" s="123"/>
+      <c r="X70" s="123"/>
     </row>
     <row r="71" spans="2:24" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="6"/>
-      <c r="C71" s="6"/>
-      <c r="D71" s="59" t="s">
+      <c r="B71" s="4"/>
+      <c r="C71" s="4"/>
+      <c r="D71" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="E71" s="60"/>
-      <c r="F71" s="60"/>
-      <c r="G71" s="60"/>
-      <c r="H71" s="60"/>
-      <c r="I71" s="60" t="s">
+      <c r="E71" s="54"/>
+      <c r="F71" s="54"/>
+      <c r="G71" s="54"/>
+      <c r="H71" s="54"/>
+      <c r="I71" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="J71" s="83">
+      <c r="J71" s="75">
         <f>Q54+1</f>
         <v>8</v>
       </c>
-      <c r="K71" s="59" t="s">
+      <c r="K71" s="53" t="s">
         <v>52</v>
       </c>
-      <c r="L71" s="60"/>
-      <c r="M71" s="60"/>
-      <c r="N71" s="60"/>
-      <c r="O71" s="60"/>
-      <c r="P71" s="60" t="s">
+      <c r="L71" s="54"/>
+      <c r="M71" s="54"/>
+      <c r="N71" s="54"/>
+      <c r="O71" s="54"/>
+      <c r="P71" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="Q71" s="62">
+      <c r="Q71" s="56">
         <f>J71+1</f>
         <v>9</v>
       </c>
-      <c r="R71" s="112"/>
-      <c r="S71" s="112"/>
-      <c r="T71" s="112"/>
-      <c r="U71" s="112"/>
-      <c r="V71" s="112"/>
-      <c r="W71" s="112"/>
-      <c r="X71" s="112"/>
+      <c r="R71" s="123"/>
+      <c r="S71" s="123"/>
+      <c r="T71" s="123"/>
+      <c r="U71" s="123"/>
+      <c r="V71" s="123"/>
+      <c r="W71" s="123"/>
+      <c r="X71" s="123"/>
     </row>
     <row r="72" spans="2:24" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="6" t="s">
+      <c r="B72" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C72" s="6"/>
-      <c r="D72" s="100" t="s">
+      <c r="C72" s="4"/>
+      <c r="D72" s="92" t="s">
         <v>3</v>
       </c>
-      <c r="E72" s="100" t="s">
+      <c r="E72" s="92" t="s">
         <v>4</v>
       </c>
-      <c r="F72" s="100" t="s">
+      <c r="F72" s="92" t="s">
         <v>5</v>
       </c>
-      <c r="G72" s="101" t="s">
+      <c r="G72" s="93" t="s">
         <v>6</v>
       </c>
-      <c r="H72" s="101" t="s">
+      <c r="H72" s="93" t="s">
         <v>5</v>
       </c>
-      <c r="I72" s="100" t="s">
+      <c r="I72" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="J72" s="100" t="s">
+      <c r="J72" s="92" t="s">
         <v>3</v>
       </c>
-      <c r="K72" s="100" t="s">
+      <c r="K72" s="92" t="s">
         <v>3</v>
       </c>
-      <c r="L72" s="100" t="s">
+      <c r="L72" s="92" t="s">
         <v>4</v>
       </c>
-      <c r="M72" s="100" t="s">
+      <c r="M72" s="92" t="s">
         <v>5</v>
       </c>
-      <c r="N72" s="101" t="s">
+      <c r="N72" s="93" t="s">
         <v>6</v>
       </c>
-      <c r="O72" s="101" t="s">
+      <c r="O72" s="93" t="s">
         <v>5</v>
       </c>
-      <c r="P72" s="100" t="s">
+      <c r="P72" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="Q72" s="59" t="s">
+      <c r="Q72" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="R72" s="112"/>
-      <c r="S72" s="112"/>
-      <c r="T72" s="112"/>
-      <c r="U72" s="112"/>
-      <c r="V72" s="112"/>
-      <c r="W72" s="112"/>
-      <c r="X72" s="112"/>
+      <c r="R72" s="123"/>
+      <c r="S72" s="123"/>
+      <c r="T72" s="123"/>
+      <c r="U72" s="123"/>
+      <c r="V72" s="123"/>
+      <c r="W72" s="123"/>
+      <c r="X72" s="123"/>
     </row>
     <row r="73" spans="2:24" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="17" t="s">
+      <c r="B73" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C73" s="17"/>
-      <c r="D73" s="38">
+      <c r="C73" s="15"/>
+      <c r="D73" s="33">
         <f>+Q56+1</f>
         <v>16</v>
       </c>
-      <c r="E73" s="38">
+      <c r="E73" s="33">
         <f>+D73+1</f>
         <v>17</v>
       </c>
-      <c r="F73" s="38">
+      <c r="F73" s="33">
         <f>+E73+1</f>
         <v>18</v>
       </c>
-      <c r="G73" s="38">
+      <c r="G73" s="33">
         <f>+F73+1</f>
         <v>19</v>
       </c>
-      <c r="H73" s="102">
+      <c r="H73" s="94">
         <f>+G73+1</f>
         <v>20</v>
       </c>
-      <c r="I73" s="102">
+      <c r="I73" s="94">
         <f>+H73+1</f>
         <v>21</v>
       </c>
-      <c r="J73" s="102">
+      <c r="J73" s="94">
         <f>+I73+1</f>
         <v>22</v>
       </c>
-      <c r="K73" s="38">
+      <c r="K73" s="33">
         <f>+J73+1</f>
         <v>23</v>
       </c>
-      <c r="L73" s="38">
+      <c r="L73" s="33">
         <f>+K73+1</f>
         <v>24</v>
       </c>
-      <c r="M73" s="38">
+      <c r="M73" s="33">
         <f>+L73+1</f>
         <v>25</v>
       </c>
-      <c r="N73" s="38">
+      <c r="N73" s="33">
         <f>+M73+1</f>
         <v>26</v>
       </c>
-      <c r="O73" s="38">
+      <c r="O73" s="33">
         <f>+N73+1</f>
         <v>27</v>
       </c>
-      <c r="P73" s="38">
+      <c r="P73" s="33">
         <f>+O73+1</f>
         <v>28</v>
       </c>
-      <c r="Q73" s="67">
+      <c r="Q73" s="61">
         <v>1</v>
       </c>
-      <c r="R73" s="112"/>
-      <c r="S73" s="112"/>
-      <c r="T73" s="112"/>
-      <c r="U73" s="112"/>
-      <c r="V73" s="112"/>
-      <c r="W73" s="112"/>
-      <c r="X73" s="112"/>
+      <c r="R73" s="123"/>
+      <c r="S73" s="123"/>
+      <c r="T73" s="123"/>
+      <c r="U73" s="123"/>
+      <c r="V73" s="123"/>
+      <c r="W73" s="123"/>
+      <c r="X73" s="123"/>
     </row>
     <row r="74" spans="2:24" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="9" t="s">
+      <c r="B74" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C74" s="20" t="s">
+      <c r="C74" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D74" s="50" t="s">
+      <c r="D74" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="E74" s="51"/>
-      <c r="F74" s="51"/>
-      <c r="G74" s="52"/>
-      <c r="H74" s="31" t="s">
+      <c r="E74" s="46"/>
+      <c r="F74" s="46"/>
+      <c r="G74" s="47"/>
+      <c r="H74" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="I74" s="31" t="s">
+      <c r="I74" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="J74" s="31" t="s">
+      <c r="J74" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="K74" s="50" t="s">
+      <c r="K74" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="L74" s="51"/>
-      <c r="M74" s="51"/>
-      <c r="N74" s="52"/>
-      <c r="O74" s="31" t="s">
+      <c r="L74" s="46"/>
+      <c r="M74" s="46"/>
+      <c r="N74" s="47"/>
+      <c r="O74" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="P74" s="31" t="s">
+      <c r="P74" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="Q74" s="31" t="s">
+      <c r="Q74" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="R74" s="112"/>
-      <c r="S74" s="112"/>
-      <c r="T74" s="112"/>
-      <c r="U74" s="112"/>
-      <c r="V74" s="112"/>
-      <c r="W74" s="112"/>
-      <c r="X74" s="112"/>
+      <c r="R74" s="123"/>
+      <c r="S74" s="123"/>
+      <c r="T74" s="123"/>
+      <c r="U74" s="123"/>
+      <c r="V74" s="123"/>
+      <c r="W74" s="123"/>
+      <c r="X74" s="123"/>
     </row>
     <row r="75" spans="2:24" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="11"/>
-      <c r="C75" s="20" t="s">
+      <c r="B75" s="9"/>
+      <c r="C75" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D75" s="38" t="s">
+      <c r="D75" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="E75" s="38" t="s">
+      <c r="E75" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="F75" s="38" t="s">
+      <c r="F75" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="G75" s="38" t="s">
+      <c r="G75" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="H75" s="38" t="s">
+      <c r="H75" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="I75" s="38" t="s">
+      <c r="I75" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="J75" s="38" t="s">
+      <c r="J75" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="K75" s="38" t="s">
+      <c r="K75" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="L75" s="38" t="s">
+      <c r="L75" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="M75" s="38" t="s">
+      <c r="M75" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="N75" s="38" t="s">
+      <c r="N75" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="O75" s="47" t="s">
+      <c r="O75" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="P75" s="38" t="s">
+      <c r="P75" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="Q75" s="67" t="s">
+      <c r="Q75" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="R75" s="112"/>
-      <c r="S75" s="112"/>
-      <c r="T75" s="112"/>
-      <c r="U75" s="112"/>
-      <c r="V75" s="112"/>
-      <c r="W75" s="112"/>
-      <c r="X75" s="112"/>
+      <c r="R75" s="123"/>
+      <c r="S75" s="123"/>
+      <c r="T75" s="123"/>
+      <c r="U75" s="123"/>
+      <c r="V75" s="123"/>
+      <c r="W75" s="123"/>
+      <c r="X75" s="123"/>
     </row>
     <row r="76" spans="2:24" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="11"/>
-      <c r="C76" s="20" t="s">
+      <c r="B76" s="9"/>
+      <c r="C76" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="D76" s="42" t="s">
+      <c r="D76" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="E76" s="43"/>
-      <c r="F76" s="43"/>
-      <c r="G76" s="44"/>
-      <c r="H76" s="36" t="s">
+      <c r="E76" s="38"/>
+      <c r="F76" s="38"/>
+      <c r="G76" s="39"/>
+      <c r="H76" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="I76" s="36" t="s">
+      <c r="I76" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="J76" s="36" t="s">
+      <c r="J76" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="K76" s="42" t="s">
+      <c r="K76" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="L76" s="43"/>
-      <c r="M76" s="43"/>
-      <c r="N76" s="44"/>
-      <c r="O76" s="36" t="s">
+      <c r="L76" s="38"/>
+      <c r="M76" s="38"/>
+      <c r="N76" s="39"/>
+      <c r="O76" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="P76" s="36" t="s">
+      <c r="P76" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="Q76" s="36" t="s">
+      <c r="Q76" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="R76" s="112"/>
-      <c r="S76" s="112"/>
-      <c r="T76" s="112"/>
-      <c r="U76" s="112"/>
-      <c r="V76" s="112"/>
-      <c r="W76" s="112"/>
-      <c r="X76" s="112"/>
+      <c r="R76" s="123"/>
+      <c r="S76" s="123"/>
+      <c r="T76" s="123"/>
+      <c r="U76" s="123"/>
+      <c r="V76" s="123"/>
+      <c r="W76" s="123"/>
+      <c r="X76" s="123"/>
     </row>
     <row r="77" spans="2:24" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="12"/>
-      <c r="C77" s="16" t="s">
+      <c r="B77" s="10"/>
+      <c r="C77" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D77" s="38" t="s">
+      <c r="D77" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="E77" s="38" t="s">
+      <c r="E77" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="F77" s="38" t="s">
+      <c r="F77" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="G77" s="38" t="s">
+      <c r="G77" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="H77" s="38" t="s">
+      <c r="H77" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="I77" s="38" t="s">
+      <c r="I77" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="J77" s="38" t="s">
+      <c r="J77" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="K77" s="38" t="s">
+      <c r="K77" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="L77" s="38" t="s">
+      <c r="L77" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="M77" s="38" t="s">
+      <c r="M77" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="N77" s="38" t="s">
+      <c r="N77" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="O77" s="103" t="s">
+      <c r="O77" s="95" t="s">
         <v>17</v>
       </c>
-      <c r="P77" s="104" t="s">
+      <c r="P77" s="96" t="s">
         <v>17</v>
       </c>
-      <c r="Q77" s="38" t="s">
+      <c r="Q77" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="R77" s="112"/>
-      <c r="S77" s="112"/>
-      <c r="T77" s="112"/>
-      <c r="U77" s="112"/>
-      <c r="V77" s="112"/>
-      <c r="W77" s="112"/>
-      <c r="X77" s="112"/>
+      <c r="R77" s="123"/>
+      <c r="S77" s="123"/>
+      <c r="T77" s="123"/>
+      <c r="U77" s="123"/>
+      <c r="V77" s="123"/>
+      <c r="W77" s="123"/>
+      <c r="X77" s="123"/>
     </row>
     <row r="78" spans="2:24" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="9" t="s">
+      <c r="B78" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C78" s="20" t="s">
+      <c r="C78" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D78" s="50" t="s">
+      <c r="D78" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="E78" s="51"/>
-      <c r="F78" s="51"/>
-      <c r="G78" s="52"/>
-      <c r="H78" s="40" t="s">
+      <c r="E78" s="46"/>
+      <c r="F78" s="46"/>
+      <c r="G78" s="47"/>
+      <c r="H78" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="I78" s="64"/>
-      <c r="J78" s="41"/>
-      <c r="K78" s="50" t="s">
+      <c r="I78" s="58"/>
+      <c r="J78" s="36"/>
+      <c r="K78" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="L78" s="51"/>
-      <c r="M78" s="51"/>
-      <c r="N78" s="52"/>
-      <c r="O78" s="40" t="s">
+      <c r="L78" s="46"/>
+      <c r="M78" s="46"/>
+      <c r="N78" s="47"/>
+      <c r="O78" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="P78" s="64"/>
-      <c r="Q78" s="41"/>
-      <c r="R78" s="112"/>
-      <c r="S78" s="112"/>
-      <c r="T78" s="112"/>
-      <c r="U78" s="112"/>
-      <c r="V78" s="112"/>
-      <c r="W78" s="112"/>
-      <c r="X78" s="112"/>
+      <c r="P78" s="58"/>
+      <c r="Q78" s="36"/>
+      <c r="R78" s="123"/>
+      <c r="S78" s="123"/>
+      <c r="T78" s="123"/>
+      <c r="U78" s="123"/>
+      <c r="V78" s="123"/>
+      <c r="W78" s="123"/>
+      <c r="X78" s="123"/>
     </row>
     <row r="79" spans="2:24" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="12"/>
-      <c r="C79" s="20" t="s">
+      <c r="B79" s="10"/>
+      <c r="C79" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="D79" s="42" t="s">
+      <c r="D79" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="E79" s="43"/>
-      <c r="F79" s="43"/>
-      <c r="G79" s="44"/>
-      <c r="H79" s="69" t="s">
+      <c r="E79" s="38"/>
+      <c r="F79" s="38"/>
+      <c r="G79" s="39"/>
+      <c r="H79" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="I79" s="70"/>
-      <c r="J79" s="71"/>
-      <c r="K79" s="42" t="s">
+      <c r="I79" s="64"/>
+      <c r="J79" s="65"/>
+      <c r="K79" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="L79" s="43"/>
-      <c r="M79" s="43"/>
-      <c r="N79" s="44"/>
-      <c r="O79" s="69" t="s">
+      <c r="L79" s="38"/>
+      <c r="M79" s="38"/>
+      <c r="N79" s="39"/>
+      <c r="O79" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="P79" s="70"/>
-      <c r="Q79" s="71"/>
-      <c r="R79" s="112"/>
-      <c r="S79" s="112"/>
-      <c r="T79" s="112"/>
-      <c r="U79" s="112"/>
-      <c r="V79" s="112"/>
-      <c r="W79" s="112"/>
-      <c r="X79" s="112"/>
+      <c r="P79" s="64"/>
+      <c r="Q79" s="65"/>
+      <c r="R79" s="123"/>
+      <c r="S79" s="123"/>
+      <c r="T79" s="123"/>
+      <c r="U79" s="123"/>
+      <c r="V79" s="123"/>
+      <c r="W79" s="123"/>
+      <c r="X79" s="123"/>
     </row>
     <row r="80" spans="2:24" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="14" t="s">
+      <c r="B80" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C80" s="20" t="s">
+      <c r="C80" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D80" s="50" t="s">
+      <c r="D80" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="E80" s="51"/>
-      <c r="F80" s="52"/>
-      <c r="G80" s="30" t="s">
+      <c r="E80" s="46"/>
+      <c r="F80" s="47"/>
+      <c r="G80" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="H80" s="40" t="s">
+      <c r="H80" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="I80" s="64"/>
-      <c r="J80" s="41"/>
-      <c r="K80" s="50" t="s">
+      <c r="I80" s="58"/>
+      <c r="J80" s="36"/>
+      <c r="K80" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="L80" s="51"/>
-      <c r="M80" s="52"/>
-      <c r="N80" s="30" t="s">
+      <c r="L80" s="46"/>
+      <c r="M80" s="47"/>
+      <c r="N80" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="O80" s="40" t="s">
+      <c r="O80" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="P80" s="64"/>
-      <c r="Q80" s="41"/>
-      <c r="R80" s="112"/>
-      <c r="S80" s="112"/>
-      <c r="T80" s="112"/>
-      <c r="U80" s="112"/>
-      <c r="V80" s="112"/>
-      <c r="W80" s="112"/>
-      <c r="X80" s="112"/>
+      <c r="P80" s="58"/>
+      <c r="Q80" s="36"/>
+      <c r="R80" s="123"/>
+      <c r="S80" s="123"/>
+      <c r="T80" s="123"/>
+      <c r="U80" s="123"/>
+      <c r="V80" s="123"/>
+      <c r="W80" s="123"/>
+      <c r="X80" s="123"/>
     </row>
     <row r="81" spans="2:24" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="15"/>
-      <c r="C81" s="20" t="s">
+      <c r="B81" s="13"/>
+      <c r="C81" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="D81" s="42" t="s">
+      <c r="D81" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="E81" s="43"/>
-      <c r="F81" s="44"/>
-      <c r="G81" s="35" t="s">
+      <c r="E81" s="38"/>
+      <c r="F81" s="39"/>
+      <c r="G81" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="H81" s="48" t="s">
+      <c r="H81" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="I81" s="72"/>
-      <c r="J81" s="49"/>
-      <c r="K81" s="42" t="s">
+      <c r="I81" s="66"/>
+      <c r="J81" s="44"/>
+      <c r="K81" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="L81" s="43"/>
-      <c r="M81" s="44"/>
-      <c r="N81" s="35" t="s">
+      <c r="L81" s="38"/>
+      <c r="M81" s="39"/>
+      <c r="N81" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="O81" s="48" t="s">
+      <c r="O81" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="P81" s="72"/>
-      <c r="Q81" s="49"/>
-      <c r="R81" s="112"/>
-      <c r="S81" s="112"/>
-      <c r="T81" s="112"/>
-      <c r="U81" s="112"/>
-      <c r="V81" s="112"/>
-      <c r="W81" s="112"/>
-      <c r="X81" s="112"/>
+      <c r="P81" s="66"/>
+      <c r="Q81" s="44"/>
+      <c r="R81" s="123"/>
+      <c r="S81" s="123"/>
+      <c r="T81" s="123"/>
+      <c r="U81" s="123"/>
+      <c r="V81" s="123"/>
+      <c r="W81" s="123"/>
+      <c r="X81" s="123"/>
     </row>
     <row r="82" spans="2:24" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B82" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C82" s="16" t="s">
+      <c r="C82" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D82" s="50" t="s">
+      <c r="D82" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="E82" s="51"/>
-      <c r="F82" s="52"/>
-      <c r="G82" s="30" t="s">
+      <c r="E82" s="46"/>
+      <c r="F82" s="47"/>
+      <c r="G82" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="H82" s="40" t="s">
+      <c r="H82" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="I82" s="64"/>
-      <c r="J82" s="41"/>
-      <c r="K82" s="50" t="s">
+      <c r="I82" s="58"/>
+      <c r="J82" s="36"/>
+      <c r="K82" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="L82" s="51"/>
-      <c r="M82" s="52"/>
-      <c r="N82" s="30" t="s">
+      <c r="L82" s="46"/>
+      <c r="M82" s="47"/>
+      <c r="N82" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="O82" s="40" t="s">
+      <c r="O82" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="P82" s="64"/>
-      <c r="Q82" s="41"/>
-      <c r="R82" s="112"/>
-      <c r="S82" s="112"/>
-      <c r="T82" s="112"/>
-      <c r="U82" s="112"/>
-      <c r="V82" s="112"/>
-      <c r="W82" s="112"/>
-      <c r="X82" s="112"/>
+      <c r="P82" s="58"/>
+      <c r="Q82" s="36"/>
+      <c r="R82" s="123"/>
+      <c r="S82" s="123"/>
+      <c r="T82" s="123"/>
+      <c r="U82" s="123"/>
+      <c r="V82" s="123"/>
+      <c r="W82" s="123"/>
+      <c r="X82" s="123"/>
     </row>
     <row r="83" spans="2:24" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B83" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C83" s="16" t="s">
+      <c r="C83" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D83" s="50" t="s">
+      <c r="D83" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="E83" s="51"/>
-      <c r="F83" s="51"/>
-      <c r="G83" s="52"/>
-      <c r="H83" s="40" t="s">
+      <c r="E83" s="46"/>
+      <c r="F83" s="46"/>
+      <c r="G83" s="47"/>
+      <c r="H83" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="I83" s="64"/>
-      <c r="J83" s="64"/>
-      <c r="K83" s="50" t="s">
+      <c r="I83" s="58"/>
+      <c r="J83" s="58"/>
+      <c r="K83" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="L83" s="51"/>
-      <c r="M83" s="51"/>
-      <c r="N83" s="52"/>
-      <c r="O83" s="40" t="s">
+      <c r="L83" s="46"/>
+      <c r="M83" s="46"/>
+      <c r="N83" s="47"/>
+      <c r="O83" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="P83" s="64"/>
-      <c r="Q83" s="64"/>
-      <c r="R83" s="112"/>
-      <c r="S83" s="112"/>
-      <c r="T83" s="112"/>
-      <c r="U83" s="112"/>
-      <c r="V83" s="112"/>
-      <c r="W83" s="112"/>
-      <c r="X83" s="112"/>
+      <c r="P83" s="58"/>
+      <c r="Q83" s="58"/>
+      <c r="R83" s="123"/>
+      <c r="S83" s="123"/>
+      <c r="T83" s="123"/>
+      <c r="U83" s="123"/>
+      <c r="V83" s="123"/>
+      <c r="W83" s="123"/>
+      <c r="X83" s="123"/>
     </row>
     <row r="84" spans="2:24" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="17" t="s">
+      <c r="B84" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="C84" s="16" t="s">
+      <c r="C84" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D84" s="56" t="s">
+      <c r="D84" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="E84" s="35" t="s">
+      <c r="E84" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="F84" s="35" t="s">
+      <c r="F84" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="G84" s="35" t="s">
+      <c r="G84" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="H84" s="35" t="s">
+      <c r="H84" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="I84" s="56" t="s">
+      <c r="I84" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="J84" s="56" t="s">
+      <c r="J84" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="K84" s="56" t="s">
+      <c r="K84" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="L84" s="35" t="s">
+      <c r="L84" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="M84" s="35" t="s">
+      <c r="M84" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="N84" s="35" t="s">
+      <c r="N84" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="O84" s="35" t="s">
+      <c r="O84" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="P84" s="56" t="s">
+      <c r="P84" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="Q84" s="56" t="s">
+      <c r="Q84" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="R84" s="112"/>
-      <c r="S84" s="112"/>
-      <c r="T84" s="112"/>
-      <c r="U84" s="112"/>
-      <c r="V84" s="112"/>
-      <c r="W84" s="112"/>
-      <c r="X84" s="112"/>
+      <c r="R84" s="123"/>
+      <c r="S84" s="123"/>
+      <c r="T84" s="123"/>
+      <c r="U84" s="123"/>
+      <c r="V84" s="123"/>
+      <c r="W84" s="123"/>
+      <c r="X84" s="123"/>
     </row>
     <row r="85" spans="2:24" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="17"/>
-      <c r="C85" s="16" t="s">
+      <c r="B85" s="15"/>
+      <c r="C85" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D85" s="56" t="s">
+      <c r="D85" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="E85" s="56" t="s">
+      <c r="E85" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="F85" s="36" t="s">
+      <c r="F85" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="G85" s="36" t="s">
+      <c r="G85" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="H85" s="36" t="s">
+      <c r="H85" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="I85" s="36" t="s">
+      <c r="I85" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="J85" s="56" t="s">
+      <c r="J85" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="K85" s="56" t="s">
+      <c r="K85" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="L85" s="56" t="s">
+      <c r="L85" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="M85" s="36" t="s">
+      <c r="M85" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="N85" s="36" t="s">
+      <c r="N85" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="O85" s="36" t="s">
+      <c r="O85" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="P85" s="36" t="s">
+      <c r="P85" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="Q85" s="56" t="s">
+      <c r="Q85" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="R85" s="112"/>
-      <c r="S85" s="112"/>
-      <c r="T85" s="112"/>
-      <c r="U85" s="112"/>
-      <c r="V85" s="112"/>
-      <c r="W85" s="112"/>
-      <c r="X85" s="112"/>
+      <c r="R85" s="123"/>
+      <c r="S85" s="123"/>
+      <c r="T85" s="123"/>
+      <c r="U85" s="123"/>
+      <c r="V85" s="123"/>
+      <c r="W85" s="123"/>
+      <c r="X85" s="123"/>
     </row>
     <row r="86" spans="2:24" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="112"/>
-      <c r="C86" s="112"/>
-      <c r="D86" s="112"/>
-      <c r="E86" s="112"/>
-      <c r="F86" s="112"/>
-      <c r="G86" s="112"/>
-      <c r="H86" s="112"/>
-      <c r="I86" s="112"/>
-      <c r="J86" s="112"/>
-      <c r="K86" s="112"/>
-      <c r="L86" s="112"/>
-      <c r="M86" s="112"/>
-      <c r="N86" s="112"/>
-      <c r="O86" s="112"/>
-      <c r="P86" s="112"/>
-      <c r="Q86" s="112"/>
-      <c r="R86" s="112"/>
-      <c r="S86" s="112"/>
-      <c r="T86" s="112"/>
-      <c r="U86" s="112"/>
-      <c r="V86" s="112"/>
-      <c r="W86" s="112"/>
-      <c r="X86" s="112"/>
+      <c r="B86" s="104"/>
+      <c r="C86" s="104"/>
+      <c r="D86" s="105"/>
+      <c r="E86" s="105"/>
+      <c r="F86" s="105"/>
+      <c r="G86" s="105"/>
+      <c r="H86" s="105"/>
+      <c r="I86" s="105"/>
+      <c r="J86" s="105"/>
+      <c r="K86" s="105"/>
+      <c r="L86" s="105"/>
+      <c r="M86" s="105"/>
+      <c r="N86" s="105"/>
+      <c r="O86" s="105"/>
+      <c r="P86" s="105"/>
+      <c r="Q86" s="105"/>
+      <c r="R86" s="123"/>
+      <c r="S86" s="123"/>
+      <c r="T86" s="123"/>
+      <c r="U86" s="123"/>
+      <c r="V86" s="123"/>
+      <c r="W86" s="123"/>
+      <c r="X86" s="123"/>
     </row>
     <row r="87" spans="2:24" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="112"/>
-      <c r="C87" s="112"/>
-      <c r="D87" s="112"/>
-      <c r="E87" s="112"/>
-      <c r="F87" s="112"/>
-      <c r="G87" s="112"/>
-      <c r="H87" s="112"/>
-      <c r="I87" s="112"/>
-      <c r="J87" s="112"/>
-      <c r="K87" s="112"/>
-      <c r="L87" s="112"/>
-      <c r="M87" s="112"/>
-      <c r="N87" s="112"/>
-      <c r="O87" s="112"/>
-      <c r="P87" s="112"/>
-      <c r="Q87" s="112"/>
-      <c r="R87" s="112"/>
-      <c r="S87" s="112"/>
-      <c r="T87" s="112"/>
-      <c r="U87" s="112"/>
-      <c r="V87" s="112"/>
-      <c r="W87" s="112"/>
-      <c r="X87" s="112"/>
+      <c r="B87" s="104"/>
+      <c r="C87" s="104"/>
+      <c r="D87" s="105"/>
+      <c r="E87" s="105"/>
+      <c r="F87" s="105"/>
+      <c r="G87" s="105"/>
+      <c r="H87" s="105"/>
+      <c r="I87" s="105"/>
+      <c r="J87" s="105"/>
+      <c r="K87" s="105"/>
+      <c r="L87" s="105"/>
+      <c r="M87" s="105"/>
+      <c r="N87" s="105"/>
+      <c r="O87" s="105"/>
+      <c r="P87" s="105"/>
+      <c r="Q87" s="105"/>
+      <c r="R87" s="123"/>
+      <c r="S87" s="123"/>
+      <c r="T87" s="123"/>
+      <c r="U87" s="123"/>
+      <c r="V87" s="123"/>
+      <c r="W87" s="123"/>
+      <c r="X87" s="123"/>
     </row>
     <row r="88" spans="2:24" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="6"/>
-      <c r="C88" s="6"/>
-      <c r="D88" s="27" t="s">
+      <c r="B88" s="4"/>
+      <c r="C88" s="4"/>
+      <c r="D88" s="53" t="s">
         <v>52</v>
       </c>
-      <c r="E88" s="27"/>
-      <c r="F88" s="27"/>
-      <c r="G88" s="27"/>
-      <c r="H88" s="27"/>
-      <c r="I88" s="27" t="s">
+      <c r="E88" s="54"/>
+      <c r="F88" s="54"/>
+      <c r="G88" s="54"/>
+      <c r="H88" s="54"/>
+      <c r="I88" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="J88" s="28">
+      <c r="J88" s="55">
         <f>Q71+1</f>
         <v>10</v>
       </c>
-      <c r="K88" s="59" t="s">
+      <c r="K88" s="53" t="s">
         <v>52</v>
       </c>
-      <c r="L88" s="60"/>
-      <c r="M88" s="60"/>
-      <c r="N88" s="60"/>
-      <c r="O88" s="60"/>
-      <c r="P88" s="60" t="s">
+      <c r="L88" s="54"/>
+      <c r="M88" s="54"/>
+      <c r="N88" s="54"/>
+      <c r="O88" s="54"/>
+      <c r="P88" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="Q88" s="83">
+      <c r="Q88" s="75">
         <f>J88+1</f>
         <v>11</v>
       </c>
-      <c r="R88" s="58"/>
-      <c r="S88" s="58"/>
-      <c r="T88" s="58"/>
-      <c r="U88" s="58"/>
-      <c r="V88" s="58"/>
-      <c r="W88" s="58"/>
-      <c r="X88" s="58"/>
+      <c r="R88" s="120"/>
+      <c r="S88" s="120"/>
+      <c r="T88" s="120"/>
+      <c r="U88" s="120"/>
+      <c r="V88" s="120"/>
+      <c r="W88" s="120"/>
+      <c r="X88" s="120"/>
     </row>
     <row r="89" spans="2:24" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B89" s="6" t="s">
+      <c r="B89" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C89" s="6"/>
-      <c r="D89" s="27" t="s">
+      <c r="C89" s="4"/>
+      <c r="D89" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="E89" s="27" t="s">
+      <c r="E89" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="F89" s="27" t="s">
+      <c r="F89" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="G89" s="34" t="s">
+      <c r="G89" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="H89" s="34" t="s">
+      <c r="H89" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="I89" s="27" t="s">
+      <c r="I89" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="J89" s="27" t="s">
+      <c r="J89" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="K89" s="27" t="s">
+      <c r="K89" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="L89" s="27" t="s">
+      <c r="L89" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="M89" s="27" t="s">
+      <c r="M89" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="N89" s="34" t="s">
+      <c r="N89" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="O89" s="34" t="s">
+      <c r="O89" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="P89" s="27" t="s">
+      <c r="P89" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="Q89" s="27" t="s">
+      <c r="Q89" s="23" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="90" spans="2:24" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B90" s="17" t="s">
+      <c r="B90" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C90" s="17"/>
-      <c r="D90" s="67">
+      <c r="C90" s="15"/>
+      <c r="D90" s="61">
         <f>+Q73+1</f>
         <v>2</v>
       </c>
-      <c r="E90" s="67">
+      <c r="E90" s="61">
         <f>+D90+1</f>
         <v>3</v>
       </c>
-      <c r="F90" s="67">
+      <c r="F90" s="61">
         <f>+E90+1</f>
         <v>4</v>
       </c>
-      <c r="G90" s="67">
+      <c r="G90" s="61">
         <f>+F90+1</f>
         <v>5</v>
       </c>
-      <c r="H90" s="38">
+      <c r="H90" s="33">
         <f>+G90+1</f>
         <v>6</v>
       </c>
-      <c r="I90" s="38">
+      <c r="I90" s="33">
         <f>+H90+1</f>
         <v>7</v>
       </c>
-      <c r="J90" s="38">
+      <c r="J90" s="33">
         <f>+I90+1</f>
         <v>8</v>
       </c>
-      <c r="K90" s="38">
+      <c r="K90" s="33">
         <f>J90+1</f>
         <v>9</v>
       </c>
-      <c r="L90" s="38">
+      <c r="L90" s="33">
         <f>+K90+1</f>
         <v>10</v>
       </c>
-      <c r="M90" s="38">
+      <c r="M90" s="33">
         <f>+L90+1</f>
         <v>11</v>
       </c>
-      <c r="N90" s="38">
+      <c r="N90" s="33">
         <f>+M90+1</f>
         <v>12</v>
       </c>
-      <c r="O90" s="38">
+      <c r="O90" s="33">
         <f>+N90+1</f>
         <v>13</v>
       </c>
-      <c r="P90" s="38">
+      <c r="P90" s="33">
         <f>+O90+1</f>
         <v>14</v>
       </c>
-      <c r="Q90" s="38">
+      <c r="Q90" s="33">
         <f>+P90+1</f>
         <v>15</v>
       </c>
     </row>
     <row r="91" spans="2:24" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="9" t="s">
+      <c r="B91" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C91" s="20" t="s">
+      <c r="C91" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D91" s="50" t="s">
+      <c r="D91" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="E91" s="51"/>
-      <c r="F91" s="51"/>
-      <c r="G91" s="52"/>
-      <c r="H91" s="40" t="s">
+      <c r="E91" s="46"/>
+      <c r="F91" s="46"/>
+      <c r="G91" s="47"/>
+      <c r="H91" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="I91" s="64"/>
-      <c r="J91" s="41"/>
-      <c r="K91" s="42" t="s">
+      <c r="I91" s="58"/>
+      <c r="J91" s="36"/>
+      <c r="K91" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="L91" s="43"/>
-      <c r="M91" s="43"/>
-      <c r="N91" s="44"/>
-      <c r="O91" s="93" t="s">
+      <c r="L91" s="38"/>
+      <c r="M91" s="38"/>
+      <c r="N91" s="39"/>
+      <c r="O91" s="85" t="s">
         <v>57</v>
       </c>
-      <c r="P91" s="93" t="s">
+      <c r="P91" s="85" t="s">
         <v>57</v>
       </c>
-      <c r="Q91" s="93" t="s">
+      <c r="Q91" s="85" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="92" spans="2:24" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B92" s="11"/>
-      <c r="C92" s="20" t="s">
+      <c r="B92" s="9"/>
+      <c r="C92" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D92" s="38" t="s">
+      <c r="D92" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="E92" s="38" t="s">
+      <c r="E92" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="F92" s="38" t="s">
+      <c r="F92" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="G92" s="38" t="s">
+      <c r="G92" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="H92" s="38" t="s">
+      <c r="H92" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="I92" s="38" t="s">
+      <c r="I92" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="J92" s="38" t="s">
+      <c r="J92" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="K92" s="47" t="s">
+      <c r="K92" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="L92" s="38" t="s">
+      <c r="L92" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="M92" s="47" t="s">
+      <c r="M92" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="N92" s="38" t="s">
+      <c r="N92" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="O92" s="38" t="s">
+      <c r="O92" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="P92" s="38" t="s">
+      <c r="P92" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="Q92" s="38" t="s">
+      <c r="Q92" s="33" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="93" spans="2:24" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B93" s="11"/>
-      <c r="C93" s="20" t="s">
+      <c r="B93" s="9"/>
+      <c r="C93" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="D93" s="42" t="s">
+      <c r="D93" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="E93" s="43"/>
-      <c r="F93" s="43"/>
-      <c r="G93" s="44"/>
-      <c r="H93" s="48" t="s">
+      <c r="E93" s="38"/>
+      <c r="F93" s="38"/>
+      <c r="G93" s="39"/>
+      <c r="H93" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="I93" s="72"/>
-      <c r="J93" s="49"/>
-      <c r="K93" s="50" t="s">
+      <c r="I93" s="66"/>
+      <c r="J93" s="44"/>
+      <c r="K93" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="L93" s="51"/>
-      <c r="M93" s="51"/>
-      <c r="N93" s="52"/>
-      <c r="O93" s="76" t="s">
+      <c r="L93" s="46"/>
+      <c r="M93" s="46"/>
+      <c r="N93" s="47"/>
+      <c r="O93" s="70" t="s">
         <v>55</v>
       </c>
-      <c r="P93" s="76" t="s">
+      <c r="P93" s="70" t="s">
         <v>55</v>
       </c>
-      <c r="Q93" s="76" t="s">
+      <c r="Q93" s="70" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="94" spans="2:24" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B94" s="12"/>
-      <c r="C94" s="16" t="s">
+      <c r="B94" s="10"/>
+      <c r="C94" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D94" s="38" t="s">
+      <c r="D94" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="E94" s="38" t="s">
+      <c r="E94" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="F94" s="38" t="s">
+      <c r="F94" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="G94" s="38" t="s">
+      <c r="G94" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="H94" s="38" t="s">
+      <c r="H94" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="I94" s="38" t="s">
+      <c r="I94" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="J94" s="38" t="s">
+      <c r="J94" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="K94" s="47" t="s">
+      <c r="K94" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="L94" s="38" t="s">
+      <c r="L94" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="M94" s="47" t="s">
+      <c r="M94" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="N94" s="38" t="s">
+      <c r="N94" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="O94" s="38" t="s">
+      <c r="O94" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="P94" s="38" t="s">
+      <c r="P94" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="Q94" s="38" t="s">
+      <c r="Q94" s="33" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="95" spans="2:24" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B95" s="9" t="s">
+      <c r="B95" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C95" s="20" t="s">
+      <c r="C95" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D95" s="50" t="s">
+      <c r="D95" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="E95" s="51"/>
-      <c r="F95" s="51"/>
-      <c r="G95" s="52"/>
-      <c r="H95" s="40" t="s">
+      <c r="E95" s="46"/>
+      <c r="F95" s="46"/>
+      <c r="G95" s="47"/>
+      <c r="H95" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="I95" s="64"/>
-      <c r="J95" s="41"/>
-      <c r="K95" s="42" t="s">
+      <c r="I95" s="58"/>
+      <c r="J95" s="36"/>
+      <c r="K95" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="L95" s="43"/>
-      <c r="M95" s="43"/>
-      <c r="N95" s="44"/>
-      <c r="O95" s="78" t="s">
+      <c r="L95" s="38"/>
+      <c r="M95" s="38"/>
+      <c r="N95" s="39"/>
+      <c r="O95" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="P95" s="78" t="s">
+      <c r="P95" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="Q95" s="78" t="s">
+      <c r="Q95" s="72" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="96" spans="2:24" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B96" s="12"/>
-      <c r="C96" s="20" t="s">
+      <c r="B96" s="10"/>
+      <c r="C96" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="D96" s="42" t="s">
+      <c r="D96" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="E96" s="43"/>
-      <c r="F96" s="43"/>
-      <c r="G96" s="44"/>
-      <c r="H96" s="69" t="s">
+      <c r="E96" s="38"/>
+      <c r="F96" s="38"/>
+      <c r="G96" s="39"/>
+      <c r="H96" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="I96" s="70"/>
-      <c r="J96" s="71"/>
-      <c r="K96" s="50" t="s">
+      <c r="I96" s="64"/>
+      <c r="J96" s="65"/>
+      <c r="K96" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="L96" s="51"/>
-      <c r="M96" s="51"/>
-      <c r="N96" s="52"/>
-      <c r="O96" s="76" t="s">
+      <c r="L96" s="46"/>
+      <c r="M96" s="46"/>
+      <c r="N96" s="47"/>
+      <c r="O96" s="70" t="s">
         <v>20</v>
       </c>
-      <c r="P96" s="76" t="s">
+      <c r="P96" s="70" t="s">
         <v>20</v>
       </c>
-      <c r="Q96" s="76" t="s">
+      <c r="Q96" s="70" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="97" spans="2:24" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B97" s="14" t="s">
+      <c r="B97" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C97" s="20" t="s">
+      <c r="C97" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D97" s="50" t="s">
+      <c r="D97" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="E97" s="51"/>
-      <c r="F97" s="52"/>
-      <c r="G97" s="30" t="s">
+      <c r="E97" s="46"/>
+      <c r="F97" s="47"/>
+      <c r="G97" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="H97" s="40" t="s">
+      <c r="H97" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="I97" s="64"/>
-      <c r="J97" s="41"/>
-      <c r="K97" s="42" t="s">
+      <c r="I97" s="58"/>
+      <c r="J97" s="36"/>
+      <c r="K97" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="L97" s="43"/>
-      <c r="M97" s="43"/>
-      <c r="N97" s="35" t="s">
+      <c r="L97" s="38"/>
+      <c r="M97" s="38"/>
+      <c r="N97" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="O97" s="79" t="s">
+      <c r="O97" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="P97" s="79"/>
-      <c r="Q97" s="79"/>
+      <c r="P97" s="73"/>
+      <c r="Q97" s="73"/>
     </row>
     <row r="98" spans="2:24" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B98" s="15"/>
-      <c r="C98" s="20" t="s">
+      <c r="B98" s="13"/>
+      <c r="C98" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="D98" s="42" t="s">
+      <c r="D98" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="E98" s="43"/>
-      <c r="F98" s="44"/>
-      <c r="G98" s="35" t="s">
+      <c r="E98" s="38"/>
+      <c r="F98" s="39"/>
+      <c r="G98" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="H98" s="48" t="s">
+      <c r="H98" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="I98" s="72"/>
-      <c r="J98" s="49"/>
-      <c r="K98" s="50" t="s">
+      <c r="I98" s="66"/>
+      <c r="J98" s="44"/>
+      <c r="K98" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="L98" s="51"/>
-      <c r="M98" s="51"/>
-      <c r="N98" s="30" t="s">
+      <c r="L98" s="46"/>
+      <c r="M98" s="46"/>
+      <c r="N98" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="O98" s="80" t="s">
+      <c r="O98" s="74" t="s">
         <v>25</v>
       </c>
-      <c r="P98" s="80"/>
-      <c r="Q98" s="80"/>
+      <c r="P98" s="74"/>
+      <c r="Q98" s="74"/>
     </row>
     <row r="99" spans="2:24" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B99" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C99" s="16" t="s">
+      <c r="C99" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D99" s="50" t="s">
+      <c r="D99" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="E99" s="51"/>
-      <c r="F99" s="52"/>
-      <c r="G99" s="30" t="s">
+      <c r="E99" s="46"/>
+      <c r="F99" s="47"/>
+      <c r="G99" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="H99" s="40" t="s">
+      <c r="H99" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="I99" s="64"/>
-      <c r="J99" s="41"/>
-      <c r="K99" s="50" t="s">
+      <c r="I99" s="58"/>
+      <c r="J99" s="36"/>
+      <c r="K99" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="L99" s="51"/>
-      <c r="M99" s="52"/>
-      <c r="N99" s="30" t="s">
+      <c r="L99" s="46"/>
+      <c r="M99" s="47"/>
+      <c r="N99" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="O99" s="80" t="s">
+      <c r="O99" s="74" t="s">
         <v>32</v>
       </c>
-      <c r="P99" s="80"/>
-      <c r="Q99" s="80"/>
+      <c r="P99" s="74"/>
+      <c r="Q99" s="74"/>
     </row>
     <row r="100" spans="2:24" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B100" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C100" s="16" t="s">
+      <c r="C100" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D100" s="50" t="s">
+      <c r="D100" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="E100" s="51"/>
-      <c r="F100" s="51"/>
-      <c r="G100" s="52"/>
-      <c r="H100" s="40" t="s">
+      <c r="E100" s="46"/>
+      <c r="F100" s="46"/>
+      <c r="G100" s="47"/>
+      <c r="H100" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="I100" s="64"/>
-      <c r="J100" s="64"/>
-      <c r="K100" s="111" t="s">
+      <c r="I100" s="58"/>
+      <c r="J100" s="58"/>
+      <c r="K100" s="103" t="s">
         <v>37</v>
       </c>
-      <c r="L100" s="111"/>
-      <c r="M100" s="111"/>
-      <c r="N100" s="111"/>
-      <c r="O100" s="31" t="s">
+      <c r="L100" s="103"/>
+      <c r="M100" s="103"/>
+      <c r="N100" s="103"/>
+      <c r="O100" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="P100" s="31" t="s">
+      <c r="P100" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="Q100" s="31" t="s">
+      <c r="Q100" s="27" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="101" spans="2:24" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B101" s="17" t="s">
+      <c r="B101" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="C101" s="16" t="s">
+      <c r="C101" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D101" s="56" t="s">
+      <c r="D101" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="E101" s="35" t="s">
+      <c r="E101" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="F101" s="35" t="s">
+      <c r="F101" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="G101" s="35" t="s">
+      <c r="G101" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="H101" s="35" t="s">
+      <c r="H101" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="I101" s="56" t="s">
+      <c r="I101" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="J101" s="56" t="s">
+      <c r="J101" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="K101" s="56" t="s">
+      <c r="K101" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="L101" s="35" t="s">
+      <c r="L101" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="M101" s="35" t="s">
+      <c r="M101" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="N101" s="35" t="s">
+      <c r="N101" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="O101" s="35" t="s">
+      <c r="O101" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="P101" s="56" t="s">
+      <c r="P101" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="Q101" s="56" t="s">
+      <c r="Q101" s="51" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="102" spans="2:24" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B102" s="17"/>
-      <c r="C102" s="16" t="s">
+      <c r="B102" s="15"/>
+      <c r="C102" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D102" s="56" t="s">
+      <c r="D102" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="E102" s="56" t="s">
+      <c r="E102" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="F102" s="36" t="s">
+      <c r="F102" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="G102" s="36" t="s">
+      <c r="G102" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="H102" s="36" t="s">
+      <c r="H102" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="I102" s="36" t="s">
+      <c r="I102" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="J102" s="56" t="s">
+      <c r="J102" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="K102" s="56" t="s">
+      <c r="K102" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="L102" s="56" t="s">
+      <c r="L102" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="M102" s="36" t="s">
+      <c r="M102" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="N102" s="36" t="s">
+      <c r="N102" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="O102" s="36" t="s">
+      <c r="O102" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="P102" s="36" t="s">
+      <c r="P102" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="Q102" s="56" t="s">
+      <c r="Q102" s="51" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="103" spans="2:24" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="104" spans="2:24" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B104" s="2"/>
-      <c r="C104" s="22"/>
-      <c r="D104" s="32"/>
-      <c r="E104" s="32"/>
-      <c r="F104" s="32"/>
-      <c r="G104" s="32"/>
-      <c r="H104" s="32"/>
-      <c r="I104" s="32"/>
-      <c r="J104" s="32"/>
-      <c r="K104" s="32"/>
-      <c r="L104" s="32"/>
-      <c r="M104" s="32"/>
-      <c r="N104" s="32"/>
-      <c r="O104" s="32"/>
-      <c r="P104" s="32"/>
-      <c r="Q104" s="32"/>
-      <c r="R104" s="32"/>
-      <c r="S104" s="32"/>
-      <c r="T104" s="32"/>
-      <c r="U104" s="32"/>
-      <c r="V104" s="32"/>
-      <c r="W104" s="32"/>
-      <c r="X104" s="32"/>
+      <c r="C104" s="19"/>
+      <c r="D104" s="28"/>
+      <c r="E104" s="28"/>
+      <c r="F104" s="28"/>
+      <c r="G104" s="28"/>
+      <c r="H104" s="28"/>
+      <c r="I104" s="28"/>
+      <c r="J104" s="28"/>
+      <c r="K104" s="28"/>
+      <c r="L104" s="28"/>
+      <c r="M104" s="28"/>
+      <c r="N104" s="28"/>
+      <c r="O104" s="28"/>
+      <c r="P104" s="28"/>
+      <c r="Q104" s="28"/>
+      <c r="R104" s="120"/>
+      <c r="S104" s="120"/>
+      <c r="T104" s="120"/>
+      <c r="U104" s="120"/>
+      <c r="V104" s="120"/>
+      <c r="W104" s="120"/>
+      <c r="X104" s="120"/>
     </row>
     <row r="105" spans="2:24" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B105" s="6"/>
-      <c r="C105" s="6"/>
-      <c r="D105" s="59" t="s">
+      <c r="B105" s="4"/>
+      <c r="C105" s="4"/>
+      <c r="D105" s="53" t="s">
         <v>52</v>
       </c>
-      <c r="E105" s="60"/>
-      <c r="F105" s="60"/>
-      <c r="G105" s="60"/>
-      <c r="H105" s="60"/>
-      <c r="I105" s="60" t="s">
+      <c r="E105" s="54"/>
+      <c r="F105" s="54"/>
+      <c r="G105" s="54"/>
+      <c r="H105" s="54"/>
+      <c r="I105" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="J105" s="83">
+      <c r="J105" s="75">
         <f>Q88+1</f>
         <v>12</v>
       </c>
-      <c r="K105" s="59" t="s">
+      <c r="K105" s="53" t="s">
         <v>52</v>
       </c>
-      <c r="L105" s="60"/>
-      <c r="M105" s="60"/>
-      <c r="N105" s="60"/>
-      <c r="O105" s="60"/>
-      <c r="P105" s="84" t="s">
+      <c r="L105" s="54"/>
+      <c r="M105" s="54"/>
+      <c r="N105" s="54"/>
+      <c r="O105" s="54"/>
+      <c r="P105" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="Q105" s="83">
+      <c r="Q105" s="75">
         <f>J105+1</f>
         <v>13</v>
       </c>
     </row>
     <row r="106" spans="2:24" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B106" s="6" t="s">
+      <c r="B106" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C106" s="6"/>
-      <c r="D106" s="27" t="s">
+      <c r="C106" s="4"/>
+      <c r="D106" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="E106" s="27" t="s">
+      <c r="E106" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="F106" s="27" t="s">
+      <c r="F106" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="G106" s="34" t="s">
+      <c r="G106" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="H106" s="34" t="s">
+      <c r="H106" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="I106" s="27" t="s">
+      <c r="I106" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="J106" s="27" t="s">
+      <c r="J106" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="K106" s="27" t="s">
+      <c r="K106" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="L106" s="27" t="s">
+      <c r="L106" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="M106" s="27" t="s">
+      <c r="M106" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="N106" s="34" t="s">
+      <c r="N106" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="O106" s="34" t="s">
+      <c r="O106" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="P106" s="27" t="s">
+      <c r="P106" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="Q106" s="27" t="s">
+      <c r="Q106" s="23" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="107" spans="2:24" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B107" s="17" t="s">
+      <c r="B107" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C107" s="17"/>
-      <c r="D107" s="38">
+      <c r="C107" s="15"/>
+      <c r="D107" s="33">
         <f>+Q90+1</f>
         <v>16</v>
       </c>
-      <c r="E107" s="38">
+      <c r="E107" s="33">
         <f>+D107+1</f>
         <v>17</v>
       </c>
-      <c r="F107" s="38">
+      <c r="F107" s="33">
         <f>+E107+1</f>
         <v>18</v>
       </c>
-      <c r="G107" s="38">
+      <c r="G107" s="33">
         <f>+F107+1</f>
         <v>19</v>
       </c>
-      <c r="H107" s="38">
+      <c r="H107" s="33">
         <f>+G107+1</f>
         <v>20</v>
       </c>
-      <c r="I107" s="38">
+      <c r="I107" s="33">
         <f>+H107+1</f>
         <v>21</v>
       </c>
-      <c r="J107" s="38">
+      <c r="J107" s="33">
         <f>+I107+1</f>
         <v>22</v>
       </c>
-      <c r="K107" s="38">
+      <c r="K107" s="33">
         <f>+J107+1</f>
         <v>23</v>
       </c>
-      <c r="L107" s="38">
+      <c r="L107" s="33">
         <f>+K107+1</f>
         <v>24</v>
       </c>
-      <c r="M107" s="38">
+      <c r="M107" s="33">
         <f>+L107+1</f>
         <v>25</v>
       </c>
-      <c r="N107" s="38">
+      <c r="N107" s="33">
         <f>+M107+1</f>
         <v>26</v>
       </c>
-      <c r="O107" s="38">
+      <c r="O107" s="33">
         <f>+N107+1</f>
         <v>27</v>
       </c>
-      <c r="P107" s="38">
+      <c r="P107" s="33">
         <f>+O107+1</f>
         <v>28</v>
       </c>
-      <c r="Q107" s="38">
+      <c r="Q107" s="33">
         <f>+P107+1</f>
         <v>29</v>
       </c>
     </row>
     <row r="108" spans="2:24" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B108" s="9" t="s">
+      <c r="B108" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C108" s="20" t="s">
+      <c r="C108" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D108" s="77" t="s">
+      <c r="D108" s="71" t="s">
         <v>56</v>
       </c>
-      <c r="E108" s="113"/>
-      <c r="F108" s="113"/>
-      <c r="G108" s="114"/>
-      <c r="H108" s="78" t="s">
+      <c r="E108" s="106"/>
+      <c r="F108" s="106"/>
+      <c r="G108" s="107"/>
+      <c r="H108" s="72" t="s">
         <v>57</v>
       </c>
-      <c r="I108" s="115"/>
-      <c r="J108" s="116"/>
-      <c r="K108" s="105" t="s">
+      <c r="I108" s="108"/>
+      <c r="J108" s="109"/>
+      <c r="K108" s="97" t="s">
         <v>56</v>
       </c>
-      <c r="L108" s="106"/>
-      <c r="M108" s="106"/>
-      <c r="N108" s="107"/>
-      <c r="O108" s="69" t="s">
+      <c r="L108" s="98"/>
+      <c r="M108" s="98"/>
+      <c r="N108" s="99"/>
+      <c r="O108" s="63" t="s">
         <v>57</v>
       </c>
-      <c r="P108" s="70"/>
-      <c r="Q108" s="71"/>
+      <c r="P108" s="64"/>
+      <c r="Q108" s="65"/>
     </row>
     <row r="109" spans="2:24" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B109" s="11"/>
-      <c r="C109" s="20" t="s">
+      <c r="B109" s="9"/>
+      <c r="C109" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D109" s="38" t="s">
+      <c r="D109" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="E109" s="38" t="s">
+      <c r="E109" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="F109" s="38" t="s">
+      <c r="F109" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="G109" s="38" t="s">
+      <c r="G109" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="H109" s="38" t="s">
+      <c r="H109" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="I109" s="38" t="s">
+      <c r="I109" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="J109" s="38" t="s">
+      <c r="J109" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="K109" s="38" t="s">
+      <c r="K109" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="L109" s="38" t="s">
+      <c r="L109" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="M109" s="38" t="s">
+      <c r="M109" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="N109" s="38" t="s">
+      <c r="N109" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="O109" s="38" t="s">
+      <c r="O109" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="P109" s="38" t="s">
+      <c r="P109" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="Q109" s="38" t="s">
+      <c r="Q109" s="33" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="110" spans="2:24" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B110" s="11"/>
-      <c r="C110" s="20" t="s">
+      <c r="B110" s="9"/>
+      <c r="C110" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="D110" s="75" t="s">
+      <c r="D110" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="E110" s="117"/>
-      <c r="F110" s="117"/>
-      <c r="G110" s="118"/>
-      <c r="H110" s="76" t="s">
+      <c r="E110" s="110"/>
+      <c r="F110" s="110"/>
+      <c r="G110" s="111"/>
+      <c r="H110" s="70" t="s">
         <v>55</v>
       </c>
-      <c r="I110" s="119"/>
-      <c r="J110" s="54"/>
-      <c r="K110" s="108" t="s">
+      <c r="I110" s="112"/>
+      <c r="J110" s="49"/>
+      <c r="K110" s="100" t="s">
         <v>54</v>
       </c>
-      <c r="L110" s="109"/>
-      <c r="M110" s="109"/>
-      <c r="N110" s="110"/>
-      <c r="O110" s="40" t="s">
+      <c r="L110" s="101"/>
+      <c r="M110" s="101"/>
+      <c r="N110" s="102"/>
+      <c r="O110" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="P110" s="64"/>
-      <c r="Q110" s="41"/>
+      <c r="P110" s="58"/>
+      <c r="Q110" s="36"/>
     </row>
     <row r="111" spans="2:24" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B111" s="12"/>
-      <c r="C111" s="16" t="s">
+      <c r="B111" s="10"/>
+      <c r="C111" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D111" s="38" t="s">
+      <c r="D111" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="E111" s="38" t="s">
+      <c r="E111" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="F111" s="38" t="s">
+      <c r="F111" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="G111" s="38" t="s">
+      <c r="G111" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="H111" s="38" t="s">
+      <c r="H111" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="I111" s="38" t="s">
+      <c r="I111" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="J111" s="38" t="s">
+      <c r="J111" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="K111" s="38" t="s">
+      <c r="K111" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="L111" s="38" t="s">
+      <c r="L111" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="M111" s="38" t="s">
+      <c r="M111" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="N111" s="38" t="s">
+      <c r="N111" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="O111" s="38" t="s">
+      <c r="O111" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="P111" s="38" t="s">
+      <c r="P111" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="Q111" s="38" t="s">
+      <c r="Q111" s="33" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="112" spans="2:24" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B112" s="9" t="s">
+      <c r="B112" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C112" s="20" t="s">
+      <c r="C112" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D112" s="77" t="s">
+      <c r="D112" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="E112" s="113"/>
-      <c r="F112" s="113"/>
-      <c r="G112" s="114"/>
-      <c r="H112" s="78" t="s">
+      <c r="E112" s="106"/>
+      <c r="F112" s="106"/>
+      <c r="G112" s="107"/>
+      <c r="H112" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="I112" s="115"/>
-      <c r="J112" s="116"/>
-      <c r="K112" s="42" t="s">
+      <c r="I112" s="108"/>
+      <c r="J112" s="109"/>
+      <c r="K112" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="L112" s="43"/>
-      <c r="M112" s="43"/>
-      <c r="N112" s="44"/>
-      <c r="O112" s="69" t="s">
+      <c r="L112" s="38"/>
+      <c r="M112" s="38"/>
+      <c r="N112" s="39"/>
+      <c r="O112" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="P112" s="70"/>
-      <c r="Q112" s="71"/>
+      <c r="P112" s="64"/>
+      <c r="Q112" s="65"/>
     </row>
     <row r="113" spans="2:17" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B113" s="12"/>
-      <c r="C113" s="20" t="s">
+      <c r="B113" s="10"/>
+      <c r="C113" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="D113" s="75" t="s">
+      <c r="D113" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="E113" s="117"/>
-      <c r="F113" s="117"/>
-      <c r="G113" s="118"/>
-      <c r="H113" s="76" t="s">
+      <c r="E113" s="110"/>
+      <c r="F113" s="110"/>
+      <c r="G113" s="111"/>
+      <c r="H113" s="70" t="s">
         <v>20</v>
       </c>
-      <c r="I113" s="119"/>
-      <c r="J113" s="54"/>
-      <c r="K113" s="50" t="s">
+      <c r="I113" s="112"/>
+      <c r="J113" s="49"/>
+      <c r="K113" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="L113" s="51"/>
-      <c r="M113" s="51"/>
-      <c r="N113" s="52"/>
-      <c r="O113" s="40" t="s">
+      <c r="L113" s="46"/>
+      <c r="M113" s="46"/>
+      <c r="N113" s="47"/>
+      <c r="O113" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="P113" s="64"/>
-      <c r="Q113" s="41"/>
+      <c r="P113" s="58"/>
+      <c r="Q113" s="36"/>
     </row>
     <row r="114" spans="2:17" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B114" s="14" t="s">
+      <c r="B114" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C114" s="20" t="s">
+      <c r="C114" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D114" s="77" t="s">
+      <c r="D114" s="71" t="s">
         <v>27</v>
       </c>
-      <c r="E114" s="113"/>
-      <c r="F114" s="113"/>
-      <c r="G114" s="35" t="s">
+      <c r="E114" s="106"/>
+      <c r="F114" s="106"/>
+      <c r="G114" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="H114" s="36" t="s">
+      <c r="H114" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="I114" s="36"/>
-      <c r="J114" s="36"/>
-      <c r="K114" s="42" t="s">
+      <c r="I114" s="31"/>
+      <c r="J114" s="31"/>
+      <c r="K114" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="L114" s="43"/>
-      <c r="M114" s="43"/>
-      <c r="N114" s="35" t="s">
+      <c r="L114" s="38"/>
+      <c r="M114" s="38"/>
+      <c r="N114" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="O114" s="79" t="s">
+      <c r="O114" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="P114" s="79"/>
-      <c r="Q114" s="79"/>
+      <c r="P114" s="73"/>
+      <c r="Q114" s="73"/>
     </row>
     <row r="115" spans="2:17" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B115" s="15"/>
-      <c r="C115" s="20" t="s">
+      <c r="B115" s="13"/>
+      <c r="C115" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="D115" s="75" t="s">
+      <c r="D115" s="69" t="s">
         <v>30</v>
       </c>
-      <c r="E115" s="117"/>
-      <c r="F115" s="117"/>
-      <c r="G115" s="30" t="s">
+      <c r="E115" s="110"/>
+      <c r="F115" s="110"/>
+      <c r="G115" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="H115" s="31" t="s">
+      <c r="H115" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="I115" s="31"/>
-      <c r="J115" s="31"/>
-      <c r="K115" s="50" t="s">
+      <c r="I115" s="27"/>
+      <c r="J115" s="27"/>
+      <c r="K115" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="L115" s="51"/>
-      <c r="M115" s="51"/>
-      <c r="N115" s="30" t="s">
+      <c r="L115" s="46"/>
+      <c r="M115" s="46"/>
+      <c r="N115" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="O115" s="80" t="s">
+      <c r="O115" s="74" t="s">
         <v>25</v>
       </c>
-      <c r="P115" s="80"/>
-      <c r="Q115" s="80"/>
+      <c r="P115" s="74"/>
+      <c r="Q115" s="74"/>
     </row>
     <row r="116" spans="2:17" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B116" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C116" s="16" t="s">
+      <c r="C116" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D116" s="75" t="s">
+      <c r="D116" s="69" t="s">
         <v>34</v>
       </c>
-      <c r="E116" s="117"/>
-      <c r="F116" s="118"/>
-      <c r="G116" s="30" t="s">
+      <c r="E116" s="110"/>
+      <c r="F116" s="111"/>
+      <c r="G116" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="H116" s="31" t="s">
+      <c r="H116" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="I116" s="31"/>
-      <c r="J116" s="31"/>
-      <c r="K116" s="50" t="s">
+      <c r="I116" s="27"/>
+      <c r="J116" s="27"/>
+      <c r="K116" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="L116" s="51"/>
-      <c r="M116" s="52"/>
-      <c r="N116" s="30" t="s">
+      <c r="L116" s="46"/>
+      <c r="M116" s="47"/>
+      <c r="N116" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="O116" s="80" t="s">
+      <c r="O116" s="74" t="s">
         <v>32</v>
       </c>
-      <c r="P116" s="80"/>
-      <c r="Q116" s="80"/>
+      <c r="P116" s="74"/>
+      <c r="Q116" s="74"/>
     </row>
     <row r="117" spans="2:17" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B117" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C117" s="16" t="s">
+      <c r="C117" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D117" s="30" t="s">
+      <c r="D117" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="E117" s="30"/>
-      <c r="F117" s="30"/>
-      <c r="G117" s="30"/>
-      <c r="H117" s="31" t="s">
+      <c r="E117" s="26"/>
+      <c r="F117" s="26"/>
+      <c r="G117" s="26"/>
+      <c r="H117" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="I117" s="31"/>
-      <c r="J117" s="31"/>
-      <c r="K117" s="111" t="s">
+      <c r="I117" s="27"/>
+      <c r="J117" s="27"/>
+      <c r="K117" s="103" t="s">
         <v>37</v>
       </c>
-      <c r="L117" s="111"/>
-      <c r="M117" s="111"/>
-      <c r="N117" s="111"/>
-      <c r="O117" s="80" t="s">
+      <c r="L117" s="103"/>
+      <c r="M117" s="103"/>
+      <c r="N117" s="103"/>
+      <c r="O117" s="74" t="s">
         <v>36</v>
       </c>
-      <c r="P117" s="80"/>
-      <c r="Q117" s="80"/>
+      <c r="P117" s="74"/>
+      <c r="Q117" s="74"/>
     </row>
     <row r="118" spans="2:17" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B118" s="17" t="s">
+      <c r="B118" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="C118" s="16" t="s">
+      <c r="C118" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D118" s="56" t="s">
+      <c r="D118" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="E118" s="35" t="s">
+      <c r="E118" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="F118" s="35" t="s">
+      <c r="F118" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="G118" s="35" t="s">
+      <c r="G118" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="H118" s="35" t="s">
+      <c r="H118" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="I118" s="56" t="s">
+      <c r="I118" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="J118" s="56" t="s">
+      <c r="J118" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="K118" s="56" t="s">
+      <c r="K118" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="L118" s="35" t="s">
+      <c r="L118" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="M118" s="35" t="s">
+      <c r="M118" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="N118" s="35" t="s">
+      <c r="N118" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="O118" s="35" t="s">
+      <c r="O118" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="P118" s="56" t="s">
+      <c r="P118" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="Q118" s="56" t="s">
+      <c r="Q118" s="51" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="119" spans="2:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B119" s="17"/>
-      <c r="C119" s="16" t="s">
+      <c r="B119" s="15"/>
+      <c r="C119" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D119" s="56" t="s">
+      <c r="D119" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="E119" s="56" t="s">
+      <c r="E119" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="F119" s="36" t="s">
+      <c r="F119" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="G119" s="36" t="s">
+      <c r="G119" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="H119" s="36" t="s">
+      <c r="H119" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="I119" s="36" t="s">
+      <c r="I119" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="J119" s="56" t="s">
+      <c r="J119" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="K119" s="56" t="s">
+      <c r="K119" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="L119" s="56" t="s">
+      <c r="L119" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="M119" s="36" t="s">
+      <c r="M119" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="N119" s="36" t="s">
+      <c r="N119" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="O119" s="36" t="s">
+      <c r="O119" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="P119" s="36" t="s">
+      <c r="P119" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="Q119" s="56" t="s">
+      <c r="Q119" s="51" t="s">
         <v>39</v>
       </c>
     </row>
@@ -19816,7 +19841,7 @@
       <formula>"B"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B54:B56 B57:C57 K40:L40 D54:Q56 D37:Q39 D71:Q73 D75:Q75 D77:Q77 O74:Q74 D93 O76:Q76 K91 D105:Q107 D88:Q90 B108:D108 O91:Q91 D110 O93:Q93 D109:J109 D92:Q92 D111:J111 D94:Q94 B91:D91 D20:Q22">
+  <conditionalFormatting sqref="B54:B56 B57:C57 K40:L40 D54:Q56 D71:Q73 D75:Q75 D77:Q77 O74:Q74 D93 O76:Q76 K91 D105:Q107 B108:D108 O91:Q91 D110 O93:Q93 D109:J109 D92:Q92 D111:J111 D94:Q94 B91:D91 D20:Q22 D37:Q39 D88:Q90">
     <cfRule type="cellIs" dxfId="1575" priority="3991" operator="equal">
       <formula>"B"</formula>
     </cfRule>
@@ -24981,7 +25006,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.25" right="0.25" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup scale="23" orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="24" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/data/2025/ShiftCalendar_2025_Q1.xlsx
+++ b/data/2025/ShiftCalendar_2025_Q1.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://intel-my.sharepoint.com/personal/hoang_loc_ngo_intel_com/Documents/Documents/Py/AutomationReport_OnGoing/vnatmfg_shiftcalendar/web-app/data/2025/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="287" documentId="11_F25DC773A252ABDACC1048CDA11B5BBE5BDE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D01991FE-0B40-4734-8742-CE4778173696}"/>
+  <xr:revisionPtr revIDLastSave="347" documentId="11_F25DC773A252ABDACC1048CDA11B5BBE5BDE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{313371E4-35A8-41B0-A766-F2CFB54878F2}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="-22200" yWindow="2295" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="465" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$W$142</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$X$106</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="953" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="953" uniqueCount="74">
   <si>
     <t>JAN</t>
   </si>
@@ -520,12 +520,40 @@
       <t>12</t>
     </r>
   </si>
+  <si>
+    <r>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="30"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>123</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="30"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>123</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -607,6 +635,30 @@
     </font>
     <font>
       <sz val="24"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="30"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="30"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="30"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="30"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -823,7 +875,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -852,33 +904,6 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -889,12 +914,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -942,12 +961,6 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -969,34 +982,16 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1006,33 +1001,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1062,9 +1030,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1078,6 +1043,90 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1101,11 +1150,38 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -14070,6 +14146,61 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FF66"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC65911"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9966"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDBDBDB"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF8EA9DB"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF006100"/>
       </font>
@@ -14093,61 +14224,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFFF66"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FF66"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCCFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC99FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC65911"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9966"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDBDBDB"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF8EA9DB"/>
         </patternFill>
       </fill>
     </dxf>
@@ -14168,16 +14244,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>77936</xdr:colOff>
-      <xdr:row>115</xdr:row>
-      <xdr:rowOff>158033</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1459060</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>229470</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>1192361</xdr:colOff>
-      <xdr:row>122</xdr:row>
-      <xdr:rowOff>2551</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>30310</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>367812</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -14207,8 +14283,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="77936" y="48735533"/>
-          <a:ext cx="20116800" cy="2511518"/>
+          <a:off x="18818373" y="47425845"/>
+          <a:ext cx="18288000" cy="2281467"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -14231,14 +14307,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>72319</xdr:colOff>
-      <xdr:row>93</xdr:row>
-      <xdr:rowOff>238124</xdr:rowOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>238123</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>1186744</xdr:colOff>
-      <xdr:row>112</xdr:row>
-      <xdr:rowOff>288716</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1001006</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>317887</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -14268,8 +14344,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="72319" y="36290249"/>
-          <a:ext cx="20116800" cy="7289592"/>
+          <a:off x="72319" y="47434498"/>
+          <a:ext cx="18288000" cy="6604389"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -14557,4417 +14633,4614 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:W124"/>
+  <dimension ref="A2:W123"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A85" zoomScale="40" zoomScaleNormal="100" zoomScaleSheetLayoutView="40" workbookViewId="0">
-      <selection activeCell="Q110" sqref="Q110"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A25" zoomScale="40" zoomScaleNormal="100" zoomScaleSheetLayoutView="40" zoomScalePageLayoutView="10" workbookViewId="0">
+      <selection activeCell="T109" sqref="T109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.7109375" style="7" customWidth="1"/>
     <col min="2" max="2" width="17.7109375" style="2" customWidth="1"/>
-    <col min="3" max="23" width="24.7109375" style="21" customWidth="1"/>
+    <col min="3" max="23" width="24.7109375" style="12" customWidth="1"/>
     <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:23" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="10" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
     </row>
-    <row r="4" spans="1:23" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="22" t="s">
+    <row r="4" spans="1:23" s="101" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="92"/>
+      <c r="B4" s="92"/>
+      <c r="C4" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23" t="s">
+      <c r="D4" s="94"/>
+      <c r="E4" s="94"/>
+      <c r="F4" s="94"/>
+      <c r="G4" s="94"/>
+      <c r="H4" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="I4" s="24">
+      <c r="I4" s="95">
         <v>1</v>
       </c>
-      <c r="J4" s="25"/>
-      <c r="K4" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="L4" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
-      <c r="P4" s="28"/>
-      <c r="Q4" s="28"/>
-      <c r="R4" s="28"/>
-      <c r="S4" s="28"/>
-      <c r="T4" s="28"/>
-      <c r="U4" s="28"/>
-      <c r="V4" s="29"/>
-      <c r="W4" s="25"/>
+      <c r="J4" s="96"/>
+      <c r="K4" s="97" t="s">
+        <v>72</v>
+      </c>
+      <c r="L4" s="98" t="s">
+        <v>73</v>
+      </c>
+      <c r="M4" s="99"/>
+      <c r="N4" s="99"/>
+      <c r="O4" s="99"/>
+      <c r="P4" s="99"/>
+      <c r="Q4" s="99"/>
+      <c r="R4" s="99"/>
+      <c r="S4" s="99"/>
+      <c r="T4" s="99"/>
+      <c r="U4" s="99"/>
+      <c r="V4" s="100"/>
+      <c r="W4" s="96"/>
     </row>
-    <row r="5" spans="1:23" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
+    <row r="5" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="30" t="s">
+      <c r="B5" s="60"/>
+      <c r="C5" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="30" t="s">
+      <c r="D5" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="30" t="s">
+      <c r="E5" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="31" t="s">
+      <c r="F5" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="31" t="s">
+      <c r="G5" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="30" t="s">
+      <c r="H5" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="30" t="s">
+      <c r="I5" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="J5" s="25"/>
-      <c r="K5" s="32" t="s">
+      <c r="J5" s="14"/>
+      <c r="K5" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="L5" s="33" t="s">
+      <c r="L5" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="M5" s="28"/>
-      <c r="N5" s="28"/>
-      <c r="O5" s="28"/>
-      <c r="P5" s="28"/>
-      <c r="Q5" s="28"/>
-      <c r="R5" s="28"/>
-      <c r="S5" s="28"/>
-      <c r="T5" s="28"/>
-      <c r="U5" s="28"/>
-      <c r="V5" s="29"/>
-      <c r="W5" s="28"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="17"/>
+      <c r="P5" s="17"/>
+      <c r="Q5" s="17"/>
+      <c r="R5" s="17"/>
+      <c r="S5" s="17"/>
+      <c r="T5" s="17"/>
+      <c r="U5" s="17"/>
+      <c r="V5" s="18"/>
+      <c r="W5" s="17"/>
     </row>
-    <row r="6" spans="1:23" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
+    <row r="6" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="34">
+      <c r="B6" s="61"/>
+      <c r="C6" s="23">
         <v>29</v>
       </c>
-      <c r="D6" s="35">
+      <c r="D6" s="24">
         <v>30</v>
       </c>
-      <c r="E6" s="35">
+      <c r="E6" s="24">
         <f>D6+1</f>
         <v>31</v>
       </c>
-      <c r="F6" s="36">
+      <c r="F6" s="25">
         <v>1</v>
       </c>
-      <c r="G6" s="35">
+      <c r="G6" s="24">
         <f t="shared" ref="G6:I6" si="0">F6+1</f>
         <v>2</v>
       </c>
-      <c r="H6" s="35">
+      <c r="H6" s="24">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="I6" s="35">
+      <c r="I6" s="24">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="J6" s="28"/>
-      <c r="K6" s="28"/>
-      <c r="L6" s="28"/>
-      <c r="M6" s="28"/>
-      <c r="N6" s="28"/>
-      <c r="O6" s="28"/>
-      <c r="P6" s="28"/>
-      <c r="Q6" s="28"/>
-      <c r="R6" s="28"/>
-      <c r="S6" s="28"/>
-      <c r="T6" s="28"/>
-      <c r="U6" s="28"/>
-      <c r="V6" s="28"/>
-      <c r="W6" s="28"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="17"/>
+      <c r="P6" s="17"/>
+      <c r="Q6" s="17"/>
+      <c r="R6" s="17"/>
+      <c r="S6" s="17"/>
+      <c r="T6" s="17"/>
+      <c r="U6" s="17"/>
+      <c r="V6" s="17"/>
+      <c r="W6" s="17"/>
     </row>
-    <row r="7" spans="1:23" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
+    <row r="7" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="37" t="s">
+      <c r="C7" s="80" t="s">
         <v>57</v>
       </c>
-      <c r="D7" s="38"/>
-      <c r="E7" s="39" t="s">
+      <c r="D7" s="82"/>
+      <c r="E7" s="71" t="s">
         <v>58</v>
       </c>
-      <c r="F7" s="40"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="42" t="s">
+      <c r="F7" s="72"/>
+      <c r="G7" s="73"/>
+      <c r="H7" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="I7" s="27" t="s">
+      <c r="I7" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="J7" s="28"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="28"/>
-      <c r="M7" s="28"/>
-      <c r="N7" s="28"/>
-      <c r="O7" s="28"/>
-      <c r="P7" s="28"/>
-      <c r="Q7" s="28"/>
-      <c r="R7" s="28"/>
-      <c r="S7" s="28"/>
-      <c r="T7" s="28"/>
-      <c r="U7" s="28"/>
-      <c r="V7" s="28"/>
-      <c r="W7" s="28"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="17"/>
+      <c r="O7" s="17"/>
+      <c r="P7" s="17"/>
+      <c r="Q7" s="17"/>
+      <c r="R7" s="17"/>
+      <c r="S7" s="17"/>
+      <c r="T7" s="17"/>
+      <c r="U7" s="17"/>
+      <c r="V7" s="17"/>
+      <c r="W7" s="17"/>
     </row>
-    <row r="8" spans="1:23" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="17"/>
-      <c r="B8" s="20" t="s">
+    <row r="8" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="63"/>
+      <c r="B8" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="35" t="s">
+      <c r="C8" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="43" t="s">
+      <c r="D8" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="35" t="s">
+      <c r="E8" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="35" t="s">
+      <c r="F8" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="35" t="s">
+      <c r="G8" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="44" t="s">
+      <c r="H8" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="35" t="s">
+      <c r="I8" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="J8" s="28"/>
-      <c r="K8" s="93" t="s">
+      <c r="J8" s="17"/>
+      <c r="K8" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="L8" s="45"/>
-      <c r="M8" s="45"/>
-      <c r="N8" s="28"/>
-      <c r="O8" s="28"/>
-      <c r="P8" s="28"/>
-      <c r="Q8" s="28"/>
-      <c r="R8" s="28"/>
-      <c r="S8" s="28"/>
-      <c r="T8" s="28"/>
-      <c r="U8" s="28"/>
-      <c r="V8" s="28"/>
-      <c r="W8" s="28"/>
+      <c r="L8" s="32"/>
+      <c r="M8" s="32"/>
+      <c r="N8" s="17"/>
+      <c r="O8" s="17"/>
+      <c r="P8" s="17"/>
+      <c r="Q8" s="17"/>
+      <c r="R8" s="17"/>
+      <c r="S8" s="17"/>
+      <c r="T8" s="17"/>
+      <c r="U8" s="17"/>
+      <c r="V8" s="17"/>
+      <c r="W8" s="17"/>
     </row>
-    <row r="9" spans="1:23" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="17"/>
-      <c r="B9" s="20" t="s">
+    <row r="9" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="63"/>
+      <c r="B9" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="46" t="s">
+      <c r="C9" s="77" t="s">
         <v>59</v>
       </c>
-      <c r="D9" s="47"/>
-      <c r="E9" s="48" t="s">
+      <c r="D9" s="79"/>
+      <c r="E9" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="F9" s="49"/>
-      <c r="G9" s="50"/>
-      <c r="H9" s="51" t="s">
+      <c r="F9" s="66"/>
+      <c r="G9" s="67"/>
+      <c r="H9" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="I9" s="33" t="s">
+      <c r="I9" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="J9" s="28"/>
-      <c r="K9" s="94" t="s">
+      <c r="J9" s="17"/>
+      <c r="K9" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="L9" s="52"/>
-      <c r="M9" s="52"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="28"/>
-      <c r="P9" s="28"/>
-      <c r="Q9" s="28"/>
-      <c r="R9" s="28"/>
-      <c r="S9" s="28"/>
-      <c r="T9" s="28"/>
-      <c r="U9" s="28"/>
-      <c r="V9" s="28"/>
-      <c r="W9" s="28"/>
+      <c r="L9" s="37"/>
+      <c r="M9" s="37"/>
+      <c r="N9" s="17"/>
+      <c r="O9" s="17"/>
+      <c r="P9" s="17"/>
+      <c r="Q9" s="17"/>
+      <c r="R9" s="17"/>
+      <c r="S9" s="17"/>
+      <c r="T9" s="17"/>
+      <c r="U9" s="17"/>
+      <c r="V9" s="17"/>
+      <c r="W9" s="17"/>
     </row>
-    <row r="10" spans="1:23" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="13"/>
+    <row r="10" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="64"/>
       <c r="B10" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="35" t="s">
+      <c r="C10" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="43" t="s">
+      <c r="D10" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="35" t="s">
+      <c r="E10" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="35" t="s">
+      <c r="F10" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="G10" s="35" t="s">
+      <c r="G10" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="H10" s="35" t="s">
+      <c r="H10" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="I10" s="35" t="s">
+      <c r="I10" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="J10" s="28"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="28"/>
-      <c r="M10" s="28"/>
-      <c r="N10" s="28"/>
-      <c r="O10" s="28"/>
-      <c r="P10" s="28"/>
-      <c r="Q10" s="28"/>
-      <c r="R10" s="28"/>
-      <c r="S10" s="28"/>
-      <c r="T10" s="28"/>
-      <c r="U10" s="28"/>
-      <c r="V10" s="28"/>
-      <c r="W10" s="28"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="17"/>
+      <c r="Q10" s="17"/>
+      <c r="R10" s="17"/>
+      <c r="S10" s="17"/>
+      <c r="T10" s="17"/>
+      <c r="U10" s="17"/>
+      <c r="V10" s="17"/>
+      <c r="W10" s="17"/>
     </row>
-    <row r="11" spans="1:23" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
+    <row r="11" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="37" t="s">
+      <c r="C11" s="80" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="38"/>
-      <c r="E11" s="39" t="s">
+      <c r="D11" s="82"/>
+      <c r="E11" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="40"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="42" t="s">
+      <c r="F11" s="72"/>
+      <c r="G11" s="73"/>
+      <c r="H11" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="I11" s="53" t="s">
+      <c r="I11" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="J11" s="28"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="28"/>
-      <c r="M11" s="28"/>
-      <c r="N11" s="28"/>
-      <c r="O11" s="28"/>
-      <c r="P11" s="28"/>
-      <c r="Q11" s="28"/>
-      <c r="R11" s="28"/>
-      <c r="S11" s="28"/>
-      <c r="T11" s="28"/>
-      <c r="U11" s="28"/>
-      <c r="V11" s="28"/>
-      <c r="W11" s="28"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="17"/>
+      <c r="R11" s="17"/>
+      <c r="S11" s="17"/>
+      <c r="T11" s="17"/>
+      <c r="U11" s="17"/>
+      <c r="V11" s="17"/>
+      <c r="W11" s="17"/>
     </row>
-    <row r="12" spans="1:23" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="13"/>
-      <c r="B12" s="20" t="s">
+    <row r="12" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="64"/>
+      <c r="B12" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="46" t="s">
+      <c r="C12" s="77" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="47"/>
-      <c r="E12" s="48" t="s">
+      <c r="D12" s="79"/>
+      <c r="E12" s="65" t="s">
         <v>25</v>
       </c>
-      <c r="F12" s="49"/>
-      <c r="G12" s="50"/>
-      <c r="H12" s="51" t="s">
+      <c r="F12" s="66"/>
+      <c r="G12" s="67"/>
+      <c r="H12" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="I12" s="54" t="s">
+      <c r="I12" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="J12" s="28"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="28"/>
-      <c r="M12" s="28"/>
-      <c r="N12" s="28"/>
-      <c r="O12" s="28"/>
-      <c r="P12" s="28"/>
-      <c r="Q12" s="28"/>
-      <c r="R12" s="28"/>
-      <c r="S12" s="28"/>
-      <c r="T12" s="28"/>
-      <c r="U12" s="28"/>
-      <c r="V12" s="28"/>
-      <c r="W12" s="28"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="17"/>
+      <c r="Q12" s="17"/>
+      <c r="R12" s="17"/>
+      <c r="S12" s="17"/>
+      <c r="T12" s="17"/>
+      <c r="U12" s="17"/>
+      <c r="V12" s="17"/>
+      <c r="W12" s="17"/>
     </row>
-    <row r="13" spans="1:23" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="15" t="s">
+    <row r="13" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="27" t="s">
+      <c r="C13" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="53" t="s">
+      <c r="D13" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="E13" s="39" t="s">
+      <c r="E13" s="71" t="s">
         <v>29</v>
       </c>
-      <c r="F13" s="40"/>
-      <c r="G13" s="41"/>
-      <c r="H13" s="42" t="s">
+      <c r="F13" s="72"/>
+      <c r="G13" s="73"/>
+      <c r="H13" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="I13" s="27" t="s">
+      <c r="I13" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="J13" s="28"/>
-      <c r="K13" s="28"/>
-      <c r="L13" s="28"/>
-      <c r="M13" s="28"/>
-      <c r="N13" s="28"/>
-      <c r="O13" s="28"/>
-      <c r="P13" s="28"/>
-      <c r="Q13" s="28"/>
-      <c r="R13" s="28"/>
-      <c r="S13" s="28"/>
-      <c r="T13" s="28"/>
-      <c r="U13" s="28"/>
-      <c r="V13" s="28"/>
-      <c r="W13" s="28"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="17"/>
+      <c r="Q13" s="17"/>
+      <c r="R13" s="17"/>
+      <c r="S13" s="17"/>
+      <c r="T13" s="17"/>
+      <c r="U13" s="17"/>
+      <c r="V13" s="17"/>
+      <c r="W13" s="17"/>
     </row>
-    <row r="14" spans="1:23" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="16"/>
-      <c r="B14" s="20" t="s">
+    <row r="14" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="69"/>
+      <c r="B14" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="33" t="s">
+      <c r="C14" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="54" t="s">
+      <c r="D14" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="E14" s="48" t="s">
+      <c r="E14" s="65" t="s">
         <v>32</v>
       </c>
-      <c r="F14" s="49"/>
-      <c r="G14" s="50"/>
-      <c r="H14" s="51" t="s">
+      <c r="F14" s="66"/>
+      <c r="G14" s="67"/>
+      <c r="H14" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="I14" s="54" t="s">
+      <c r="I14" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="J14" s="28"/>
-      <c r="K14" s="28"/>
-      <c r="L14" s="28"/>
-      <c r="M14" s="28"/>
-      <c r="N14" s="28"/>
-      <c r="O14" s="28"/>
-      <c r="P14" s="28"/>
-      <c r="Q14" s="28"/>
-      <c r="R14" s="28"/>
-      <c r="S14" s="28"/>
-      <c r="T14" s="28"/>
-      <c r="U14" s="28"/>
-      <c r="V14" s="28"/>
-      <c r="W14" s="28"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="17"/>
+      <c r="Q14" s="17"/>
+      <c r="R14" s="17"/>
+      <c r="S14" s="17"/>
+      <c r="T14" s="17"/>
+      <c r="U14" s="17"/>
+      <c r="V14" s="17"/>
+      <c r="W14" s="17"/>
     </row>
-    <row r="15" spans="1:23" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>33</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="27" t="s">
+      <c r="C15" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="53" t="s">
+      <c r="D15" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="E15" s="48" t="s">
+      <c r="E15" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="F15" s="49"/>
-      <c r="G15" s="50"/>
-      <c r="H15" s="42" t="s">
+      <c r="F15" s="66"/>
+      <c r="G15" s="67"/>
+      <c r="H15" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="I15" s="53" t="s">
+      <c r="I15" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="J15" s="28"/>
-      <c r="K15" s="28"/>
-      <c r="L15" s="28"/>
-      <c r="M15" s="28"/>
-      <c r="N15" s="28"/>
-      <c r="O15" s="28"/>
-      <c r="P15" s="28"/>
-      <c r="Q15" s="28"/>
-      <c r="R15" s="28"/>
-      <c r="S15" s="28"/>
-      <c r="T15" s="28"/>
-      <c r="U15" s="28"/>
-      <c r="V15" s="28"/>
-      <c r="W15" s="28"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="17"/>
+      <c r="N15" s="17"/>
+      <c r="O15" s="17"/>
+      <c r="P15" s="17"/>
+      <c r="Q15" s="17"/>
+      <c r="R15" s="17"/>
+      <c r="S15" s="17"/>
+      <c r="T15" s="17"/>
+      <c r="U15" s="17"/>
+      <c r="V15" s="17"/>
+      <c r="W15" s="17"/>
     </row>
-    <row r="16" spans="1:23" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>37</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="27" t="s">
+      <c r="C16" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="27" t="s">
+      <c r="D16" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="E16" s="48" t="s">
+      <c r="E16" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="F16" s="49"/>
-      <c r="G16" s="50"/>
-      <c r="H16" s="42" t="s">
+      <c r="F16" s="66"/>
+      <c r="G16" s="67"/>
+      <c r="H16" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="I16" s="27" t="s">
+      <c r="I16" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="J16" s="28"/>
-      <c r="K16" s="28"/>
-      <c r="L16" s="28"/>
-      <c r="M16" s="28"/>
-      <c r="N16" s="28"/>
-      <c r="O16" s="28"/>
-      <c r="P16" s="28"/>
-      <c r="Q16" s="28"/>
-      <c r="R16" s="28"/>
-      <c r="S16" s="28"/>
-      <c r="T16" s="28"/>
-      <c r="U16" s="28"/>
-      <c r="V16" s="28"/>
-      <c r="W16" s="28"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="17"/>
+      <c r="O16" s="17"/>
+      <c r="P16" s="17"/>
+      <c r="Q16" s="17"/>
+      <c r="R16" s="17"/>
+      <c r="S16" s="17"/>
+      <c r="T16" s="17"/>
+      <c r="U16" s="17"/>
+      <c r="V16" s="17"/>
+      <c r="W16" s="17"/>
     </row>
-    <row r="17" spans="1:23" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="10" t="s">
+    <row r="17" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="59" t="s">
         <v>40</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C17" s="55" t="s">
+      <c r="C17" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="D17" s="32" t="s">
+      <c r="D17" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="E17" s="32" t="s">
+      <c r="E17" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="F17" s="32" t="s">
+      <c r="F17" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="G17" s="32" t="s">
+      <c r="G17" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="H17" s="55" t="s">
+      <c r="H17" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="I17" s="55" t="s">
+      <c r="I17" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="J17" s="28"/>
-      <c r="K17" s="28"/>
-      <c r="L17" s="28"/>
-      <c r="M17" s="28"/>
-      <c r="N17" s="28"/>
-      <c r="O17" s="28"/>
-      <c r="P17" s="28"/>
-      <c r="Q17" s="28"/>
-      <c r="R17" s="28"/>
-      <c r="S17" s="28"/>
-      <c r="T17" s="28"/>
-      <c r="U17" s="28"/>
-      <c r="V17" s="28"/>
-      <c r="W17" s="28"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="17"/>
+      <c r="O17" s="17"/>
+      <c r="P17" s="17"/>
+      <c r="Q17" s="17"/>
+      <c r="R17" s="17"/>
+      <c r="S17" s="17"/>
+      <c r="T17" s="17"/>
+      <c r="U17" s="17"/>
+      <c r="V17" s="17"/>
+      <c r="W17" s="17"/>
     </row>
-    <row r="18" spans="1:23" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="10"/>
+    <row r="18" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="59"/>
       <c r="B18" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="55" t="s">
+      <c r="C18" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="D18" s="55" t="s">
+      <c r="D18" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="E18" s="33" t="s">
+      <c r="E18" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="F18" s="33" t="s">
+      <c r="F18" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="G18" s="33" t="s">
+      <c r="G18" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="H18" s="33" t="s">
+      <c r="H18" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="I18" s="55" t="s">
+      <c r="I18" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="J18" s="28"/>
-      <c r="K18" s="28"/>
-      <c r="L18" s="28"/>
-      <c r="M18" s="28"/>
-      <c r="N18" s="28"/>
-      <c r="O18" s="28"/>
-      <c r="P18" s="28"/>
-      <c r="Q18" s="28"/>
-      <c r="R18" s="28"/>
-      <c r="S18" s="28"/>
-      <c r="T18" s="28"/>
-      <c r="U18" s="28"/>
-      <c r="V18" s="28"/>
-      <c r="W18" s="28"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="17"/>
+      <c r="P18" s="17"/>
+      <c r="Q18" s="17"/>
+      <c r="R18" s="17"/>
+      <c r="S18" s="17"/>
+      <c r="T18" s="17"/>
+      <c r="U18" s="17"/>
+      <c r="V18" s="17"/>
+      <c r="W18" s="17"/>
     </row>
-    <row r="19" spans="1:23" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
       <c r="B19" s="3"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="28"/>
-      <c r="J19" s="28"/>
-      <c r="K19" s="28"/>
-      <c r="L19" s="28"/>
-      <c r="M19" s="28"/>
-      <c r="N19" s="28"/>
-      <c r="O19" s="28"/>
-      <c r="P19" s="28"/>
-      <c r="Q19" s="28"/>
-      <c r="R19" s="28"/>
-      <c r="S19" s="28"/>
-      <c r="T19" s="28"/>
-      <c r="U19" s="28"/>
-      <c r="V19" s="28"/>
-      <c r="W19" s="28"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="17"/>
+      <c r="O19" s="17"/>
+      <c r="P19" s="17"/>
+      <c r="Q19" s="17"/>
+      <c r="R19" s="17"/>
+      <c r="S19" s="17"/>
+      <c r="T19" s="17"/>
+      <c r="U19" s="17"/>
+      <c r="V19" s="17"/>
+      <c r="W19" s="17"/>
     </row>
-    <row r="20" spans="1:23" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
       <c r="B20" s="3"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="28"/>
-      <c r="I20" s="28"/>
-      <c r="J20" s="28"/>
-      <c r="K20" s="28"/>
-      <c r="L20" s="28"/>
-      <c r="M20" s="28"/>
-      <c r="N20" s="28"/>
-      <c r="O20" s="28"/>
-      <c r="P20" s="28"/>
-      <c r="Q20" s="28"/>
-      <c r="R20" s="28"/>
-      <c r="S20" s="28"/>
-      <c r="T20" s="28"/>
-      <c r="U20" s="28"/>
-      <c r="V20" s="28"/>
-      <c r="W20" s="28"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="17"/>
+      <c r="O20" s="17"/>
+      <c r="P20" s="17"/>
+      <c r="Q20" s="17"/>
+      <c r="R20" s="17"/>
+      <c r="S20" s="17"/>
+      <c r="T20" s="17"/>
+      <c r="U20" s="17"/>
+      <c r="V20" s="17"/>
+      <c r="W20" s="17"/>
     </row>
-    <row r="21" spans="1:23" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="7"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="28"/>
-      <c r="J21" s="28"/>
-      <c r="K21" s="28"/>
-      <c r="L21" s="28"/>
-      <c r="M21" s="28"/>
-      <c r="N21" s="28"/>
-      <c r="O21" s="28"/>
-      <c r="P21" s="28"/>
-      <c r="Q21" s="28"/>
-      <c r="R21" s="28"/>
-      <c r="S21" s="28"/>
-      <c r="T21" s="28"/>
-      <c r="U21" s="28"/>
-      <c r="V21" s="28"/>
-      <c r="W21" s="28"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="17"/>
+      <c r="M21" s="17"/>
+      <c r="N21" s="17"/>
+      <c r="O21" s="17"/>
+      <c r="P21" s="17"/>
+      <c r="Q21" s="17"/>
+      <c r="R21" s="17"/>
+      <c r="S21" s="17"/>
+      <c r="T21" s="17"/>
+      <c r="U21" s="17"/>
+      <c r="V21" s="17"/>
+      <c r="W21" s="17"/>
     </row>
-    <row r="22" spans="1:23" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="11"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="22" t="s">
+    <row r="22" spans="1:23" s="101" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="92"/>
+      <c r="B22" s="92"/>
+      <c r="C22" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="D22" s="23"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="23" t="s">
+      <c r="D22" s="94"/>
+      <c r="E22" s="94"/>
+      <c r="F22" s="94"/>
+      <c r="G22" s="94"/>
+      <c r="H22" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="I22" s="24">
+      <c r="I22" s="95">
         <f>I4+1</f>
         <v>2</v>
       </c>
-      <c r="J22" s="22" t="s">
+      <c r="J22" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="K22" s="23"/>
-      <c r="L22" s="23"/>
-      <c r="M22" s="23"/>
-      <c r="N22" s="23"/>
-      <c r="O22" s="23" t="s">
+      <c r="K22" s="94"/>
+      <c r="L22" s="94"/>
+      <c r="M22" s="94"/>
+      <c r="N22" s="94"/>
+      <c r="O22" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="P22" s="24">
+      <c r="P22" s="95">
         <f>I22+1</f>
         <v>3</v>
       </c>
-      <c r="Q22" s="22" t="s">
+      <c r="Q22" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="R22" s="23"/>
-      <c r="S22" s="23"/>
-      <c r="T22" s="23"/>
-      <c r="U22" s="23"/>
-      <c r="V22" s="23" t="s">
+      <c r="R22" s="94"/>
+      <c r="S22" s="94"/>
+      <c r="T22" s="94"/>
+      <c r="U22" s="94"/>
+      <c r="V22" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="W22" s="24">
+      <c r="W22" s="95">
         <f>P22+1</f>
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:23" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="11" t="s">
+    <row r="23" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="B23" s="11"/>
-      <c r="C23" s="30" t="s">
+      <c r="B23" s="60"/>
+      <c r="C23" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="D23" s="30" t="s">
+      <c r="D23" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="E23" s="30" t="s">
+      <c r="E23" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="F23" s="31" t="s">
+      <c r="F23" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="G23" s="31" t="s">
+      <c r="G23" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="H23" s="31" t="s">
+      <c r="H23" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="I23" s="30" t="s">
+      <c r="I23" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="J23" s="30" t="s">
+      <c r="J23" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="K23" s="30" t="s">
+      <c r="K23" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="L23" s="31" t="s">
+      <c r="L23" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="M23" s="31" t="s">
+      <c r="M23" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="N23" s="31" t="s">
+      <c r="N23" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="O23" s="30" t="s">
+      <c r="O23" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="P23" s="30" t="s">
+      <c r="P23" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="Q23" s="30" t="s">
+      <c r="Q23" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="R23" s="30" t="s">
+      <c r="R23" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="S23" s="30" t="s">
+      <c r="S23" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="T23" s="31" t="s">
+      <c r="T23" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="U23" s="31" t="s">
+      <c r="U23" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="V23" s="30" t="s">
+      <c r="V23" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="W23" s="30" t="s">
+      <c r="W23" s="19" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:23" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="14" t="s">
+    <row r="24" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="B24" s="14"/>
-      <c r="C24" s="35">
+      <c r="B24" s="61"/>
+      <c r="C24" s="24">
         <f>+I6+1</f>
         <v>5</v>
       </c>
-      <c r="D24" s="35">
+      <c r="D24" s="24">
         <f>+C24+1</f>
         <v>6</v>
       </c>
-      <c r="E24" s="55">
+      <c r="E24" s="38">
         <f>+D24+1</f>
         <v>7</v>
       </c>
-      <c r="F24" s="55">
+      <c r="F24" s="38">
         <f t="shared" ref="F24:W24" si="1">+E24+1</f>
         <v>8</v>
       </c>
-      <c r="G24" s="55">
+      <c r="G24" s="38">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="H24" s="55">
+      <c r="H24" s="38">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="I24" s="55">
+      <c r="I24" s="38">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="J24" s="55">
+      <c r="J24" s="38">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="K24" s="55">
+      <c r="K24" s="38">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="L24" s="55">
+      <c r="L24" s="38">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="M24" s="55">
+      <c r="M24" s="38">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="N24" s="55">
+      <c r="N24" s="38">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="O24" s="55">
+      <c r="O24" s="38">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="P24" s="56">
+      <c r="P24" s="39">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="Q24" s="55">
+      <c r="Q24" s="38">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="R24" s="55">
+      <c r="R24" s="38">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="S24" s="55">
+      <c r="S24" s="38">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="T24" s="55">
+      <c r="T24" s="38">
         <f>+S24+1</f>
         <v>22</v>
       </c>
-      <c r="U24" s="55">
+      <c r="U24" s="38">
         <f>+T24+1</f>
         <v>23</v>
       </c>
-      <c r="V24" s="55">
+      <c r="V24" s="38">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="W24" s="55">
+      <c r="W24" s="38">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:23" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="12" t="s">
+    <row r="25" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="B25" s="20" t="s">
+      <c r="B25" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C25" s="48" t="s">
+      <c r="C25" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="D25" s="49"/>
-      <c r="E25" s="49"/>
-      <c r="F25" s="50"/>
-      <c r="G25" s="37" t="s">
+      <c r="D25" s="66"/>
+      <c r="E25" s="66"/>
+      <c r="F25" s="67"/>
+      <c r="G25" s="80" t="s">
         <v>57</v>
       </c>
-      <c r="H25" s="57"/>
-      <c r="I25" s="38"/>
-      <c r="J25" s="48" t="s">
+      <c r="H25" s="81"/>
+      <c r="I25" s="82"/>
+      <c r="J25" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="K25" s="49"/>
-      <c r="L25" s="49"/>
-      <c r="M25" s="50"/>
-      <c r="N25" s="37" t="s">
+      <c r="K25" s="66"/>
+      <c r="L25" s="66"/>
+      <c r="M25" s="67"/>
+      <c r="N25" s="80" t="s">
         <v>57</v>
       </c>
-      <c r="O25" s="57"/>
-      <c r="P25" s="38"/>
-      <c r="Q25" s="48" t="s">
+      <c r="O25" s="81"/>
+      <c r="P25" s="82"/>
+      <c r="Q25" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="R25" s="49"/>
-      <c r="S25" s="49"/>
-      <c r="T25" s="50"/>
-      <c r="U25" s="58" t="s">
+      <c r="R25" s="66"/>
+      <c r="S25" s="66"/>
+      <c r="T25" s="67"/>
+      <c r="U25" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="V25" s="27" t="s">
+      <c r="V25" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="W25" s="27" t="s">
+      <c r="W25" s="16" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="26" spans="1:23" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="17"/>
-      <c r="B26" s="20" t="s">
+    <row r="26" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="63"/>
+      <c r="B26" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C26" s="35" t="s">
+      <c r="C26" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="D26" s="35" t="s">
+      <c r="D26" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="E26" s="35" t="s">
+      <c r="E26" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="F26" s="59" t="s">
+      <c r="F26" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="G26" s="35" t="s">
+      <c r="G26" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="H26" s="35" t="s">
+      <c r="H26" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="I26" s="35" t="s">
+      <c r="I26" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="J26" s="35" t="s">
+      <c r="J26" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="K26" s="35" t="s">
+      <c r="K26" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="L26" s="35" t="s">
+      <c r="L26" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="M26" s="35" t="s">
+      <c r="M26" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="N26" s="35" t="s">
+      <c r="N26" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="O26" s="35" t="s">
+      <c r="O26" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="P26" s="59" t="s">
+      <c r="P26" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="Q26" s="35" t="s">
+      <c r="Q26" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="R26" s="35" t="s">
+      <c r="R26" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="S26" s="35" t="s">
+      <c r="S26" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="T26" s="35" t="s">
+      <c r="T26" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="U26" s="35" t="s">
+      <c r="U26" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="V26" s="35" t="s">
+      <c r="V26" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="W26" s="60" t="s">
+      <c r="W26" s="41" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:23" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="17"/>
-      <c r="B27" s="20" t="s">
+    <row r="27" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="63"/>
+      <c r="B27" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C27" s="39" t="s">
+      <c r="C27" s="71" t="s">
         <v>58</v>
       </c>
-      <c r="D27" s="40"/>
-      <c r="E27" s="40"/>
-      <c r="F27" s="41"/>
-      <c r="G27" s="61" t="s">
+      <c r="D27" s="72"/>
+      <c r="E27" s="72"/>
+      <c r="F27" s="73"/>
+      <c r="G27" s="74" t="s">
         <v>59</v>
       </c>
-      <c r="H27" s="62"/>
-      <c r="I27" s="63"/>
-      <c r="J27" s="39" t="s">
+      <c r="H27" s="75"/>
+      <c r="I27" s="76"/>
+      <c r="J27" s="71" t="s">
         <v>58</v>
       </c>
-      <c r="K27" s="40"/>
-      <c r="L27" s="40"/>
-      <c r="M27" s="41"/>
-      <c r="N27" s="46" t="s">
+      <c r="K27" s="72"/>
+      <c r="L27" s="72"/>
+      <c r="M27" s="73"/>
+      <c r="N27" s="77" t="s">
         <v>59</v>
       </c>
-      <c r="O27" s="64"/>
-      <c r="P27" s="47"/>
-      <c r="Q27" s="39" t="s">
+      <c r="O27" s="78"/>
+      <c r="P27" s="79"/>
+      <c r="Q27" s="71" t="s">
         <v>58</v>
       </c>
-      <c r="R27" s="40"/>
-      <c r="S27" s="40"/>
-      <c r="T27" s="41"/>
-      <c r="U27" s="65" t="s">
+      <c r="R27" s="72"/>
+      <c r="S27" s="72"/>
+      <c r="T27" s="73"/>
+      <c r="U27" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="V27" s="33" t="s">
+      <c r="V27" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="W27" s="33" t="s">
+      <c r="W27" s="22" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="28" spans="1:23" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="13"/>
+    <row r="28" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="64"/>
       <c r="B28" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C28" s="35" t="s">
+      <c r="C28" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="D28" s="35" t="s">
+      <c r="D28" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="E28" s="35" t="s">
+      <c r="E28" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="F28" s="59" t="s">
+      <c r="F28" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="G28" s="35" t="s">
+      <c r="G28" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="H28" s="35" t="s">
+      <c r="H28" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="I28" s="35" t="s">
+      <c r="I28" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="J28" s="35" t="s">
+      <c r="J28" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="K28" s="35" t="s">
+      <c r="K28" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="L28" s="35" t="s">
+      <c r="L28" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="M28" s="35" t="s">
+      <c r="M28" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="N28" s="35" t="s">
+      <c r="N28" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="O28" s="35" t="s">
+      <c r="O28" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="P28" s="59" t="s">
+      <c r="P28" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="Q28" s="35" t="s">
+      <c r="Q28" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="R28" s="35" t="s">
+      <c r="R28" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="S28" s="35" t="s">
+      <c r="S28" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="T28" s="35" t="s">
+      <c r="T28" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="U28" s="35" t="s">
+      <c r="U28" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="V28" s="35" t="s">
+      <c r="V28" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="W28" s="60" t="s">
+      <c r="W28" s="41" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:23" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="12" t="s">
+    <row r="29" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="B29" s="20" t="s">
+      <c r="B29" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C29" s="48" t="s">
+      <c r="C29" s="65" t="s">
         <v>25</v>
       </c>
-      <c r="D29" s="49"/>
-      <c r="E29" s="49"/>
-      <c r="F29" s="50"/>
-      <c r="G29" s="37" t="s">
+      <c r="D29" s="66"/>
+      <c r="E29" s="66"/>
+      <c r="F29" s="67"/>
+      <c r="G29" s="80" t="s">
         <v>22</v>
       </c>
-      <c r="H29" s="57"/>
-      <c r="I29" s="38"/>
-      <c r="J29" s="48" t="s">
+      <c r="H29" s="81"/>
+      <c r="I29" s="82"/>
+      <c r="J29" s="65" t="s">
         <v>25</v>
       </c>
-      <c r="K29" s="49"/>
-      <c r="L29" s="50"/>
-      <c r="M29" s="66" t="s">
+      <c r="K29" s="66"/>
+      <c r="L29" s="67"/>
+      <c r="M29" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="N29" s="37" t="s">
+      <c r="N29" s="80" t="s">
         <v>22</v>
       </c>
-      <c r="O29" s="57"/>
-      <c r="P29" s="38"/>
-      <c r="Q29" s="48" t="s">
+      <c r="O29" s="81"/>
+      <c r="P29" s="82"/>
+      <c r="Q29" s="65" t="s">
         <v>25</v>
       </c>
-      <c r="R29" s="49"/>
-      <c r="S29" s="50"/>
-      <c r="T29" s="66" t="s">
+      <c r="R29" s="66"/>
+      <c r="S29" s="67"/>
+      <c r="T29" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="U29" s="58" t="s">
+      <c r="U29" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="V29" s="27" t="s">
+      <c r="V29" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="W29" s="42" t="s">
+      <c r="W29" s="29" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:23" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="13"/>
-      <c r="B30" s="20" t="s">
+    <row r="30" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="64"/>
+      <c r="B30" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C30" s="39" t="s">
+      <c r="C30" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="D30" s="40"/>
-      <c r="E30" s="40"/>
-      <c r="F30" s="41"/>
-      <c r="G30" s="61" t="s">
+      <c r="D30" s="72"/>
+      <c r="E30" s="72"/>
+      <c r="F30" s="73"/>
+      <c r="G30" s="74" t="s">
         <v>24</v>
       </c>
-      <c r="H30" s="62"/>
-      <c r="I30" s="63"/>
-      <c r="J30" s="39" t="s">
+      <c r="H30" s="75"/>
+      <c r="I30" s="76"/>
+      <c r="J30" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="K30" s="40"/>
-      <c r="L30" s="41"/>
-      <c r="M30" s="67" t="s">
+      <c r="K30" s="72"/>
+      <c r="L30" s="73"/>
+      <c r="M30" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="N30" s="61" t="s">
+      <c r="N30" s="74" t="s">
         <v>24</v>
       </c>
-      <c r="O30" s="62"/>
-      <c r="P30" s="63"/>
-      <c r="Q30" s="39" t="s">
+      <c r="O30" s="75"/>
+      <c r="P30" s="76"/>
+      <c r="Q30" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="R30" s="40"/>
-      <c r="S30" s="41"/>
-      <c r="T30" s="67" t="s">
+      <c r="R30" s="72"/>
+      <c r="S30" s="73"/>
+      <c r="T30" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="U30" s="68" t="s">
+      <c r="U30" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="V30" s="33" t="s">
+      <c r="V30" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="W30" s="51" t="s">
+      <c r="W30" s="36" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:23" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="15" t="s">
+    <row r="31" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="B31" s="20" t="s">
+      <c r="B31" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C31" s="48" t="s">
+      <c r="C31" s="65" t="s">
         <v>32</v>
       </c>
-      <c r="D31" s="49"/>
-      <c r="E31" s="50"/>
-      <c r="F31" s="66" t="s">
+      <c r="D31" s="66"/>
+      <c r="E31" s="67"/>
+      <c r="F31" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="G31" s="37" t="s">
+      <c r="G31" s="80" t="s">
         <v>27</v>
       </c>
-      <c r="H31" s="57"/>
-      <c r="I31" s="38"/>
-      <c r="J31" s="48" t="s">
+      <c r="H31" s="81"/>
+      <c r="I31" s="82"/>
+      <c r="J31" s="65" t="s">
         <v>32</v>
       </c>
-      <c r="K31" s="49"/>
-      <c r="L31" s="49"/>
-      <c r="M31" s="26" t="s">
+      <c r="K31" s="66"/>
+      <c r="L31" s="66"/>
+      <c r="M31" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="N31" s="37" t="s">
+      <c r="N31" s="80" t="s">
         <v>27</v>
       </c>
-      <c r="O31" s="57"/>
-      <c r="P31" s="38"/>
-      <c r="Q31" s="48" t="s">
+      <c r="O31" s="81"/>
+      <c r="P31" s="82"/>
+      <c r="Q31" s="65" t="s">
         <v>32</v>
       </c>
-      <c r="R31" s="49"/>
-      <c r="S31" s="49"/>
-      <c r="T31" s="26" t="s">
+      <c r="R31" s="66"/>
+      <c r="S31" s="66"/>
+      <c r="T31" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="U31" s="27" t="s">
+      <c r="U31" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="V31" s="27" t="s">
+      <c r="V31" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="W31" s="42" t="s">
+      <c r="W31" s="29" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="1:23" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="16"/>
-      <c r="B32" s="20" t="s">
+    <row r="32" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="69"/>
+      <c r="B32" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C32" s="39" t="s">
+      <c r="C32" s="71" t="s">
         <v>29</v>
       </c>
-      <c r="D32" s="40"/>
-      <c r="E32" s="41"/>
-      <c r="F32" s="67" t="s">
+      <c r="D32" s="72"/>
+      <c r="E32" s="73"/>
+      <c r="F32" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="G32" s="69" t="s">
+      <c r="G32" s="83" t="s">
         <v>30</v>
       </c>
-      <c r="H32" s="69"/>
-      <c r="I32" s="69"/>
-      <c r="J32" s="39" t="s">
+      <c r="H32" s="83"/>
+      <c r="I32" s="83"/>
+      <c r="J32" s="71" t="s">
         <v>29</v>
       </c>
-      <c r="K32" s="40"/>
-      <c r="L32" s="40"/>
-      <c r="M32" s="32" t="s">
+      <c r="K32" s="72"/>
+      <c r="L32" s="72"/>
+      <c r="M32" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="N32" s="69" t="s">
+      <c r="N32" s="83" t="s">
         <v>30</v>
       </c>
-      <c r="O32" s="69"/>
-      <c r="P32" s="69"/>
-      <c r="Q32" s="39" t="s">
+      <c r="O32" s="83"/>
+      <c r="P32" s="83"/>
+      <c r="Q32" s="71" t="s">
         <v>29</v>
       </c>
-      <c r="R32" s="40"/>
-      <c r="S32" s="40"/>
-      <c r="T32" s="32" t="s">
+      <c r="R32" s="72"/>
+      <c r="S32" s="72"/>
+      <c r="T32" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="U32" s="33" t="s">
+      <c r="U32" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="V32" s="33" t="s">
+      <c r="V32" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="W32" s="51" t="s">
+      <c r="W32" s="36" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:23" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>33</v>
       </c>
       <c r="B33" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C33" s="48" t="s">
+      <c r="C33" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="D33" s="49"/>
-      <c r="E33" s="50"/>
-      <c r="F33" s="66" t="s">
+      <c r="D33" s="66"/>
+      <c r="E33" s="67"/>
+      <c r="F33" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="G33" s="70" t="s">
+      <c r="G33" s="84" t="s">
         <v>34</v>
       </c>
-      <c r="H33" s="70"/>
-      <c r="I33" s="70"/>
-      <c r="J33" s="48" t="s">
+      <c r="H33" s="84"/>
+      <c r="I33" s="84"/>
+      <c r="J33" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="K33" s="49"/>
-      <c r="L33" s="50"/>
-      <c r="M33" s="26" t="s">
+      <c r="K33" s="66"/>
+      <c r="L33" s="67"/>
+      <c r="M33" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="N33" s="70" t="s">
+      <c r="N33" s="84" t="s">
         <v>34</v>
       </c>
-      <c r="O33" s="70"/>
-      <c r="P33" s="70"/>
-      <c r="Q33" s="48" t="s">
+      <c r="O33" s="84"/>
+      <c r="P33" s="84"/>
+      <c r="Q33" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="R33" s="49"/>
-      <c r="S33" s="50"/>
-      <c r="T33" s="26" t="s">
+      <c r="R33" s="66"/>
+      <c r="S33" s="67"/>
+      <c r="T33" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="U33" s="27" t="s">
+      <c r="U33" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="V33" s="27" t="s">
+      <c r="V33" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="W33" s="42" t="s">
+      <c r="W33" s="29" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="34" spans="1:23" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>37</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C34" s="48" t="s">
+      <c r="C34" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="D34" s="49"/>
-      <c r="E34" s="49"/>
-      <c r="F34" s="50"/>
-      <c r="G34" s="70" t="s">
+      <c r="D34" s="66"/>
+      <c r="E34" s="66"/>
+      <c r="F34" s="67"/>
+      <c r="G34" s="84" t="s">
         <v>38</v>
       </c>
-      <c r="H34" s="70"/>
-      <c r="I34" s="70"/>
-      <c r="J34" s="48" t="s">
+      <c r="H34" s="84"/>
+      <c r="I34" s="84"/>
+      <c r="J34" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="K34" s="49"/>
-      <c r="L34" s="49"/>
-      <c r="M34" s="50"/>
-      <c r="N34" s="70" t="s">
+      <c r="K34" s="66"/>
+      <c r="L34" s="66"/>
+      <c r="M34" s="67"/>
+      <c r="N34" s="84" t="s">
         <v>38</v>
       </c>
-      <c r="O34" s="70"/>
-      <c r="P34" s="70"/>
-      <c r="Q34" s="48" t="s">
+      <c r="O34" s="84"/>
+      <c r="P34" s="84"/>
+      <c r="Q34" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="R34" s="49"/>
-      <c r="S34" s="49"/>
-      <c r="T34" s="50"/>
-      <c r="U34" s="27" t="s">
+      <c r="R34" s="66"/>
+      <c r="S34" s="66"/>
+      <c r="T34" s="67"/>
+      <c r="U34" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="V34" s="27" t="s">
+      <c r="V34" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="W34" s="42" t="s">
+      <c r="W34" s="29" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="35" spans="1:23" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="10" t="s">
+    <row r="35" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="59" t="s">
         <v>40</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C35" s="55" t="s">
+      <c r="C35" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="D35" s="32" t="s">
+      <c r="D35" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="E35" s="32" t="s">
+      <c r="E35" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="F35" s="32" t="s">
+      <c r="F35" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="G35" s="32" t="s">
+      <c r="G35" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="H35" s="55" t="s">
+      <c r="H35" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="I35" s="55" t="s">
+      <c r="I35" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="J35" s="55" t="s">
+      <c r="J35" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="K35" s="32" t="s">
+      <c r="K35" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="L35" s="32" t="s">
+      <c r="L35" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="M35" s="32" t="s">
+      <c r="M35" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="N35" s="32" t="s">
+      <c r="N35" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="O35" s="55" t="s">
+      <c r="O35" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="P35" s="55" t="s">
+      <c r="P35" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="Q35" s="55" t="s">
+      <c r="Q35" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="R35" s="32" t="s">
+      <c r="R35" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="S35" s="32" t="s">
+      <c r="S35" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="T35" s="32" t="s">
+      <c r="T35" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="U35" s="32" t="s">
+      <c r="U35" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="V35" s="55" t="s">
+      <c r="V35" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="W35" s="55" t="s">
+      <c r="W35" s="38" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="36" spans="1:23" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="10"/>
+    <row r="36" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="59"/>
       <c r="B36" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C36" s="55" t="s">
+      <c r="C36" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="D36" s="55" t="s">
+      <c r="D36" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="E36" s="33" t="s">
+      <c r="E36" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="F36" s="33" t="s">
+      <c r="F36" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="G36" s="33" t="s">
+      <c r="G36" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="H36" s="33" t="s">
+      <c r="H36" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="I36" s="55" t="s">
+      <c r="I36" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="J36" s="55" t="s">
+      <c r="J36" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="K36" s="55" t="s">
+      <c r="K36" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="L36" s="33" t="s">
+      <c r="L36" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="M36" s="33" t="s">
+      <c r="M36" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="N36" s="33" t="s">
+      <c r="N36" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="O36" s="33" t="s">
+      <c r="O36" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="P36" s="55" t="s">
+      <c r="P36" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="Q36" s="55" t="s">
+      <c r="Q36" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="R36" s="55" t="s">
+      <c r="R36" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="S36" s="33" t="s">
+      <c r="S36" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="T36" s="33" t="s">
+      <c r="T36" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="U36" s="33" t="s">
+      <c r="U36" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="V36" s="33" t="s">
+      <c r="V36" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="W36" s="55" t="s">
+      <c r="W36" s="38" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="37" spans="1:23" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="5"/>
       <c r="B37" s="5"/>
-      <c r="C37" s="28"/>
-      <c r="D37" s="28"/>
-      <c r="E37" s="28"/>
-      <c r="F37" s="28"/>
-      <c r="G37" s="28"/>
-      <c r="H37" s="28"/>
-      <c r="I37" s="28"/>
-      <c r="J37" s="28"/>
-      <c r="K37" s="28"/>
-      <c r="L37" s="28"/>
-      <c r="M37" s="28"/>
-      <c r="N37" s="71"/>
-      <c r="O37" s="71"/>
-      <c r="P37" s="71"/>
-      <c r="Q37" s="71"/>
-      <c r="R37" s="71"/>
-      <c r="S37" s="71"/>
-      <c r="T37" s="28"/>
-      <c r="U37" s="28"/>
-      <c r="V37" s="28"/>
-      <c r="W37" s="28"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="17"/>
+      <c r="H37" s="17"/>
+      <c r="I37" s="17"/>
+      <c r="J37" s="17"/>
+      <c r="K37" s="17"/>
+      <c r="L37" s="17"/>
+      <c r="M37" s="17"/>
+      <c r="N37" s="43"/>
+      <c r="O37" s="43"/>
+      <c r="P37" s="43"/>
+      <c r="Q37" s="43"/>
+      <c r="R37" s="43"/>
+      <c r="S37" s="43"/>
+      <c r="T37" s="17"/>
+      <c r="U37" s="17"/>
+      <c r="V37" s="17"/>
+      <c r="W37" s="17"/>
     </row>
-    <row r="38" spans="1:23" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="5"/>
       <c r="B38" s="5"/>
-      <c r="C38" s="28"/>
-      <c r="D38" s="28"/>
-      <c r="E38" s="28"/>
-      <c r="F38" s="28"/>
-      <c r="G38" s="28"/>
-      <c r="H38" s="28"/>
-      <c r="I38" s="28"/>
-      <c r="J38" s="28"/>
-      <c r="K38" s="28"/>
-      <c r="L38" s="28"/>
-      <c r="M38" s="28"/>
-      <c r="N38" s="71"/>
-      <c r="O38" s="71"/>
-      <c r="P38" s="71"/>
-      <c r="Q38" s="71"/>
-      <c r="R38" s="71"/>
-      <c r="S38" s="71"/>
-      <c r="T38" s="28"/>
-      <c r="U38" s="28"/>
-      <c r="V38" s="28"/>
-      <c r="W38" s="28"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="17"/>
+      <c r="H38" s="17"/>
+      <c r="I38" s="17"/>
+      <c r="J38" s="17"/>
+      <c r="K38" s="17"/>
+      <c r="L38" s="17"/>
+      <c r="M38" s="17"/>
+      <c r="N38" s="43"/>
+      <c r="O38" s="43"/>
+      <c r="P38" s="43"/>
+      <c r="Q38" s="43"/>
+      <c r="R38" s="43"/>
+      <c r="S38" s="43"/>
+      <c r="T38" s="17"/>
+      <c r="U38" s="17"/>
+      <c r="V38" s="17"/>
+      <c r="W38" s="17"/>
     </row>
-    <row r="39" spans="1:23" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="5"/>
       <c r="B39" s="5"/>
-      <c r="C39" s="28"/>
-      <c r="D39" s="28"/>
-      <c r="E39" s="28"/>
-      <c r="F39" s="28"/>
-      <c r="G39" s="28"/>
-      <c r="H39" s="28"/>
-      <c r="I39" s="28"/>
-      <c r="J39" s="28"/>
-      <c r="K39" s="28"/>
-      <c r="L39" s="28"/>
-      <c r="M39" s="28"/>
-      <c r="N39" s="28"/>
-      <c r="O39" s="28"/>
-      <c r="P39" s="28"/>
-      <c r="Q39" s="28"/>
-      <c r="R39" s="28"/>
-      <c r="S39" s="28"/>
-      <c r="T39" s="28"/>
-      <c r="U39" s="28"/>
-      <c r="V39" s="28"/>
-      <c r="W39" s="28"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="17"/>
+      <c r="G39" s="17"/>
+      <c r="H39" s="17"/>
+      <c r="I39" s="17"/>
+      <c r="J39" s="17"/>
+      <c r="K39" s="17"/>
+      <c r="L39" s="17"/>
+      <c r="M39" s="17"/>
+      <c r="N39" s="17"/>
+      <c r="O39" s="17"/>
+      <c r="P39" s="17"/>
+      <c r="Q39" s="17"/>
+      <c r="R39" s="17"/>
+      <c r="S39" s="17"/>
+      <c r="T39" s="17"/>
+      <c r="U39" s="17"/>
+      <c r="V39" s="17"/>
+      <c r="W39" s="17"/>
     </row>
-    <row r="40" spans="1:23" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="11"/>
-      <c r="B40" s="11"/>
-      <c r="C40" s="22" t="s">
+    <row r="40" spans="1:23" s="101" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="92"/>
+      <c r="B40" s="92"/>
+      <c r="C40" s="93" t="s">
         <v>53</v>
       </c>
-      <c r="D40" s="23"/>
-      <c r="E40" s="23"/>
-      <c r="F40" s="23"/>
-      <c r="G40" s="23"/>
-      <c r="H40" s="23" t="s">
+      <c r="D40" s="94"/>
+      <c r="E40" s="94"/>
+      <c r="F40" s="94"/>
+      <c r="G40" s="94"/>
+      <c r="H40" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="I40" s="24">
+      <c r="I40" s="95">
         <f>W22+1</f>
         <v>5</v>
       </c>
-      <c r="J40" s="22" t="s">
+      <c r="J40" s="93" t="s">
         <v>53</v>
       </c>
-      <c r="K40" s="23"/>
-      <c r="L40" s="23"/>
-      <c r="M40" s="23"/>
-      <c r="N40" s="23"/>
-      <c r="O40" s="23" t="s">
+      <c r="K40" s="94"/>
+      <c r="L40" s="94"/>
+      <c r="M40" s="94"/>
+      <c r="N40" s="94"/>
+      <c r="O40" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="P40" s="24">
+      <c r="P40" s="95">
         <f>I40+1</f>
         <v>6</v>
       </c>
-      <c r="Q40" s="22" t="s">
+      <c r="Q40" s="93" t="s">
         <v>53</v>
       </c>
-      <c r="R40" s="23"/>
-      <c r="S40" s="23"/>
-      <c r="T40" s="23"/>
-      <c r="U40" s="23"/>
-      <c r="V40" s="23" t="s">
+      <c r="R40" s="94"/>
+      <c r="S40" s="94"/>
+      <c r="T40" s="94"/>
+      <c r="U40" s="94"/>
+      <c r="V40" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="W40" s="24">
+      <c r="W40" s="95">
         <f>P40+1</f>
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:23" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="11" t="s">
+    <row r="41" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="B41" s="11"/>
-      <c r="C41" s="30" t="s">
+      <c r="B41" s="60"/>
+      <c r="C41" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="D41" s="30" t="s">
+      <c r="D41" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="E41" s="30" t="s">
+      <c r="E41" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="F41" s="31" t="s">
+      <c r="F41" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="G41" s="31" t="s">
+      <c r="G41" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="H41" s="30" t="s">
+      <c r="H41" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="I41" s="30" t="s">
+      <c r="I41" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="J41" s="30" t="s">
+      <c r="J41" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="K41" s="30" t="s">
+      <c r="K41" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="L41" s="30" t="s">
+      <c r="L41" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="M41" s="31" t="s">
+      <c r="M41" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="N41" s="31" t="s">
+      <c r="N41" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="O41" s="30" t="s">
+      <c r="O41" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="P41" s="30" t="s">
+      <c r="P41" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="Q41" s="30" t="s">
+      <c r="Q41" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="R41" s="30" t="s">
+      <c r="R41" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="S41" s="30" t="s">
+      <c r="S41" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="T41" s="31" t="s">
+      <c r="T41" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="U41" s="31" t="s">
+      <c r="U41" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="V41" s="30" t="s">
+      <c r="V41" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="W41" s="30" t="s">
+      <c r="W41" s="19" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:23" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="14" t="s">
+    <row r="42" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="B42" s="18"/>
-      <c r="C42" s="35">
+      <c r="B42" s="70"/>
+      <c r="C42" s="24">
         <f>+W24+1</f>
         <v>26</v>
       </c>
-      <c r="D42" s="36">
+      <c r="D42" s="25">
         <f>+C42+1</f>
         <v>27</v>
       </c>
-      <c r="E42" s="36">
+      <c r="E42" s="25">
         <f t="shared" ref="E42:W42" si="2">+D42+1</f>
         <v>28</v>
       </c>
-      <c r="F42" s="36">
+      <c r="F42" s="25">
         <f t="shared" si="2"/>
         <v>29</v>
       </c>
-      <c r="G42" s="36">
+      <c r="G42" s="25">
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
-      <c r="H42" s="36">
+      <c r="H42" s="25">
         <f t="shared" si="2"/>
         <v>31</v>
       </c>
-      <c r="I42" s="35">
+      <c r="I42" s="24">
         <v>1</v>
       </c>
-      <c r="J42" s="35">
+      <c r="J42" s="24">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="K42" s="35">
+      <c r="K42" s="24">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="L42" s="35">
+      <c r="L42" s="24">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="M42" s="35">
+      <c r="M42" s="24">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="N42" s="35">
+      <c r="N42" s="24">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="O42" s="35">
+      <c r="O42" s="24">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="P42" s="35">
+      <c r="P42" s="24">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="Q42" s="35">
+      <c r="Q42" s="24">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="R42" s="35">
+      <c r="R42" s="24">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="S42" s="35">
+      <c r="S42" s="24">
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="T42" s="35">
+      <c r="T42" s="24">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="U42" s="35">
+      <c r="U42" s="24">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="V42" s="35">
+      <c r="V42" s="24">
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="W42" s="35">
+      <c r="W42" s="24">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
     </row>
-    <row r="43" spans="1:23" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="12" t="s">
+    <row r="43" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="B43" s="20" t="s">
+      <c r="B43" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C43" s="72" t="s">
+      <c r="C43" s="44" t="s">
         <v>64</v>
       </c>
-      <c r="D43" s="39" t="s">
+      <c r="D43" s="71" t="s">
         <v>58</v>
       </c>
-      <c r="E43" s="40"/>
-      <c r="F43" s="41"/>
-      <c r="G43" s="65" t="s">
+      <c r="E43" s="72"/>
+      <c r="F43" s="73"/>
+      <c r="G43" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="H43" s="65" t="s">
+      <c r="H43" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="I43" s="73" t="s">
+      <c r="I43" s="45" t="s">
         <v>61</v>
       </c>
-      <c r="J43" s="67" t="s">
+      <c r="J43" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="K43" s="67" t="s">
+      <c r="K43" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="L43" s="67" t="s">
+      <c r="L43" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="M43" s="67" t="s">
+      <c r="M43" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="N43" s="68" t="s">
+      <c r="N43" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="O43" s="46" t="s">
+      <c r="O43" s="77" t="s">
         <v>59</v>
       </c>
-      <c r="P43" s="47"/>
-      <c r="Q43" s="67" t="s">
+      <c r="P43" s="79"/>
+      <c r="Q43" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="R43" s="67" t="s">
+      <c r="R43" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="S43" s="67" t="s">
+      <c r="S43" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="T43" s="67" t="s">
+      <c r="T43" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="U43" s="46" t="s">
+      <c r="U43" s="77" t="s">
         <v>59</v>
       </c>
-      <c r="V43" s="64"/>
-      <c r="W43" s="47"/>
+      <c r="V43" s="78"/>
+      <c r="W43" s="79"/>
     </row>
-    <row r="44" spans="1:23" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="17"/>
-      <c r="B44" s="20" t="s">
+    <row r="44" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="63"/>
+      <c r="B44" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C44" s="60" t="s">
+      <c r="C44" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="D44" s="35" t="s">
+      <c r="D44" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="E44" s="35" t="s">
+      <c r="E44" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="F44" s="35" t="s">
+      <c r="F44" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="G44" s="35" t="s">
+      <c r="G44" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="H44" s="44" t="s">
+      <c r="H44" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="I44" s="60" t="s">
+      <c r="I44" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="J44" s="60" t="s">
+      <c r="J44" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="K44" s="60" t="s">
+      <c r="K44" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="L44" s="35" t="s">
+      <c r="L44" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="M44" s="44" t="s">
+      <c r="M44" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="N44" s="35" t="s">
+      <c r="N44" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="O44" s="35" t="s">
+      <c r="O44" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="P44" s="35" t="s">
+      <c r="P44" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="Q44" s="35" t="s">
+      <c r="Q44" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="R44" s="35" t="s">
+      <c r="R44" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="S44" s="35" t="s">
+      <c r="S44" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="T44" s="44" t="s">
+      <c r="T44" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="U44" s="35" t="s">
+      <c r="U44" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="V44" s="35" t="s">
+      <c r="V44" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="W44" s="35" t="s">
+      <c r="W44" s="24" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="45" spans="1:23" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="17"/>
-      <c r="B45" s="20" t="s">
+    <row r="45" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="63"/>
+      <c r="B45" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C45" s="74" t="s">
+      <c r="C45" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="D45" s="48" t="s">
+      <c r="D45" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="E45" s="49"/>
-      <c r="F45" s="50"/>
-      <c r="G45" s="58" t="s">
+      <c r="E45" s="66"/>
+      <c r="F45" s="67"/>
+      <c r="G45" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="H45" s="58" t="s">
+      <c r="H45" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="I45" s="75" t="s">
+      <c r="I45" s="47" t="s">
         <v>60</v>
       </c>
-      <c r="J45" s="66" t="s">
+      <c r="J45" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="K45" s="66" t="s">
+      <c r="K45" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="L45" s="66" t="s">
+      <c r="L45" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="M45" s="66" t="s">
+      <c r="M45" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="N45" s="58" t="s">
+      <c r="N45" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="O45" s="37" t="s">
+      <c r="O45" s="80" t="s">
         <v>57</v>
       </c>
-      <c r="P45" s="38"/>
-      <c r="Q45" s="66" t="s">
+      <c r="P45" s="82"/>
+      <c r="Q45" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="R45" s="66" t="s">
+      <c r="R45" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="S45" s="66" t="s">
+      <c r="S45" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="T45" s="66" t="s">
+      <c r="T45" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="U45" s="37" t="s">
+      <c r="U45" s="80" t="s">
         <v>57</v>
       </c>
-      <c r="V45" s="57"/>
-      <c r="W45" s="38"/>
+      <c r="V45" s="81"/>
+      <c r="W45" s="82"/>
     </row>
-    <row r="46" spans="1:23" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="13"/>
+    <row r="46" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="64"/>
       <c r="B46" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C46" s="60" t="s">
+      <c r="C46" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="D46" s="35" t="s">
+      <c r="D46" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="E46" s="35" t="s">
+      <c r="E46" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="F46" s="35" t="s">
+      <c r="F46" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="G46" s="35" t="s">
+      <c r="G46" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="H46" s="44" t="s">
+      <c r="H46" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="I46" s="60" t="s">
+      <c r="I46" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="J46" s="60" t="s">
+      <c r="J46" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="K46" s="60" t="s">
+      <c r="K46" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="L46" s="35" t="s">
+      <c r="L46" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="M46" s="44" t="s">
+      <c r="M46" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="N46" s="35" t="s">
+      <c r="N46" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="O46" s="35" t="s">
+      <c r="O46" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="P46" s="35" t="s">
+      <c r="P46" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="Q46" s="35" t="s">
+      <c r="Q46" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="R46" s="35" t="s">
+      <c r="R46" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="S46" s="35" t="s">
+      <c r="S46" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="T46" s="44" t="s">
+      <c r="T46" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="U46" s="35" t="s">
+      <c r="U46" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="V46" s="35" t="s">
+      <c r="V46" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="W46" s="35" t="s">
+      <c r="W46" s="24" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="47" spans="1:23" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="12" t="s">
+    <row r="47" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="B47" s="20" t="s">
+      <c r="B47" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C47" s="72" t="s">
+      <c r="C47" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="D47" s="39" t="s">
+      <c r="D47" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="E47" s="40"/>
-      <c r="F47" s="41"/>
-      <c r="G47" s="33" t="s">
+      <c r="E47" s="72"/>
+      <c r="F47" s="73"/>
+      <c r="G47" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="H47" s="33" t="s">
+      <c r="H47" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="I47" s="51" t="s">
+      <c r="I47" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="J47" s="72" t="s">
+      <c r="J47" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="K47" s="67" t="s">
+      <c r="K47" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="L47" s="67" t="s">
+      <c r="L47" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="M47" s="67" t="s">
+      <c r="M47" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="N47" s="68" t="s">
+      <c r="N47" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="O47" s="46" t="s">
+      <c r="O47" s="77" t="s">
         <v>24</v>
       </c>
-      <c r="P47" s="47"/>
-      <c r="Q47" s="39" t="s">
+      <c r="P47" s="79"/>
+      <c r="Q47" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="R47" s="40"/>
-      <c r="S47" s="40"/>
-      <c r="T47" s="41"/>
-      <c r="U47" s="73" t="s">
+      <c r="R47" s="72"/>
+      <c r="S47" s="72"/>
+      <c r="T47" s="73"/>
+      <c r="U47" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="V47" s="65" t="s">
+      <c r="V47" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="W47" s="33" t="s">
+      <c r="W47" s="22" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="48" spans="1:23" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="13"/>
-      <c r="B48" s="20" t="s">
+    <row r="48" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="64"/>
+      <c r="B48" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C48" s="74" t="s">
+      <c r="C48" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="D48" s="48" t="s">
+      <c r="D48" s="65" t="s">
         <v>25</v>
       </c>
-      <c r="E48" s="49"/>
-      <c r="F48" s="50"/>
-      <c r="G48" s="27" t="s">
+      <c r="E48" s="66"/>
+      <c r="F48" s="67"/>
+      <c r="G48" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="H48" s="27" t="s">
+      <c r="H48" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="I48" s="42" t="s">
+      <c r="I48" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="J48" s="74" t="s">
+      <c r="J48" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="K48" s="66" t="s">
+      <c r="K48" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="L48" s="66" t="s">
+      <c r="L48" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="M48" s="66" t="s">
+      <c r="M48" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="N48" s="58" t="s">
+      <c r="N48" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="O48" s="37" t="s">
+      <c r="O48" s="80" t="s">
         <v>22</v>
       </c>
-      <c r="P48" s="38"/>
-      <c r="Q48" s="48" t="s">
+      <c r="P48" s="82"/>
+      <c r="Q48" s="65" t="s">
         <v>25</v>
       </c>
-      <c r="R48" s="49"/>
-      <c r="S48" s="49"/>
-      <c r="T48" s="50"/>
-      <c r="U48" s="75" t="s">
+      <c r="R48" s="66"/>
+      <c r="S48" s="66"/>
+      <c r="T48" s="67"/>
+      <c r="U48" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="V48" s="58" t="s">
+      <c r="V48" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="W48" s="27" t="s">
+      <c r="W48" s="16" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="49" spans="1:23" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="15" t="s">
+    <row r="49" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="B49" s="20" t="s">
+      <c r="B49" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C49" s="72" t="s">
+      <c r="C49" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="D49" s="39" t="s">
+      <c r="D49" s="71" t="s">
         <v>29</v>
       </c>
-      <c r="E49" s="41"/>
-      <c r="F49" s="32" t="s">
+      <c r="E49" s="73"/>
+      <c r="F49" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="G49" s="33" t="s">
+      <c r="G49" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="H49" s="33" t="s">
+      <c r="H49" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="I49" s="51" t="s">
+      <c r="I49" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="J49" s="72" t="s">
+      <c r="J49" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="K49" s="67" t="s">
+      <c r="K49" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="L49" s="67" t="s">
+      <c r="L49" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="M49" s="32" t="s">
+      <c r="M49" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="N49" s="69" t="s">
+      <c r="N49" s="83" t="s">
         <v>30</v>
       </c>
-      <c r="O49" s="69"/>
-      <c r="P49" s="69"/>
-      <c r="Q49" s="39" t="s">
+      <c r="O49" s="83"/>
+      <c r="P49" s="83"/>
+      <c r="Q49" s="71" t="s">
         <v>29</v>
       </c>
-      <c r="R49" s="40"/>
-      <c r="S49" s="40"/>
-      <c r="T49" s="32" t="s">
+      <c r="R49" s="72"/>
+      <c r="S49" s="72"/>
+      <c r="T49" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="U49" s="69" t="s">
+      <c r="U49" s="83" t="s">
         <v>30</v>
       </c>
-      <c r="V49" s="69"/>
-      <c r="W49" s="69"/>
+      <c r="V49" s="83"/>
+      <c r="W49" s="83"/>
     </row>
-    <row r="50" spans="1:23" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="16"/>
-      <c r="B50" s="20" t="s">
+    <row r="50" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="69"/>
+      <c r="B50" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C50" s="74" t="s">
+      <c r="C50" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="D50" s="48" t="s">
+      <c r="D50" s="65" t="s">
         <v>32</v>
       </c>
-      <c r="E50" s="50"/>
-      <c r="F50" s="26" t="s">
+      <c r="E50" s="67"/>
+      <c r="F50" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="G50" s="27" t="s">
+      <c r="G50" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="H50" s="27" t="s">
+      <c r="H50" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="I50" s="42" t="s">
+      <c r="I50" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="J50" s="74" t="s">
+      <c r="J50" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="K50" s="66" t="s">
+      <c r="K50" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="L50" s="66" t="s">
+      <c r="L50" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="M50" s="26" t="s">
+      <c r="M50" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="N50" s="70" t="s">
+      <c r="N50" s="84" t="s">
         <v>27</v>
       </c>
-      <c r="O50" s="70"/>
-      <c r="P50" s="70"/>
-      <c r="Q50" s="48" t="s">
+      <c r="O50" s="84"/>
+      <c r="P50" s="84"/>
+      <c r="Q50" s="65" t="s">
         <v>32</v>
       </c>
-      <c r="R50" s="49"/>
-      <c r="S50" s="49"/>
-      <c r="T50" s="26" t="s">
+      <c r="R50" s="66"/>
+      <c r="S50" s="66"/>
+      <c r="T50" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="U50" s="70" t="s">
+      <c r="U50" s="84" t="s">
         <v>27</v>
       </c>
-      <c r="V50" s="70"/>
-      <c r="W50" s="70"/>
+      <c r="V50" s="84"/>
+      <c r="W50" s="84"/>
     </row>
-    <row r="51" spans="1:23" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>33</v>
       </c>
       <c r="B51" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C51" s="74" t="s">
+      <c r="C51" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="D51" s="48" t="s">
+      <c r="D51" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="E51" s="50"/>
-      <c r="F51" s="26" t="s">
+      <c r="E51" s="67"/>
+      <c r="F51" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="G51" s="27" t="s">
+      <c r="G51" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="H51" s="27" t="s">
+      <c r="H51" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="I51" s="42" t="s">
+      <c r="I51" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="J51" s="74" t="s">
+      <c r="J51" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="K51" s="66" t="s">
+      <c r="K51" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="L51" s="66" t="s">
+      <c r="L51" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="M51" s="26" t="s">
+      <c r="M51" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="N51" s="70" t="s">
+      <c r="N51" s="84" t="s">
         <v>34</v>
       </c>
-      <c r="O51" s="70"/>
-      <c r="P51" s="70"/>
-      <c r="Q51" s="48" t="s">
+      <c r="O51" s="84"/>
+      <c r="P51" s="84"/>
+      <c r="Q51" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="R51" s="49"/>
-      <c r="S51" s="50"/>
-      <c r="T51" s="26" t="s">
+      <c r="R51" s="66"/>
+      <c r="S51" s="67"/>
+      <c r="T51" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="U51" s="70" t="s">
+      <c r="U51" s="84" t="s">
         <v>34</v>
       </c>
-      <c r="V51" s="70"/>
-      <c r="W51" s="70"/>
+      <c r="V51" s="84"/>
+      <c r="W51" s="84"/>
     </row>
-    <row r="52" spans="1:23" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
         <v>37</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C52" s="76" t="s">
+      <c r="C52" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="D52" s="48" t="s">
+      <c r="D52" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="E52" s="49"/>
-      <c r="F52" s="50"/>
-      <c r="G52" s="27" t="s">
+      <c r="E52" s="66"/>
+      <c r="F52" s="67"/>
+      <c r="G52" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="H52" s="27" t="s">
+      <c r="H52" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="I52" s="42" t="s">
+      <c r="I52" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="J52" s="76" t="s">
+      <c r="J52" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="K52" s="26" t="s">
+      <c r="K52" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="L52" s="26" t="s">
+      <c r="L52" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="M52" s="26" t="s">
+      <c r="M52" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="N52" s="27" t="s">
+      <c r="N52" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="O52" s="27" t="s">
+      <c r="O52" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="P52" s="27" t="s">
+      <c r="P52" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="Q52" s="48" t="s">
+      <c r="Q52" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="R52" s="49"/>
-      <c r="S52" s="49"/>
-      <c r="T52" s="50"/>
-      <c r="U52" s="75" t="s">
+      <c r="R52" s="66"/>
+      <c r="S52" s="66"/>
+      <c r="T52" s="67"/>
+      <c r="U52" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="V52" s="58" t="s">
+      <c r="V52" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="W52" s="27" t="s">
+      <c r="W52" s="16" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="53" spans="1:23" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="10" t="s">
+    <row r="53" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="59" t="s">
         <v>40</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C53" s="55" t="s">
+      <c r="C53" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="D53" s="32" t="s">
+      <c r="D53" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="E53" s="32" t="s">
+      <c r="E53" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="F53" s="32" t="s">
+      <c r="F53" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="G53" s="32" t="s">
+      <c r="G53" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="H53" s="55" t="s">
+      <c r="H53" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="I53" s="55" t="s">
+      <c r="I53" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="J53" s="55" t="s">
+      <c r="J53" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="K53" s="77" t="s">
+      <c r="K53" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="L53" s="32" t="s">
+      <c r="L53" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="M53" s="32" t="s">
+      <c r="M53" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="N53" s="32" t="s">
+      <c r="N53" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="O53" s="55" t="s">
+      <c r="O53" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="P53" s="55" t="s">
+      <c r="P53" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="Q53" s="55" t="s">
+      <c r="Q53" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="R53" s="32" t="s">
+      <c r="R53" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="S53" s="32" t="s">
+      <c r="S53" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="T53" s="32" t="s">
+      <c r="T53" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="U53" s="32" t="s">
+      <c r="U53" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="V53" s="55" t="s">
+      <c r="V53" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="W53" s="55" t="s">
+      <c r="W53" s="38" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="54" spans="1:23" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="10"/>
+    <row r="54" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="59"/>
       <c r="B54" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C54" s="55" t="s">
+      <c r="C54" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="D54" s="55" t="s">
+      <c r="D54" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="E54" s="33" t="s">
+      <c r="E54" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="F54" s="33" t="s">
+      <c r="F54" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="G54" s="33" t="s">
+      <c r="G54" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="H54" s="33" t="s">
+      <c r="H54" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="I54" s="55" t="s">
+      <c r="I54" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="J54" s="55" t="s">
+      <c r="J54" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="K54" s="55" t="s">
+      <c r="K54" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="L54" s="51" t="s">
+      <c r="L54" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="M54" s="33" t="s">
+      <c r="M54" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="N54" s="33" t="s">
+      <c r="N54" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="O54" s="33" t="s">
+      <c r="O54" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="P54" s="55" t="s">
+      <c r="P54" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="Q54" s="55" t="s">
+      <c r="Q54" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="R54" s="55" t="s">
+      <c r="R54" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="S54" s="33" t="s">
+      <c r="S54" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="T54" s="33" t="s">
+      <c r="T54" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="U54" s="33" t="s">
+      <c r="U54" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="V54" s="33" t="s">
+      <c r="V54" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="W54" s="55" t="s">
+      <c r="W54" s="38" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="55" spans="1:23" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="9"/>
       <c r="B55" s="9"/>
-      <c r="C55" s="78"/>
-      <c r="D55" s="78"/>
-      <c r="E55" s="78"/>
-      <c r="F55" s="78"/>
-      <c r="G55" s="78"/>
-      <c r="H55" s="78"/>
-      <c r="I55" s="78"/>
-      <c r="J55" s="78"/>
-      <c r="K55" s="78"/>
-      <c r="L55" s="78"/>
-      <c r="M55" s="78"/>
-      <c r="N55" s="78"/>
-      <c r="O55" s="78"/>
-      <c r="P55" s="78"/>
-      <c r="Q55" s="78"/>
-      <c r="R55" s="78"/>
-      <c r="S55" s="78"/>
-      <c r="T55" s="78"/>
-      <c r="U55" s="78"/>
-      <c r="V55" s="78"/>
-      <c r="W55" s="78"/>
+      <c r="C55" s="50"/>
+      <c r="D55" s="50"/>
+      <c r="E55" s="50"/>
+      <c r="F55" s="50"/>
+      <c r="G55" s="50"/>
+      <c r="H55" s="50"/>
+      <c r="I55" s="50"/>
+      <c r="J55" s="50"/>
+      <c r="K55" s="50"/>
+      <c r="L55" s="50"/>
+      <c r="M55" s="50"/>
+      <c r="N55" s="50"/>
+      <c r="O55" s="50"/>
+      <c r="P55" s="50"/>
+      <c r="Q55" s="50"/>
+      <c r="R55" s="50"/>
+      <c r="S55" s="50"/>
+      <c r="T55" s="50"/>
+      <c r="U55" s="50"/>
+      <c r="V55" s="50"/>
+      <c r="W55" s="50"/>
     </row>
-    <row r="56" spans="1:23" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="9"/>
       <c r="B56" s="9"/>
-      <c r="C56" s="78"/>
-      <c r="D56" s="78"/>
-      <c r="E56" s="78"/>
-      <c r="F56" s="78"/>
-      <c r="G56" s="78"/>
-      <c r="H56" s="78"/>
-      <c r="I56" s="78"/>
-      <c r="J56" s="78"/>
-      <c r="K56" s="78"/>
-      <c r="L56" s="78"/>
-      <c r="M56" s="78"/>
-      <c r="N56" s="78"/>
-      <c r="O56" s="78"/>
-      <c r="P56" s="78"/>
-      <c r="Q56" s="78"/>
-      <c r="R56" s="78"/>
-      <c r="S56" s="78"/>
-      <c r="T56" s="78"/>
-      <c r="U56" s="78"/>
-      <c r="V56" s="78"/>
-      <c r="W56" s="78"/>
+      <c r="C56" s="50"/>
+      <c r="D56" s="50"/>
+      <c r="E56" s="50"/>
+      <c r="F56" s="50"/>
+      <c r="G56" s="50"/>
+      <c r="H56" s="50"/>
+      <c r="I56" s="50"/>
+      <c r="J56" s="50"/>
+      <c r="K56" s="50"/>
+      <c r="L56" s="50"/>
+      <c r="M56" s="50"/>
+      <c r="N56" s="50"/>
+      <c r="O56" s="50"/>
+      <c r="P56" s="50"/>
+      <c r="Q56" s="50"/>
+      <c r="R56" s="50"/>
+      <c r="S56" s="50"/>
+      <c r="T56" s="50"/>
+      <c r="U56" s="50"/>
+      <c r="V56" s="50"/>
+      <c r="W56" s="50"/>
     </row>
-    <row r="57" spans="1:23" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="5"/>
       <c r="B57" s="5"/>
-      <c r="C57" s="79"/>
-      <c r="D57" s="79"/>
-      <c r="E57" s="79"/>
-      <c r="F57" s="79"/>
-      <c r="G57" s="79"/>
-      <c r="H57" s="79"/>
-      <c r="I57" s="79"/>
-      <c r="J57" s="79"/>
-      <c r="K57" s="79"/>
-      <c r="L57" s="79"/>
-      <c r="M57" s="79"/>
-      <c r="N57" s="79"/>
-      <c r="O57" s="79"/>
-      <c r="P57" s="79"/>
-      <c r="Q57" s="79"/>
-      <c r="R57" s="79"/>
-      <c r="S57" s="79"/>
-      <c r="T57" s="79"/>
-      <c r="U57" s="79"/>
-      <c r="V57" s="79"/>
-      <c r="W57" s="79"/>
+      <c r="C57" s="51"/>
+      <c r="D57" s="51"/>
+      <c r="E57" s="51"/>
+      <c r="F57" s="51"/>
+      <c r="G57" s="51"/>
+      <c r="H57" s="51"/>
+      <c r="I57" s="51"/>
+      <c r="J57" s="51"/>
+      <c r="K57" s="51"/>
+      <c r="L57" s="51"/>
+      <c r="M57" s="51"/>
+      <c r="N57" s="51"/>
+      <c r="O57" s="51"/>
+      <c r="P57" s="51"/>
+      <c r="Q57" s="51"/>
+      <c r="R57" s="51"/>
+      <c r="S57" s="51"/>
+      <c r="T57" s="51"/>
+      <c r="U57" s="51"/>
+      <c r="V57" s="51"/>
+      <c r="W57" s="51"/>
     </row>
-    <row r="58" spans="1:23" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="11"/>
-      <c r="B58" s="11"/>
-      <c r="C58" s="22" t="s">
+    <row r="58" spans="1:23" s="101" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="92"/>
+      <c r="B58" s="92"/>
+      <c r="C58" s="93" t="s">
         <v>53</v>
       </c>
-      <c r="D58" s="23"/>
-      <c r="E58" s="23"/>
-      <c r="F58" s="23"/>
-      <c r="G58" s="23"/>
-      <c r="H58" s="23" t="s">
+      <c r="D58" s="94"/>
+      <c r="E58" s="94"/>
+      <c r="F58" s="94"/>
+      <c r="G58" s="94"/>
+      <c r="H58" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="I58" s="24">
+      <c r="I58" s="95">
         <f>W40+1</f>
         <v>8</v>
       </c>
-      <c r="J58" s="22" t="s">
+      <c r="J58" s="93" t="s">
         <v>54</v>
       </c>
-      <c r="K58" s="23"/>
-      <c r="L58" s="23"/>
-      <c r="M58" s="23"/>
-      <c r="N58" s="23"/>
-      <c r="O58" s="23" t="s">
+      <c r="K58" s="94"/>
+      <c r="L58" s="94"/>
+      <c r="M58" s="94"/>
+      <c r="N58" s="94"/>
+      <c r="O58" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="P58" s="80">
+      <c r="P58" s="102">
         <f>I58+1</f>
         <v>9</v>
       </c>
-      <c r="Q58" s="22" t="s">
+      <c r="Q58" s="93" t="s">
         <v>54</v>
       </c>
-      <c r="R58" s="23"/>
-      <c r="S58" s="23"/>
-      <c r="T58" s="23"/>
-      <c r="U58" s="23"/>
-      <c r="V58" s="23" t="s">
+      <c r="R58" s="94"/>
+      <c r="S58" s="94"/>
+      <c r="T58" s="94"/>
+      <c r="U58" s="94"/>
+      <c r="V58" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="W58" s="24">
+      <c r="W58" s="95">
         <f>P58+1</f>
         <v>10</v>
       </c>
     </row>
-    <row r="59" spans="1:23" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="11" t="s">
+    <row r="59" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="B59" s="11"/>
-      <c r="C59" s="81" t="s">
+      <c r="B59" s="60"/>
+      <c r="C59" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="D59" s="81" t="s">
+      <c r="D59" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="E59" s="81" t="s">
+      <c r="E59" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="F59" s="82" t="s">
+      <c r="F59" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="G59" s="82" t="s">
+      <c r="G59" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="H59" s="81" t="s">
+      <c r="H59" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="I59" s="81" t="s">
+      <c r="I59" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="J59" s="81" t="s">
+      <c r="J59" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="K59" s="81" t="s">
+      <c r="K59" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="L59" s="81" t="s">
+      <c r="L59" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="M59" s="82" t="s">
+      <c r="M59" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="N59" s="82" t="s">
+      <c r="N59" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="O59" s="81" t="s">
+      <c r="O59" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="P59" s="22" t="s">
+      <c r="P59" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="Q59" s="30" t="s">
+      <c r="Q59" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="R59" s="30" t="s">
+      <c r="R59" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="S59" s="30" t="s">
+      <c r="S59" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="T59" s="31" t="s">
+      <c r="T59" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="U59" s="31" t="s">
+      <c r="U59" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="V59" s="30" t="s">
+      <c r="V59" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="W59" s="30" t="s">
+      <c r="W59" s="19" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:23" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="14" t="s">
+    <row r="60" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="B60" s="14"/>
-      <c r="C60" s="35">
+      <c r="B60" s="61"/>
+      <c r="C60" s="24">
         <f>+W42+1</f>
         <v>16</v>
       </c>
-      <c r="D60" s="35">
+      <c r="D60" s="24">
         <f t="shared" ref="D60:W60" si="3">+C60+1</f>
         <v>17</v>
       </c>
-      <c r="E60" s="35">
+      <c r="E60" s="24">
         <f t="shared" si="3"/>
         <v>18</v>
       </c>
-      <c r="F60" s="35">
+      <c r="F60" s="24">
         <f t="shared" si="3"/>
         <v>19</v>
       </c>
-      <c r="G60" s="83">
+      <c r="G60" s="54">
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="H60" s="83">
+      <c r="H60" s="54">
         <f t="shared" si="3"/>
         <v>21</v>
       </c>
-      <c r="I60" s="83">
+      <c r="I60" s="54">
         <f t="shared" si="3"/>
         <v>22</v>
       </c>
-      <c r="J60" s="35">
+      <c r="J60" s="24">
         <f t="shared" si="3"/>
         <v>23</v>
       </c>
-      <c r="K60" s="35">
+      <c r="K60" s="24">
         <f t="shared" si="3"/>
         <v>24</v>
       </c>
-      <c r="L60" s="35">
+      <c r="L60" s="24">
         <f t="shared" si="3"/>
         <v>25</v>
       </c>
-      <c r="M60" s="35">
+      <c r="M60" s="24">
         <f t="shared" si="3"/>
         <v>26</v>
       </c>
-      <c r="N60" s="35">
+      <c r="N60" s="24">
         <f t="shared" si="3"/>
         <v>27</v>
       </c>
-      <c r="O60" s="35">
+      <c r="O60" s="24">
         <f t="shared" si="3"/>
         <v>28</v>
       </c>
-      <c r="P60" s="59">
+      <c r="P60" s="40">
         <v>1</v>
       </c>
-      <c r="Q60" s="59">
+      <c r="Q60" s="40">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="R60" s="59">
+      <c r="R60" s="40">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="S60" s="59">
+      <c r="S60" s="40">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="T60" s="59">
+      <c r="T60" s="40">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="U60" s="35">
+      <c r="U60" s="24">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="V60" s="35">
+      <c r="V60" s="24">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="W60" s="35">
+      <c r="W60" s="24">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
     </row>
-    <row r="61" spans="1:23" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="12" t="s">
+    <row r="61" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="B61" s="20" t="s">
+      <c r="B61" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C61" s="48" t="s">
+      <c r="C61" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="D61" s="49"/>
-      <c r="E61" s="49"/>
-      <c r="F61" s="50"/>
-      <c r="G61" s="27" t="s">
+      <c r="D61" s="66"/>
+      <c r="E61" s="66"/>
+      <c r="F61" s="67"/>
+      <c r="G61" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="H61" s="27" t="s">
+      <c r="H61" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="I61" s="27" t="s">
+      <c r="I61" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="J61" s="48" t="s">
+      <c r="J61" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="K61" s="49"/>
-      <c r="L61" s="49"/>
-      <c r="M61" s="50"/>
-      <c r="N61" s="27" t="s">
+      <c r="K61" s="66"/>
+      <c r="L61" s="66"/>
+      <c r="M61" s="67"/>
+      <c r="N61" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="O61" s="27" t="s">
+      <c r="O61" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="P61" s="27" t="s">
+      <c r="P61" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="Q61" s="48" t="s">
+      <c r="Q61" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="R61" s="49"/>
-      <c r="S61" s="49"/>
-      <c r="T61" s="50"/>
-      <c r="U61" s="37" t="s">
+      <c r="R61" s="66"/>
+      <c r="S61" s="66"/>
+      <c r="T61" s="67"/>
+      <c r="U61" s="80" t="s">
         <v>57</v>
       </c>
-      <c r="V61" s="57"/>
-      <c r="W61" s="38"/>
+      <c r="V61" s="81"/>
+      <c r="W61" s="82"/>
     </row>
-    <row r="62" spans="1:23" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="17"/>
-      <c r="B62" s="20" t="s">
+    <row r="62" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="63"/>
+      <c r="B62" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C62" s="35" t="s">
+      <c r="C62" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="D62" s="35" t="s">
+      <c r="D62" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="E62" s="35" t="s">
+      <c r="E62" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="F62" s="35" t="s">
+      <c r="F62" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="G62" s="35" t="s">
+      <c r="G62" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="H62" s="35" t="s">
+      <c r="H62" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="I62" s="35" t="s">
+      <c r="I62" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="J62" s="35" t="s">
+      <c r="J62" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="K62" s="35" t="s">
+      <c r="K62" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="L62" s="35" t="s">
+      <c r="L62" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="M62" s="35" t="s">
+      <c r="M62" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="N62" s="44" t="s">
+      <c r="N62" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="O62" s="35" t="s">
+      <c r="O62" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="P62" s="59" t="s">
+      <c r="P62" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="Q62" s="35" t="s">
+      <c r="Q62" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="R62" s="35" t="s">
+      <c r="R62" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="S62" s="35" t="s">
+      <c r="S62" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="T62" s="35" t="s">
+      <c r="T62" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="U62" s="35" t="s">
+      <c r="U62" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="V62" s="35" t="s">
+      <c r="V62" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="W62" s="35" t="s">
+      <c r="W62" s="24" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="63" spans="1:23" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="17"/>
-      <c r="B63" s="20" t="s">
+    <row r="63" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="63"/>
+      <c r="B63" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C63" s="39" t="s">
+      <c r="C63" s="71" t="s">
         <v>58</v>
       </c>
-      <c r="D63" s="40"/>
-      <c r="E63" s="40"/>
-      <c r="F63" s="41"/>
-      <c r="G63" s="33" t="s">
+      <c r="D63" s="72"/>
+      <c r="E63" s="72"/>
+      <c r="F63" s="73"/>
+      <c r="G63" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="H63" s="33" t="s">
+      <c r="H63" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="I63" s="33" t="s">
+      <c r="I63" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="J63" s="39" t="s">
+      <c r="J63" s="71" t="s">
         <v>58</v>
       </c>
-      <c r="K63" s="40"/>
-      <c r="L63" s="40"/>
-      <c r="M63" s="41"/>
-      <c r="N63" s="33" t="s">
+      <c r="K63" s="72"/>
+      <c r="L63" s="72"/>
+      <c r="M63" s="73"/>
+      <c r="N63" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="O63" s="33" t="s">
+      <c r="O63" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="P63" s="33" t="s">
+      <c r="P63" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="Q63" s="39" t="s">
+      <c r="Q63" s="71" t="s">
         <v>58</v>
       </c>
-      <c r="R63" s="40"/>
-      <c r="S63" s="40"/>
-      <c r="T63" s="41"/>
-      <c r="U63" s="46" t="s">
+      <c r="R63" s="72"/>
+      <c r="S63" s="72"/>
+      <c r="T63" s="73"/>
+      <c r="U63" s="77" t="s">
         <v>59</v>
       </c>
-      <c r="V63" s="64"/>
-      <c r="W63" s="47"/>
+      <c r="V63" s="78"/>
+      <c r="W63" s="79"/>
     </row>
-    <row r="64" spans="1:23" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="13"/>
+    <row r="64" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="64"/>
       <c r="B64" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C64" s="35" t="s">
+      <c r="C64" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="D64" s="35" t="s">
+      <c r="D64" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="E64" s="35" t="s">
+      <c r="E64" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="F64" s="35" t="s">
+      <c r="F64" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="G64" s="35" t="s">
+      <c r="G64" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="H64" s="35" t="s">
+      <c r="H64" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="I64" s="35" t="s">
+      <c r="I64" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="J64" s="35" t="s">
+      <c r="J64" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="K64" s="35" t="s">
+      <c r="K64" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="L64" s="35" t="s">
+      <c r="L64" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="M64" s="35" t="s">
+      <c r="M64" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="N64" s="84" t="s">
+      <c r="N64" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="O64" s="85" t="s">
+      <c r="O64" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="P64" s="35" t="s">
+      <c r="P64" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="Q64" s="35" t="s">
+      <c r="Q64" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="R64" s="35" t="s">
+      <c r="R64" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="S64" s="35" t="s">
+      <c r="S64" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="T64" s="35" t="s">
+      <c r="T64" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="U64" s="35" t="s">
+      <c r="U64" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="V64" s="35" t="s">
+      <c r="V64" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="W64" s="35" t="s">
+      <c r="W64" s="24" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="65" spans="1:23" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="12" t="s">
+    <row r="65" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="B65" s="20" t="s">
+      <c r="B65" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C65" s="48" t="s">
+      <c r="C65" s="65" t="s">
         <v>25</v>
       </c>
-      <c r="D65" s="49"/>
-      <c r="E65" s="49"/>
-      <c r="F65" s="50"/>
-      <c r="G65" s="37" t="s">
+      <c r="D65" s="66"/>
+      <c r="E65" s="66"/>
+      <c r="F65" s="67"/>
+      <c r="G65" s="80" t="s">
         <v>22</v>
       </c>
-      <c r="H65" s="57"/>
-      <c r="I65" s="38"/>
-      <c r="J65" s="48" t="s">
+      <c r="H65" s="81"/>
+      <c r="I65" s="82"/>
+      <c r="J65" s="65" t="s">
         <v>25</v>
       </c>
-      <c r="K65" s="49"/>
-      <c r="L65" s="49"/>
-      <c r="M65" s="50"/>
-      <c r="N65" s="37" t="s">
+      <c r="K65" s="66"/>
+      <c r="L65" s="66"/>
+      <c r="M65" s="67"/>
+      <c r="N65" s="80" t="s">
         <v>22</v>
       </c>
-      <c r="O65" s="57"/>
-      <c r="P65" s="38"/>
-      <c r="Q65" s="48" t="s">
+      <c r="O65" s="81"/>
+      <c r="P65" s="82"/>
+      <c r="Q65" s="65" t="s">
         <v>25</v>
       </c>
-      <c r="R65" s="49"/>
-      <c r="S65" s="49"/>
-      <c r="T65" s="50"/>
-      <c r="U65" s="37" t="s">
+      <c r="R65" s="66"/>
+      <c r="S65" s="66"/>
+      <c r="T65" s="67"/>
+      <c r="U65" s="80" t="s">
         <v>22</v>
       </c>
-      <c r="V65" s="57"/>
-      <c r="W65" s="38"/>
+      <c r="V65" s="81"/>
+      <c r="W65" s="82"/>
     </row>
-    <row r="66" spans="1:23" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="13"/>
-      <c r="B66" s="20" t="s">
+    <row r="66" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="64"/>
+      <c r="B66" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C66" s="39" t="s">
+      <c r="C66" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="D66" s="40"/>
-      <c r="E66" s="40"/>
-      <c r="F66" s="41"/>
-      <c r="G66" s="61" t="s">
+      <c r="D66" s="72"/>
+      <c r="E66" s="72"/>
+      <c r="F66" s="73"/>
+      <c r="G66" s="74" t="s">
         <v>24</v>
       </c>
-      <c r="H66" s="62"/>
-      <c r="I66" s="63"/>
-      <c r="J66" s="39" t="s">
+      <c r="H66" s="75"/>
+      <c r="I66" s="76"/>
+      <c r="J66" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="K66" s="40"/>
-      <c r="L66" s="40"/>
-      <c r="M66" s="41"/>
-      <c r="N66" s="61" t="s">
+      <c r="K66" s="72"/>
+      <c r="L66" s="72"/>
+      <c r="M66" s="73"/>
+      <c r="N66" s="74" t="s">
         <v>24</v>
       </c>
-      <c r="O66" s="62"/>
-      <c r="P66" s="63"/>
-      <c r="Q66" s="39" t="s">
+      <c r="O66" s="75"/>
+      <c r="P66" s="76"/>
+      <c r="Q66" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="R66" s="40"/>
-      <c r="S66" s="40"/>
-      <c r="T66" s="41"/>
-      <c r="U66" s="61" t="s">
+      <c r="R66" s="72"/>
+      <c r="S66" s="72"/>
+      <c r="T66" s="73"/>
+      <c r="U66" s="74" t="s">
         <v>24</v>
       </c>
-      <c r="V66" s="62"/>
-      <c r="W66" s="63"/>
+      <c r="V66" s="75"/>
+      <c r="W66" s="76"/>
     </row>
-    <row r="67" spans="1:23" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="15" t="s">
+    <row r="67" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="B67" s="20" t="s">
+      <c r="B67" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C67" s="48" t="s">
+      <c r="C67" s="65" t="s">
         <v>32</v>
       </c>
-      <c r="D67" s="49"/>
-      <c r="E67" s="50"/>
-      <c r="F67" s="26" t="s">
+      <c r="D67" s="66"/>
+      <c r="E67" s="67"/>
+      <c r="F67" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="G67" s="37" t="s">
+      <c r="G67" s="80" t="s">
         <v>27</v>
       </c>
-      <c r="H67" s="57"/>
-      <c r="I67" s="38"/>
-      <c r="J67" s="48" t="s">
+      <c r="H67" s="81"/>
+      <c r="I67" s="82"/>
+      <c r="J67" s="65" t="s">
         <v>32</v>
       </c>
-      <c r="K67" s="49"/>
-      <c r="L67" s="50"/>
-      <c r="M67" s="26" t="s">
+      <c r="K67" s="66"/>
+      <c r="L67" s="67"/>
+      <c r="M67" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="N67" s="37" t="s">
+      <c r="N67" s="80" t="s">
         <v>27</v>
       </c>
-      <c r="O67" s="57"/>
-      <c r="P67" s="38"/>
-      <c r="Q67" s="48" t="s">
+      <c r="O67" s="81"/>
+      <c r="P67" s="82"/>
+      <c r="Q67" s="65" t="s">
         <v>32</v>
       </c>
-      <c r="R67" s="49"/>
-      <c r="S67" s="50"/>
-      <c r="T67" s="26" t="s">
+      <c r="R67" s="66"/>
+      <c r="S67" s="67"/>
+      <c r="T67" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="U67" s="37" t="s">
+      <c r="U67" s="80" t="s">
         <v>27</v>
       </c>
-      <c r="V67" s="57"/>
-      <c r="W67" s="38"/>
+      <c r="V67" s="81"/>
+      <c r="W67" s="82"/>
     </row>
-    <row r="68" spans="1:23" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="16"/>
-      <c r="B68" s="20" t="s">
+    <row r="68" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="69"/>
+      <c r="B68" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C68" s="39" t="s">
+      <c r="C68" s="71" t="s">
         <v>29</v>
       </c>
-      <c r="D68" s="40"/>
-      <c r="E68" s="41"/>
-      <c r="F68" s="32" t="s">
+      <c r="D68" s="72"/>
+      <c r="E68" s="73"/>
+      <c r="F68" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="G68" s="46" t="s">
+      <c r="G68" s="77" t="s">
         <v>30</v>
       </c>
-      <c r="H68" s="64"/>
-      <c r="I68" s="47"/>
-      <c r="J68" s="39" t="s">
+      <c r="H68" s="78"/>
+      <c r="I68" s="79"/>
+      <c r="J68" s="71" t="s">
         <v>29</v>
       </c>
-      <c r="K68" s="40"/>
-      <c r="L68" s="41"/>
-      <c r="M68" s="32" t="s">
+      <c r="K68" s="72"/>
+      <c r="L68" s="73"/>
+      <c r="M68" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="N68" s="46" t="s">
+      <c r="N68" s="77" t="s">
         <v>30</v>
       </c>
-      <c r="O68" s="64"/>
-      <c r="P68" s="47"/>
-      <c r="Q68" s="39" t="s">
+      <c r="O68" s="78"/>
+      <c r="P68" s="79"/>
+      <c r="Q68" s="71" t="s">
         <v>29</v>
       </c>
-      <c r="R68" s="40"/>
-      <c r="S68" s="41"/>
-      <c r="T68" s="32" t="s">
+      <c r="R68" s="72"/>
+      <c r="S68" s="73"/>
+      <c r="T68" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="U68" s="46" t="s">
+      <c r="U68" s="77" t="s">
         <v>30</v>
       </c>
-      <c r="V68" s="64"/>
-      <c r="W68" s="47"/>
+      <c r="V68" s="78"/>
+      <c r="W68" s="79"/>
     </row>
-    <row r="69" spans="1:23" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
         <v>33</v>
       </c>
       <c r="B69" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C69" s="48" t="s">
+      <c r="C69" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="D69" s="49"/>
-      <c r="E69" s="50"/>
-      <c r="F69" s="26" t="s">
+      <c r="D69" s="66"/>
+      <c r="E69" s="67"/>
+      <c r="F69" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="G69" s="37" t="s">
+      <c r="G69" s="80" t="s">
         <v>34</v>
       </c>
-      <c r="H69" s="57"/>
-      <c r="I69" s="38"/>
-      <c r="J69" s="48" t="s">
+      <c r="H69" s="81"/>
+      <c r="I69" s="82"/>
+      <c r="J69" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="K69" s="49"/>
-      <c r="L69" s="50"/>
-      <c r="M69" s="26" t="s">
+      <c r="K69" s="66"/>
+      <c r="L69" s="67"/>
+      <c r="M69" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="N69" s="37" t="s">
+      <c r="N69" s="80" t="s">
         <v>34</v>
       </c>
-      <c r="O69" s="57"/>
-      <c r="P69" s="38"/>
-      <c r="Q69" s="48" t="s">
+      <c r="O69" s="81"/>
+      <c r="P69" s="82"/>
+      <c r="Q69" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="R69" s="49"/>
-      <c r="S69" s="50"/>
-      <c r="T69" s="26" t="s">
+      <c r="R69" s="66"/>
+      <c r="S69" s="67"/>
+      <c r="T69" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="U69" s="37" t="s">
+      <c r="U69" s="80" t="s">
         <v>34</v>
       </c>
-      <c r="V69" s="57"/>
-      <c r="W69" s="38"/>
+      <c r="V69" s="81"/>
+      <c r="W69" s="82"/>
     </row>
-    <row r="70" spans="1:23" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
         <v>37</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C70" s="48" t="s">
+      <c r="C70" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="D70" s="49"/>
-      <c r="E70" s="49"/>
-      <c r="F70" s="50"/>
-      <c r="G70" s="37" t="s">
+      <c r="D70" s="66"/>
+      <c r="E70" s="66"/>
+      <c r="F70" s="67"/>
+      <c r="G70" s="80" t="s">
         <v>38</v>
       </c>
-      <c r="H70" s="57"/>
-      <c r="I70" s="57"/>
-      <c r="J70" s="48" t="s">
+      <c r="H70" s="81"/>
+      <c r="I70" s="81"/>
+      <c r="J70" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="K70" s="49"/>
-      <c r="L70" s="49"/>
-      <c r="M70" s="50"/>
-      <c r="N70" s="37" t="s">
+      <c r="K70" s="66"/>
+      <c r="L70" s="66"/>
+      <c r="M70" s="67"/>
+      <c r="N70" s="80" t="s">
         <v>38</v>
       </c>
-      <c r="O70" s="57"/>
-      <c r="P70" s="57"/>
-      <c r="Q70" s="48" t="s">
+      <c r="O70" s="81"/>
+      <c r="P70" s="81"/>
+      <c r="Q70" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="R70" s="49"/>
-      <c r="S70" s="49"/>
-      <c r="T70" s="50"/>
-      <c r="U70" s="37" t="s">
+      <c r="R70" s="66"/>
+      <c r="S70" s="66"/>
+      <c r="T70" s="67"/>
+      <c r="U70" s="80" t="s">
         <v>38</v>
       </c>
-      <c r="V70" s="57"/>
-      <c r="W70" s="57"/>
+      <c r="V70" s="81"/>
+      <c r="W70" s="81"/>
     </row>
-    <row r="71" spans="1:23" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="10" t="s">
+    <row r="71" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="59" t="s">
         <v>40</v>
       </c>
       <c r="B71" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C71" s="55" t="s">
+      <c r="C71" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="D71" s="32" t="s">
+      <c r="D71" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="E71" s="32" t="s">
+      <c r="E71" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="F71" s="32" t="s">
+      <c r="F71" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="G71" s="32" t="s">
+      <c r="G71" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="H71" s="55" t="s">
+      <c r="H71" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="I71" s="55" t="s">
+      <c r="I71" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="J71" s="55" t="s">
+      <c r="J71" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="K71" s="32" t="s">
+      <c r="K71" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="L71" s="32" t="s">
+      <c r="L71" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="M71" s="32" t="s">
+      <c r="M71" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="N71" s="32" t="s">
+      <c r="N71" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="O71" s="55" t="s">
+      <c r="O71" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="P71" s="55" t="s">
+      <c r="P71" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="Q71" s="55" t="s">
+      <c r="Q71" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="R71" s="32" t="s">
+      <c r="R71" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="S71" s="32" t="s">
+      <c r="S71" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="T71" s="32" t="s">
+      <c r="T71" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="U71" s="32" t="s">
+      <c r="U71" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="V71" s="55" t="s">
+      <c r="V71" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="W71" s="55" t="s">
+      <c r="W71" s="38" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="72" spans="1:23" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="10"/>
+    <row r="72" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="59"/>
       <c r="B72" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C72" s="55" t="s">
+      <c r="C72" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="D72" s="55" t="s">
+      <c r="D72" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="E72" s="33" t="s">
+      <c r="E72" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="F72" s="33" t="s">
+      <c r="F72" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="G72" s="33" t="s">
+      <c r="G72" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="H72" s="33" t="s">
+      <c r="H72" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="I72" s="55" t="s">
+      <c r="I72" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="J72" s="55" t="s">
+      <c r="J72" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="K72" s="55" t="s">
+      <c r="K72" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="L72" s="33" t="s">
+      <c r="L72" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="M72" s="33" t="s">
+      <c r="M72" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="N72" s="33" t="s">
+      <c r="N72" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="O72" s="33" t="s">
+      <c r="O72" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="P72" s="55" t="s">
+      <c r="P72" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="Q72" s="55" t="s">
+      <c r="Q72" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="R72" s="55" t="s">
+      <c r="R72" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="S72" s="33" t="s">
+      <c r="S72" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="T72" s="33" t="s">
+      <c r="T72" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="U72" s="33" t="s">
+      <c r="U72" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="V72" s="33" t="s">
+      <c r="V72" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="W72" s="55" t="s">
+      <c r="W72" s="38" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="73" spans="1:23" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="9"/>
       <c r="B73" s="9"/>
-      <c r="C73" s="78"/>
-      <c r="D73" s="78"/>
-      <c r="E73" s="78"/>
-      <c r="F73" s="78"/>
-      <c r="G73" s="78"/>
-      <c r="H73" s="78"/>
-      <c r="I73" s="78"/>
-      <c r="J73" s="78"/>
-      <c r="K73" s="78"/>
-      <c r="L73" s="78"/>
-      <c r="M73" s="78"/>
-      <c r="N73" s="78"/>
-      <c r="O73" s="78"/>
-      <c r="P73" s="78"/>
-      <c r="Q73" s="78"/>
-      <c r="R73" s="78"/>
-      <c r="S73" s="78"/>
-      <c r="T73" s="78"/>
-      <c r="U73" s="78"/>
-      <c r="V73" s="78"/>
-      <c r="W73" s="78"/>
+      <c r="C73" s="50"/>
+      <c r="D73" s="50"/>
+      <c r="E73" s="50"/>
+      <c r="F73" s="50"/>
+      <c r="G73" s="50"/>
+      <c r="H73" s="50"/>
+      <c r="I73" s="50"/>
+      <c r="J73" s="50"/>
+      <c r="K73" s="50"/>
+      <c r="L73" s="50"/>
+      <c r="M73" s="50"/>
+      <c r="N73" s="50"/>
+      <c r="O73" s="50"/>
+      <c r="P73" s="50"/>
+      <c r="Q73" s="50"/>
+      <c r="R73" s="50"/>
+      <c r="S73" s="50"/>
+      <c r="T73" s="50"/>
+      <c r="U73" s="50"/>
+      <c r="V73" s="50"/>
+      <c r="W73" s="50"/>
     </row>
-    <row r="74" spans="1:23" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="9"/>
       <c r="B74" s="9"/>
-      <c r="C74" s="78"/>
-      <c r="D74" s="78"/>
-      <c r="E74" s="78"/>
-      <c r="F74" s="78"/>
-      <c r="G74" s="78"/>
-      <c r="H74" s="78"/>
-      <c r="I74" s="78"/>
-      <c r="J74" s="78"/>
-      <c r="K74" s="78"/>
-      <c r="L74" s="78"/>
-      <c r="M74" s="78"/>
-      <c r="N74" s="78"/>
-      <c r="O74" s="78"/>
-      <c r="P74" s="78"/>
-      <c r="Q74" s="78"/>
-      <c r="R74" s="78"/>
-      <c r="S74" s="78"/>
-      <c r="T74" s="78"/>
-      <c r="U74" s="78"/>
-      <c r="V74" s="78"/>
-      <c r="W74" s="78"/>
+      <c r="C74" s="50"/>
+      <c r="D74" s="50"/>
+      <c r="E74" s="50"/>
+      <c r="F74" s="50"/>
+      <c r="G74" s="50"/>
+      <c r="H74" s="50"/>
+      <c r="I74" s="50"/>
+      <c r="J74" s="50"/>
+      <c r="K74" s="50"/>
+      <c r="L74" s="50"/>
+      <c r="M74" s="50"/>
+      <c r="N74" s="50"/>
+      <c r="O74" s="50"/>
+      <c r="P74" s="50"/>
+      <c r="Q74" s="50"/>
+      <c r="R74" s="50"/>
+      <c r="S74" s="50"/>
+      <c r="T74" s="50"/>
+      <c r="U74" s="50"/>
+      <c r="V74" s="50"/>
+      <c r="W74" s="50"/>
     </row>
-    <row r="75" spans="1:23" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
-      <c r="C75" s="28"/>
-      <c r="D75" s="28"/>
-      <c r="E75" s="28"/>
-      <c r="F75" s="28"/>
-      <c r="G75" s="28"/>
-      <c r="H75" s="28"/>
-      <c r="I75" s="28"/>
-      <c r="J75" s="28"/>
-      <c r="K75" s="28"/>
-      <c r="L75" s="28"/>
-      <c r="M75" s="28"/>
-      <c r="N75" s="28"/>
-      <c r="O75" s="28"/>
-      <c r="P75" s="28"/>
-      <c r="Q75" s="28"/>
-      <c r="R75" s="28"/>
-      <c r="S75" s="28"/>
-      <c r="T75" s="28"/>
-      <c r="U75" s="28"/>
-      <c r="V75" s="28"/>
-      <c r="W75" s="28"/>
+      <c r="C75" s="17"/>
+      <c r="D75" s="17"/>
+      <c r="E75" s="17"/>
+      <c r="F75" s="17"/>
+      <c r="G75" s="17"/>
+      <c r="H75" s="17"/>
+      <c r="I75" s="17"/>
+      <c r="J75" s="17"/>
+      <c r="K75" s="17"/>
+      <c r="L75" s="17"/>
+      <c r="M75" s="17"/>
+      <c r="N75" s="17"/>
+      <c r="O75" s="17"/>
+      <c r="P75" s="17"/>
+      <c r="Q75" s="17"/>
+      <c r="R75" s="17"/>
+      <c r="S75" s="17"/>
+      <c r="T75" s="17"/>
+      <c r="U75" s="17"/>
+      <c r="V75" s="17"/>
+      <c r="W75" s="17"/>
     </row>
-    <row r="76" spans="1:23" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="11"/>
-      <c r="B76" s="11"/>
-      <c r="C76" s="22" t="s">
+    <row r="76" spans="1:23" s="101" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="92"/>
+      <c r="B76" s="92"/>
+      <c r="C76" s="93" t="s">
         <v>54</v>
       </c>
-      <c r="D76" s="23"/>
-      <c r="E76" s="23"/>
-      <c r="F76" s="23"/>
-      <c r="G76" s="23"/>
-      <c r="H76" s="23" t="s">
+      <c r="D76" s="94"/>
+      <c r="E76" s="94"/>
+      <c r="F76" s="94"/>
+      <c r="G76" s="94"/>
+      <c r="H76" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="I76" s="24">
+      <c r="I76" s="95">
         <f>W58+1</f>
         <v>11</v>
       </c>
-      <c r="J76" s="22" t="s">
+      <c r="J76" s="93" t="s">
         <v>54</v>
       </c>
-      <c r="K76" s="23"/>
-      <c r="L76" s="23"/>
-      <c r="M76" s="23"/>
-      <c r="N76" s="23"/>
-      <c r="O76" s="23" t="s">
+      <c r="K76" s="94"/>
+      <c r="L76" s="94"/>
+      <c r="M76" s="94"/>
+      <c r="N76" s="94"/>
+      <c r="O76" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="P76" s="24">
+      <c r="P76" s="95">
         <f>I76+1</f>
         <v>12</v>
       </c>
-      <c r="Q76" s="22" t="s">
+      <c r="Q76" s="93" t="s">
         <v>54</v>
       </c>
-      <c r="R76" s="23"/>
-      <c r="S76" s="23"/>
-      <c r="T76" s="23"/>
-      <c r="U76" s="23"/>
-      <c r="V76" s="23" t="s">
+      <c r="R76" s="94"/>
+      <c r="S76" s="94"/>
+      <c r="T76" s="94"/>
+      <c r="U76" s="94"/>
+      <c r="V76" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="W76" s="24">
+      <c r="W76" s="95">
         <f>P76+1</f>
         <v>13</v>
       </c>
     </row>
-    <row r="77" spans="1:23" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="11" t="s">
+    <row r="77" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="B77" s="11"/>
-      <c r="C77" s="30" t="s">
+      <c r="B77" s="60"/>
+      <c r="C77" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="D77" s="30" t="s">
+      <c r="D77" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="E77" s="30" t="s">
+      <c r="E77" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="F77" s="31" t="s">
+      <c r="F77" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="G77" s="31" t="s">
+      <c r="G77" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="H77" s="30" t="s">
+      <c r="H77" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="I77" s="30" t="s">
+      <c r="I77" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="J77" s="30" t="s">
+      <c r="J77" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="K77" s="30" t="s">
+      <c r="K77" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="L77" s="30" t="s">
+      <c r="L77" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="M77" s="31" t="s">
+      <c r="M77" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="N77" s="31" t="s">
+      <c r="N77" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="O77" s="30" t="s">
+      <c r="O77" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="P77" s="30" t="s">
+      <c r="P77" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="Q77" s="30" t="s">
+      <c r="Q77" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="R77" s="30" t="s">
+      <c r="R77" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="S77" s="30" t="s">
+      <c r="S77" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="T77" s="31" t="s">
+      <c r="T77" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="U77" s="31" t="s">
+      <c r="U77" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="V77" s="30" t="s">
+      <c r="V77" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="W77" s="30" t="s">
+      <c r="W77" s="19" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="78" spans="1:23" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="14" t="s">
+    <row r="78" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="B78" s="14"/>
-      <c r="C78" s="35">
+      <c r="B78" s="61"/>
+      <c r="C78" s="24">
         <f>W60+1</f>
         <v>9</v>
       </c>
-      <c r="D78" s="35">
+      <c r="D78" s="24">
         <f t="shared" ref="D78:W78" si="4">+C78+1</f>
         <v>10</v>
       </c>
-      <c r="E78" s="35">
+      <c r="E78" s="24">
         <f t="shared" si="4"/>
         <v>11</v>
       </c>
-      <c r="F78" s="35">
+      <c r="F78" s="24">
         <f t="shared" si="4"/>
         <v>12</v>
       </c>
-      <c r="G78" s="35">
+      <c r="G78" s="24">
         <f t="shared" si="4"/>
         <v>13</v>
       </c>
-      <c r="H78" s="35">
+      <c r="H78" s="24">
         <f t="shared" si="4"/>
         <v>14</v>
       </c>
-      <c r="I78" s="35">
+      <c r="I78" s="24">
         <f t="shared" si="4"/>
         <v>15</v>
       </c>
-      <c r="J78" s="35">
+      <c r="J78" s="24">
         <f t="shared" si="4"/>
         <v>16</v>
       </c>
-      <c r="K78" s="35">
+      <c r="K78" s="24">
         <f t="shared" si="4"/>
         <v>17</v>
       </c>
-      <c r="L78" s="35">
+      <c r="L78" s="24">
         <f t="shared" si="4"/>
         <v>18</v>
       </c>
-      <c r="M78" s="35">
+      <c r="M78" s="24">
         <f t="shared" si="4"/>
         <v>19</v>
       </c>
-      <c r="N78" s="35">
+      <c r="N78" s="24">
         <f t="shared" si="4"/>
         <v>20</v>
       </c>
-      <c r="O78" s="35">
+      <c r="O78" s="24">
         <f t="shared" si="4"/>
         <v>21</v>
       </c>
-      <c r="P78" s="35">
+      <c r="P78" s="24">
         <f t="shared" si="4"/>
         <v>22</v>
       </c>
-      <c r="Q78" s="35">
+      <c r="Q78" s="24">
         <f t="shared" si="4"/>
         <v>23</v>
       </c>
-      <c r="R78" s="35">
+      <c r="R78" s="24">
         <f t="shared" si="4"/>
         <v>24</v>
       </c>
-      <c r="S78" s="35">
+      <c r="S78" s="24">
         <f t="shared" si="4"/>
         <v>25</v>
       </c>
-      <c r="T78" s="35">
+      <c r="T78" s="24">
         <f t="shared" si="4"/>
         <v>26</v>
       </c>
-      <c r="U78" s="35">
+      <c r="U78" s="24">
         <f t="shared" si="4"/>
         <v>27</v>
       </c>
-      <c r="V78" s="35">
+      <c r="V78" s="24">
         <f t="shared" si="4"/>
         <v>28</v>
       </c>
-      <c r="W78" s="35">
+      <c r="W78" s="24">
         <f t="shared" si="4"/>
         <v>29</v>
       </c>
     </row>
-    <row r="79" spans="1:23" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="12" t="s">
+    <row r="79" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="B79" s="20" t="s">
+      <c r="B79" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C79" s="39" t="s">
+      <c r="C79" s="71" t="s">
         <v>58</v>
       </c>
-      <c r="D79" s="40"/>
-      <c r="E79" s="40"/>
-      <c r="F79" s="41"/>
-      <c r="G79" s="65" t="s">
+      <c r="D79" s="72"/>
+      <c r="E79" s="72"/>
+      <c r="F79" s="73"/>
+      <c r="G79" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="H79" s="65" t="s">
+      <c r="H79" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="I79" s="65" t="s">
+      <c r="I79" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="J79" s="39" t="s">
+      <c r="J79" s="71" t="s">
         <v>58</v>
       </c>
-      <c r="K79" s="40"/>
-      <c r="L79" s="40"/>
-      <c r="M79" s="41"/>
-      <c r="N79" s="61" t="s">
+      <c r="K79" s="72"/>
+      <c r="L79" s="72"/>
+      <c r="M79" s="73"/>
+      <c r="N79" s="74" t="s">
         <v>59</v>
       </c>
-      <c r="O79" s="62"/>
-      <c r="P79" s="63"/>
-      <c r="Q79" s="86" t="s">
+      <c r="O79" s="75"/>
+      <c r="P79" s="76"/>
+      <c r="Q79" s="85" t="s">
         <v>58</v>
       </c>
-      <c r="R79" s="87"/>
-      <c r="S79" s="87"/>
-      <c r="T79" s="88"/>
-      <c r="U79" s="61" t="s">
+      <c r="R79" s="86"/>
+      <c r="S79" s="86"/>
+      <c r="T79" s="87"/>
+      <c r="U79" s="74" t="s">
         <v>59</v>
       </c>
-      <c r="V79" s="62"/>
-      <c r="W79" s="63"/>
+      <c r="V79" s="75"/>
+      <c r="W79" s="76"/>
     </row>
-    <row r="80" spans="1:23" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="17"/>
-      <c r="B80" s="20" t="s">
+    <row r="80" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="63"/>
+      <c r="B80" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C80" s="44" t="s">
+      <c r="C80" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="D80" s="35" t="s">
+      <c r="D80" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="E80" s="44" t="s">
+      <c r="E80" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="F80" s="35" t="s">
+      <c r="F80" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="G80" s="35" t="s">
+      <c r="G80" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="H80" s="35" t="s">
+      <c r="H80" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="I80" s="35" t="s">
+      <c r="I80" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="J80" s="35" t="s">
+      <c r="J80" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="K80" s="35" t="s">
+      <c r="K80" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="L80" s="35" t="s">
+      <c r="L80" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="M80" s="35" t="s">
+      <c r="M80" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="N80" s="35" t="s">
+      <c r="N80" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="O80" s="35" t="s">
+      <c r="O80" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="P80" s="35" t="s">
+      <c r="P80" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="Q80" s="35" t="s">
+      <c r="Q80" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="R80" s="35" t="s">
+      <c r="R80" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="S80" s="35" t="s">
+      <c r="S80" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="T80" s="35" t="s">
+      <c r="T80" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="U80" s="35" t="s">
+      <c r="U80" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="V80" s="35" t="s">
+      <c r="V80" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="W80" s="35" t="s">
+      <c r="W80" s="24" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="81" spans="1:23" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="17"/>
-      <c r="B81" s="20" t="s">
+    <row r="81" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="63"/>
+      <c r="B81" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C81" s="48" t="s">
+      <c r="C81" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="D81" s="49"/>
-      <c r="E81" s="49"/>
-      <c r="F81" s="50"/>
-      <c r="G81" s="58" t="s">
+      <c r="D81" s="66"/>
+      <c r="E81" s="66"/>
+      <c r="F81" s="67"/>
+      <c r="G81" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="H81" s="58" t="s">
+      <c r="H81" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="I81" s="58" t="s">
+      <c r="I81" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="J81" s="48" t="s">
+      <c r="J81" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="K81" s="49"/>
-      <c r="L81" s="49"/>
-      <c r="M81" s="50"/>
-      <c r="N81" s="37" t="s">
+      <c r="K81" s="66"/>
+      <c r="L81" s="66"/>
+      <c r="M81" s="67"/>
+      <c r="N81" s="80" t="s">
         <v>57</v>
       </c>
-      <c r="O81" s="57"/>
-      <c r="P81" s="38"/>
-      <c r="Q81" s="89" t="s">
+      <c r="O81" s="81"/>
+      <c r="P81" s="82"/>
+      <c r="Q81" s="88" t="s">
         <v>56</v>
       </c>
-      <c r="R81" s="90"/>
-      <c r="S81" s="90"/>
-      <c r="T81" s="91"/>
-      <c r="U81" s="37" t="s">
+      <c r="R81" s="89"/>
+      <c r="S81" s="89"/>
+      <c r="T81" s="90"/>
+      <c r="U81" s="80" t="s">
         <v>57</v>
       </c>
-      <c r="V81" s="57"/>
-      <c r="W81" s="38"/>
+      <c r="V81" s="81"/>
+      <c r="W81" s="82"/>
     </row>
-    <row r="82" spans="1:23" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="13"/>
+    <row r="82" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="64"/>
       <c r="B82" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C82" s="44" t="s">
+      <c r="C82" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="D82" s="35" t="s">
+      <c r="D82" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="E82" s="44" t="s">
+      <c r="E82" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="F82" s="35" t="s">
+      <c r="F82" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="G82" s="35" t="s">
+      <c r="G82" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="H82" s="35" t="s">
+      <c r="H82" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="I82" s="35" t="s">
+      <c r="I82" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="J82" s="35" t="s">
+      <c r="J82" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="K82" s="35" t="s">
+      <c r="K82" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="L82" s="35" t="s">
+      <c r="L82" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="M82" s="35" t="s">
+      <c r="M82" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="N82" s="35" t="s">
+      <c r="N82" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="O82" s="35" t="s">
+      <c r="O82" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="P82" s="35" t="s">
+      <c r="P82" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="Q82" s="35" t="s">
+      <c r="Q82" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="R82" s="35" t="s">
+      <c r="R82" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="S82" s="35" t="s">
+      <c r="S82" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="T82" s="35" t="s">
+      <c r="T82" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="U82" s="35" t="s">
+      <c r="U82" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="V82" s="35" t="s">
+      <c r="V82" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="W82" s="35" t="s">
+      <c r="W82" s="24" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="83" spans="1:23" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="12" t="s">
+    <row r="83" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="B83" s="20" t="s">
+      <c r="B83" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C83" s="39" t="s">
+      <c r="C83" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="D83" s="40"/>
-      <c r="E83" s="40"/>
-      <c r="F83" s="41"/>
-      <c r="G83" s="68" t="s">
+      <c r="D83" s="72"/>
+      <c r="E83" s="72"/>
+      <c r="F83" s="73"/>
+      <c r="G83" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="H83" s="68" t="s">
+      <c r="H83" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="I83" s="68" t="s">
+      <c r="I83" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="J83" s="39" t="s">
+      <c r="J83" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="K83" s="40"/>
-      <c r="L83" s="40"/>
-      <c r="M83" s="41"/>
-      <c r="N83" s="61" t="s">
+      <c r="K83" s="72"/>
+      <c r="L83" s="72"/>
+      <c r="M83" s="73"/>
+      <c r="N83" s="74" t="s">
         <v>24</v>
       </c>
-      <c r="O83" s="62"/>
-      <c r="P83" s="63"/>
-      <c r="Q83" s="39" t="s">
+      <c r="O83" s="75"/>
+      <c r="P83" s="76"/>
+      <c r="Q83" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="R83" s="40"/>
-      <c r="S83" s="40"/>
-      <c r="T83" s="41"/>
-      <c r="U83" s="61" t="s">
+      <c r="R83" s="72"/>
+      <c r="S83" s="72"/>
+      <c r="T83" s="73"/>
+      <c r="U83" s="74" t="s">
         <v>24</v>
       </c>
-      <c r="V83" s="62"/>
-      <c r="W83" s="63"/>
+      <c r="V83" s="75"/>
+      <c r="W83" s="76"/>
     </row>
-    <row r="84" spans="1:23" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="13"/>
-      <c r="B84" s="20" t="s">
+    <row r="84" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="64"/>
+      <c r="B84" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C84" s="48" t="s">
+      <c r="C84" s="65" t="s">
         <v>25</v>
       </c>
-      <c r="D84" s="49"/>
-      <c r="E84" s="49"/>
-      <c r="F84" s="50"/>
-      <c r="G84" s="58" t="s">
+      <c r="D84" s="66"/>
+      <c r="E84" s="66"/>
+      <c r="F84" s="67"/>
+      <c r="G84" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="H84" s="58" t="s">
+      <c r="H84" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="I84" s="58" t="s">
+      <c r="I84" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="J84" s="48" t="s">
+      <c r="J84" s="65" t="s">
         <v>25</v>
       </c>
-      <c r="K84" s="49"/>
-      <c r="L84" s="49"/>
-      <c r="M84" s="50"/>
-      <c r="N84" s="37" t="s">
+      <c r="K84" s="66"/>
+      <c r="L84" s="66"/>
+      <c r="M84" s="67"/>
+      <c r="N84" s="80" t="s">
         <v>22</v>
       </c>
-      <c r="O84" s="57"/>
-      <c r="P84" s="38"/>
-      <c r="Q84" s="48" t="s">
+      <c r="O84" s="81"/>
+      <c r="P84" s="82"/>
+      <c r="Q84" s="65" t="s">
         <v>25</v>
       </c>
-      <c r="R84" s="49"/>
-      <c r="S84" s="49"/>
-      <c r="T84" s="50"/>
-      <c r="U84" s="37" t="s">
+      <c r="R84" s="66"/>
+      <c r="S84" s="66"/>
+      <c r="T84" s="67"/>
+      <c r="U84" s="80" t="s">
         <v>22</v>
       </c>
-      <c r="V84" s="57"/>
-      <c r="W84" s="38"/>
+      <c r="V84" s="81"/>
+      <c r="W84" s="82"/>
     </row>
-    <row r="85" spans="1:23" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="15" t="s">
+    <row r="85" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="B85" s="20" t="s">
+      <c r="B85" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C85" s="39" t="s">
+      <c r="C85" s="71" t="s">
         <v>29</v>
       </c>
-      <c r="D85" s="40"/>
-      <c r="E85" s="40"/>
-      <c r="F85" s="32" t="s">
+      <c r="D85" s="72"/>
+      <c r="E85" s="72"/>
+      <c r="F85" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="G85" s="69" t="s">
+      <c r="G85" s="83" t="s">
         <v>30</v>
       </c>
-      <c r="H85" s="69"/>
-      <c r="I85" s="69"/>
-      <c r="J85" s="39" t="s">
+      <c r="H85" s="83"/>
+      <c r="I85" s="83"/>
+      <c r="J85" s="71" t="s">
         <v>29</v>
       </c>
-      <c r="K85" s="40"/>
-      <c r="L85" s="40"/>
-      <c r="M85" s="32" t="s">
+      <c r="K85" s="72"/>
+      <c r="L85" s="72"/>
+      <c r="M85" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="N85" s="69" t="s">
+      <c r="N85" s="83" t="s">
         <v>30</v>
       </c>
-      <c r="O85" s="69"/>
-      <c r="P85" s="69"/>
-      <c r="Q85" s="39" t="s">
+      <c r="O85" s="83"/>
+      <c r="P85" s="83"/>
+      <c r="Q85" s="71" t="s">
         <v>29</v>
       </c>
-      <c r="R85" s="40"/>
-      <c r="S85" s="40"/>
-      <c r="T85" s="32" t="s">
+      <c r="R85" s="72"/>
+      <c r="S85" s="72"/>
+      <c r="T85" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="U85" s="69" t="s">
+      <c r="U85" s="83" t="s">
         <v>30</v>
       </c>
-      <c r="V85" s="69"/>
-      <c r="W85" s="69"/>
+      <c r="V85" s="83"/>
+      <c r="W85" s="83"/>
     </row>
-    <row r="86" spans="1:23" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="16"/>
-      <c r="B86" s="20" t="s">
+    <row r="86" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="69"/>
+      <c r="B86" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C86" s="48" t="s">
+      <c r="C86" s="65" t="s">
         <v>32</v>
       </c>
-      <c r="D86" s="49"/>
-      <c r="E86" s="49"/>
-      <c r="F86" s="26" t="s">
+      <c r="D86" s="66"/>
+      <c r="E86" s="66"/>
+      <c r="F86" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="G86" s="70" t="s">
+      <c r="G86" s="84" t="s">
         <v>27</v>
       </c>
-      <c r="H86" s="70"/>
-      <c r="I86" s="70"/>
-      <c r="J86" s="48" t="s">
+      <c r="H86" s="84"/>
+      <c r="I86" s="84"/>
+      <c r="J86" s="65" t="s">
         <v>32</v>
       </c>
-      <c r="K86" s="49"/>
-      <c r="L86" s="49"/>
-      <c r="M86" s="26" t="s">
+      <c r="K86" s="66"/>
+      <c r="L86" s="66"/>
+      <c r="M86" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="N86" s="70" t="s">
+      <c r="N86" s="84" t="s">
         <v>27</v>
       </c>
-      <c r="O86" s="70"/>
-      <c r="P86" s="70"/>
-      <c r="Q86" s="48" t="s">
+      <c r="O86" s="84"/>
+      <c r="P86" s="84"/>
+      <c r="Q86" s="65" t="s">
         <v>32</v>
       </c>
-      <c r="R86" s="49"/>
-      <c r="S86" s="49"/>
-      <c r="T86" s="26" t="s">
+      <c r="R86" s="66"/>
+      <c r="S86" s="66"/>
+      <c r="T86" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="U86" s="70" t="s">
+      <c r="U86" s="84" t="s">
         <v>27</v>
       </c>
-      <c r="V86" s="70"/>
-      <c r="W86" s="70"/>
+      <c r="V86" s="84"/>
+      <c r="W86" s="84"/>
     </row>
-    <row r="87" spans="1:23" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
         <v>33</v>
       </c>
       <c r="B87" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C87" s="48" t="s">
+      <c r="C87" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="D87" s="49"/>
-      <c r="E87" s="50"/>
-      <c r="F87" s="26" t="s">
+      <c r="D87" s="66"/>
+      <c r="E87" s="67"/>
+      <c r="F87" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="G87" s="70" t="s">
+      <c r="G87" s="84" t="s">
         <v>34</v>
       </c>
-      <c r="H87" s="70"/>
-      <c r="I87" s="70"/>
-      <c r="J87" s="48" t="s">
+      <c r="H87" s="84"/>
+      <c r="I87" s="84"/>
+      <c r="J87" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="K87" s="49"/>
-      <c r="L87" s="50"/>
-      <c r="M87" s="26" t="s">
+      <c r="K87" s="66"/>
+      <c r="L87" s="67"/>
+      <c r="M87" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="N87" s="70" t="s">
+      <c r="N87" s="84" t="s">
         <v>34</v>
       </c>
-      <c r="O87" s="70"/>
-      <c r="P87" s="70"/>
-      <c r="Q87" s="48" t="s">
+      <c r="O87" s="84"/>
+      <c r="P87" s="84"/>
+      <c r="Q87" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="R87" s="49"/>
-      <c r="S87" s="50"/>
-      <c r="T87" s="26" t="s">
+      <c r="R87" s="66"/>
+      <c r="S87" s="67"/>
+      <c r="T87" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="U87" s="70" t="s">
+      <c r="U87" s="84" t="s">
         <v>34</v>
       </c>
-      <c r="V87" s="70"/>
-      <c r="W87" s="70"/>
+      <c r="V87" s="84"/>
+      <c r="W87" s="84"/>
     </row>
-    <row r="88" spans="1:23" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="s">
         <v>37</v>
       </c>
       <c r="B88" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C88" s="92" t="s">
+      <c r="C88" s="91" t="s">
         <v>39</v>
       </c>
-      <c r="D88" s="92"/>
-      <c r="E88" s="92"/>
-      <c r="F88" s="92"/>
-      <c r="G88" s="27" t="s">
+      <c r="D88" s="91"/>
+      <c r="E88" s="91"/>
+      <c r="F88" s="91"/>
+      <c r="G88" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="H88" s="27" t="s">
+      <c r="H88" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="I88" s="27" t="s">
+      <c r="I88" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="J88" s="92" t="s">
+      <c r="J88" s="91" t="s">
         <v>39</v>
       </c>
-      <c r="K88" s="92"/>
-      <c r="L88" s="92"/>
-      <c r="M88" s="92"/>
-      <c r="N88" s="70" t="s">
+      <c r="K88" s="91"/>
+      <c r="L88" s="91"/>
+      <c r="M88" s="91"/>
+      <c r="N88" s="84" t="s">
         <v>38</v>
       </c>
-      <c r="O88" s="70"/>
-      <c r="P88" s="70"/>
-      <c r="Q88" s="92" t="s">
+      <c r="O88" s="84"/>
+      <c r="P88" s="84"/>
+      <c r="Q88" s="91" t="s">
         <v>39</v>
       </c>
-      <c r="R88" s="92"/>
-      <c r="S88" s="92"/>
-      <c r="T88" s="92"/>
-      <c r="U88" s="70" t="s">
+      <c r="R88" s="91"/>
+      <c r="S88" s="91"/>
+      <c r="T88" s="91"/>
+      <c r="U88" s="84" t="s">
         <v>38</v>
       </c>
-      <c r="V88" s="70"/>
-      <c r="W88" s="70"/>
+      <c r="V88" s="84"/>
+      <c r="W88" s="84"/>
     </row>
-    <row r="89" spans="1:23" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="10" t="s">
+    <row r="89" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="59" t="s">
         <v>40</v>
       </c>
       <c r="B89" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C89" s="55" t="s">
+      <c r="C89" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="D89" s="32" t="s">
+      <c r="D89" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="E89" s="32" t="s">
+      <c r="E89" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="F89" s="32" t="s">
+      <c r="F89" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="G89" s="32" t="s">
+      <c r="G89" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="H89" s="55" t="s">
+      <c r="H89" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="I89" s="55" t="s">
+      <c r="I89" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="J89" s="55" t="s">
+      <c r="J89" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="K89" s="32" t="s">
+      <c r="K89" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="L89" s="32" t="s">
+      <c r="L89" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="M89" s="32" t="s">
+      <c r="M89" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="N89" s="32" t="s">
+      <c r="N89" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="O89" s="55" t="s">
+      <c r="O89" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="P89" s="55" t="s">
+      <c r="P89" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="Q89" s="55" t="s">
+      <c r="Q89" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="R89" s="32" t="s">
+      <c r="R89" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="S89" s="32" t="s">
+      <c r="S89" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="T89" s="32" t="s">
+      <c r="T89" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="U89" s="32" t="s">
+      <c r="U89" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="V89" s="55" t="s">
+      <c r="V89" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="W89" s="55" t="s">
+      <c r="W89" s="38" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="90" spans="1:23" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="10"/>
+    <row r="90" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="59"/>
       <c r="B90" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C90" s="55" t="s">
+      <c r="C90" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="D90" s="55" t="s">
+      <c r="D90" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="E90" s="33" t="s">
+      <c r="E90" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="F90" s="33" t="s">
+      <c r="F90" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="G90" s="33" t="s">
+      <c r="G90" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="H90" s="33" t="s">
+      <c r="H90" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="I90" s="55" t="s">
+      <c r="I90" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="J90" s="55" t="s">
+      <c r="J90" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="K90" s="55" t="s">
+      <c r="K90" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="L90" s="33" t="s">
+      <c r="L90" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="M90" s="33" t="s">
+      <c r="M90" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="N90" s="33" t="s">
+      <c r="N90" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="O90" s="33" t="s">
+      <c r="O90" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="P90" s="55" t="s">
+      <c r="P90" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="Q90" s="55" t="s">
+      <c r="Q90" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="R90" s="55" t="s">
+      <c r="R90" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="S90" s="33" t="s">
+      <c r="S90" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="T90" s="33" t="s">
+      <c r="T90" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="U90" s="33" t="s">
+      <c r="U90" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="V90" s="33" t="s">
+      <c r="V90" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="W90" s="55" t="s">
+      <c r="W90" s="38" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="124" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F124"/>
+    <row r="91" spans="1:23" ht="33" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="92" spans="1:23" ht="33" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="93" spans="1:23" ht="33" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="94" spans="1:23" ht="33" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="95" spans="1:23" ht="33" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="96" spans="1:23" ht="33" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="97" ht="33" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="98" ht="33" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="99" ht="33" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="100" ht="33" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="101" ht="33" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="102" ht="33" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="103" ht="33" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="104" ht="72" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="105" ht="72" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="106" ht="72" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="107" ht="72" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="108" ht="72" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="109" ht="72" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="110" ht="33" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="111" ht="33" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="123" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F123"/>
     </row>
   </sheetData>
   <mergeCells count="200">
+    <mergeCell ref="Q67:S67"/>
+    <mergeCell ref="Q68:S68"/>
+    <mergeCell ref="Q69:S69"/>
+    <mergeCell ref="C83:F83"/>
+    <mergeCell ref="C84:F84"/>
+    <mergeCell ref="J83:M83"/>
+    <mergeCell ref="Q70:T70"/>
+    <mergeCell ref="J67:L67"/>
+    <mergeCell ref="J68:L68"/>
+    <mergeCell ref="J69:L69"/>
+    <mergeCell ref="N83:P83"/>
+    <mergeCell ref="Q83:T83"/>
+    <mergeCell ref="N69:P69"/>
+    <mergeCell ref="J65:M65"/>
+    <mergeCell ref="J66:M66"/>
+    <mergeCell ref="G68:I68"/>
+    <mergeCell ref="G69:I69"/>
+    <mergeCell ref="G70:I70"/>
+    <mergeCell ref="C65:F65"/>
+    <mergeCell ref="C66:F66"/>
+    <mergeCell ref="C67:E67"/>
+    <mergeCell ref="C68:E68"/>
+    <mergeCell ref="C69:E69"/>
+    <mergeCell ref="J70:M70"/>
+    <mergeCell ref="C70:F70"/>
+    <mergeCell ref="Q66:T66"/>
+    <mergeCell ref="N31:P31"/>
+    <mergeCell ref="N32:P32"/>
+    <mergeCell ref="N33:P33"/>
+    <mergeCell ref="N34:P34"/>
+    <mergeCell ref="U43:W43"/>
+    <mergeCell ref="U45:W45"/>
+    <mergeCell ref="Q52:T52"/>
+    <mergeCell ref="U49:W49"/>
+    <mergeCell ref="N50:P50"/>
+    <mergeCell ref="Q50:S50"/>
+    <mergeCell ref="U50:W50"/>
+    <mergeCell ref="N51:P51"/>
+    <mergeCell ref="Q51:S51"/>
+    <mergeCell ref="U51:W51"/>
+    <mergeCell ref="O48:P48"/>
+    <mergeCell ref="N49:P49"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="C63:F63"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="D52:F52"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="D48:F48"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="U86:W86"/>
+    <mergeCell ref="J87:L87"/>
+    <mergeCell ref="Q87:S87"/>
+    <mergeCell ref="U87:W87"/>
+    <mergeCell ref="N88:P88"/>
+    <mergeCell ref="Q88:T88"/>
+    <mergeCell ref="U88:W88"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="G85:I85"/>
+    <mergeCell ref="J85:L85"/>
+    <mergeCell ref="N85:P85"/>
+    <mergeCell ref="Q85:S85"/>
+    <mergeCell ref="U85:W85"/>
+    <mergeCell ref="G86:I86"/>
+    <mergeCell ref="J86:L86"/>
+    <mergeCell ref="N86:P86"/>
+    <mergeCell ref="Q86:S86"/>
+    <mergeCell ref="G87:I87"/>
+    <mergeCell ref="N87:P87"/>
+    <mergeCell ref="C85:E85"/>
+    <mergeCell ref="C86:E86"/>
+    <mergeCell ref="C87:E87"/>
+    <mergeCell ref="J88:M88"/>
+    <mergeCell ref="C88:F88"/>
+    <mergeCell ref="U83:W83"/>
+    <mergeCell ref="J84:M84"/>
+    <mergeCell ref="N84:P84"/>
+    <mergeCell ref="Q84:T84"/>
+    <mergeCell ref="U84:W84"/>
+    <mergeCell ref="C79:F79"/>
+    <mergeCell ref="J79:M79"/>
+    <mergeCell ref="N79:P79"/>
+    <mergeCell ref="Q79:T79"/>
+    <mergeCell ref="U79:W79"/>
+    <mergeCell ref="C81:F81"/>
+    <mergeCell ref="J81:M81"/>
+    <mergeCell ref="N81:P81"/>
+    <mergeCell ref="Q81:T81"/>
+    <mergeCell ref="U81:W81"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="D47:F47"/>
+    <mergeCell ref="O47:P47"/>
+    <mergeCell ref="U69:W69"/>
+    <mergeCell ref="U70:W70"/>
+    <mergeCell ref="N70:P70"/>
+    <mergeCell ref="N67:P67"/>
+    <mergeCell ref="N68:P68"/>
+    <mergeCell ref="U67:W67"/>
+    <mergeCell ref="U68:W68"/>
+    <mergeCell ref="G67:I67"/>
+    <mergeCell ref="J61:M61"/>
+    <mergeCell ref="Q61:T61"/>
+    <mergeCell ref="J63:M63"/>
+    <mergeCell ref="Q63:T63"/>
+    <mergeCell ref="G65:I65"/>
+    <mergeCell ref="G66:I66"/>
+    <mergeCell ref="U61:W61"/>
+    <mergeCell ref="U63:W63"/>
+    <mergeCell ref="N65:P65"/>
+    <mergeCell ref="N66:P66"/>
+    <mergeCell ref="U65:W65"/>
+    <mergeCell ref="U66:W66"/>
+    <mergeCell ref="Q65:T65"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:L33"/>
+    <mergeCell ref="Q33:S33"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="Q49:S49"/>
+    <mergeCell ref="Q47:T47"/>
+    <mergeCell ref="Q48:T48"/>
+    <mergeCell ref="O43:P43"/>
+    <mergeCell ref="D45:F45"/>
+    <mergeCell ref="O45:P45"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="J34:M34"/>
+    <mergeCell ref="Q34:T34"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="Q31:S31"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="Q32:S32"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="Q29:S29"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="Q30:S30"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="N29:P29"/>
+    <mergeCell ref="N30:P30"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="Q25:T25"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:M27"/>
+    <mergeCell ref="N27:P27"/>
+    <mergeCell ref="Q27:T27"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:A28"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:M25"/>
+    <mergeCell ref="N25:P25"/>
     <mergeCell ref="A71:A72"/>
     <mergeCell ref="A77:B77"/>
     <mergeCell ref="A78:B78"/>
@@ -18992,215 +19265,39 @@
     <mergeCell ref="A43:A46"/>
     <mergeCell ref="D43:F43"/>
     <mergeCell ref="C33:E33"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="Q25:T25"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:M27"/>
-    <mergeCell ref="N27:P27"/>
-    <mergeCell ref="Q27:T27"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:A28"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:M25"/>
-    <mergeCell ref="N25:P25"/>
-    <mergeCell ref="J31:L31"/>
-    <mergeCell ref="Q31:S31"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:L32"/>
-    <mergeCell ref="Q32:S32"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="J29:L29"/>
-    <mergeCell ref="Q29:S29"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="Q30:S30"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="N29:P29"/>
-    <mergeCell ref="N30:P30"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:L33"/>
-    <mergeCell ref="Q33:S33"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="Q49:S49"/>
-    <mergeCell ref="Q47:T47"/>
-    <mergeCell ref="Q48:T48"/>
-    <mergeCell ref="O43:P43"/>
-    <mergeCell ref="D45:F45"/>
-    <mergeCell ref="O45:P45"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="J34:M34"/>
-    <mergeCell ref="Q34:T34"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="D47:F47"/>
-    <mergeCell ref="O47:P47"/>
-    <mergeCell ref="U69:W69"/>
-    <mergeCell ref="U70:W70"/>
-    <mergeCell ref="N70:P70"/>
-    <mergeCell ref="N67:P67"/>
-    <mergeCell ref="N68:P68"/>
-    <mergeCell ref="U67:W67"/>
-    <mergeCell ref="U68:W68"/>
-    <mergeCell ref="G67:I67"/>
-    <mergeCell ref="J61:M61"/>
-    <mergeCell ref="Q61:T61"/>
-    <mergeCell ref="J63:M63"/>
-    <mergeCell ref="Q63:T63"/>
-    <mergeCell ref="G65:I65"/>
-    <mergeCell ref="G66:I66"/>
-    <mergeCell ref="U61:W61"/>
-    <mergeCell ref="U63:W63"/>
-    <mergeCell ref="N65:P65"/>
-    <mergeCell ref="N66:P66"/>
-    <mergeCell ref="U65:W65"/>
-    <mergeCell ref="U66:W66"/>
-    <mergeCell ref="Q65:T65"/>
-    <mergeCell ref="U83:W83"/>
-    <mergeCell ref="J84:M84"/>
-    <mergeCell ref="N84:P84"/>
-    <mergeCell ref="Q84:T84"/>
-    <mergeCell ref="U84:W84"/>
-    <mergeCell ref="C79:F79"/>
-    <mergeCell ref="J79:M79"/>
-    <mergeCell ref="N79:P79"/>
-    <mergeCell ref="Q79:T79"/>
-    <mergeCell ref="U79:W79"/>
-    <mergeCell ref="C81:F81"/>
-    <mergeCell ref="J81:M81"/>
-    <mergeCell ref="N81:P81"/>
-    <mergeCell ref="Q81:T81"/>
-    <mergeCell ref="U81:W81"/>
-    <mergeCell ref="U86:W86"/>
-    <mergeCell ref="J87:L87"/>
-    <mergeCell ref="Q87:S87"/>
-    <mergeCell ref="U87:W87"/>
-    <mergeCell ref="N88:P88"/>
-    <mergeCell ref="Q88:T88"/>
-    <mergeCell ref="U88:W88"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="G85:I85"/>
-    <mergeCell ref="J85:L85"/>
-    <mergeCell ref="N85:P85"/>
-    <mergeCell ref="Q85:S85"/>
-    <mergeCell ref="U85:W85"/>
-    <mergeCell ref="G86:I86"/>
-    <mergeCell ref="J86:L86"/>
-    <mergeCell ref="N86:P86"/>
-    <mergeCell ref="Q86:S86"/>
-    <mergeCell ref="G87:I87"/>
-    <mergeCell ref="N87:P87"/>
-    <mergeCell ref="C85:E85"/>
-    <mergeCell ref="C86:E86"/>
-    <mergeCell ref="C87:E87"/>
-    <mergeCell ref="J88:M88"/>
-    <mergeCell ref="C88:F88"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="C63:F63"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="D52:F52"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="D48:F48"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="Q66:T66"/>
-    <mergeCell ref="N31:P31"/>
-    <mergeCell ref="N32:P32"/>
-    <mergeCell ref="N33:P33"/>
-    <mergeCell ref="N34:P34"/>
-    <mergeCell ref="U43:W43"/>
-    <mergeCell ref="U45:W45"/>
-    <mergeCell ref="Q52:T52"/>
-    <mergeCell ref="U49:W49"/>
-    <mergeCell ref="N50:P50"/>
-    <mergeCell ref="Q50:S50"/>
-    <mergeCell ref="U50:W50"/>
-    <mergeCell ref="N51:P51"/>
-    <mergeCell ref="Q51:S51"/>
-    <mergeCell ref="U51:W51"/>
-    <mergeCell ref="O48:P48"/>
-    <mergeCell ref="N49:P49"/>
-    <mergeCell ref="J65:M65"/>
-    <mergeCell ref="J66:M66"/>
-    <mergeCell ref="G68:I68"/>
-    <mergeCell ref="G69:I69"/>
-    <mergeCell ref="G70:I70"/>
-    <mergeCell ref="C65:F65"/>
-    <mergeCell ref="C66:F66"/>
-    <mergeCell ref="C67:E67"/>
-    <mergeCell ref="C68:E68"/>
-    <mergeCell ref="C69:E69"/>
-    <mergeCell ref="J70:M70"/>
-    <mergeCell ref="C70:F70"/>
-    <mergeCell ref="Q67:S67"/>
-    <mergeCell ref="Q68:S68"/>
-    <mergeCell ref="Q69:S69"/>
-    <mergeCell ref="C83:F83"/>
-    <mergeCell ref="C84:F84"/>
-    <mergeCell ref="J83:M83"/>
-    <mergeCell ref="Q70:T70"/>
-    <mergeCell ref="J67:L67"/>
-    <mergeCell ref="J68:L68"/>
-    <mergeCell ref="J69:L69"/>
-    <mergeCell ref="N83:P83"/>
-    <mergeCell ref="Q83:T83"/>
-    <mergeCell ref="N69:P69"/>
   </mergeCells>
+  <conditionalFormatting sqref="A2 A4:A6">
+    <cfRule type="cellIs" dxfId="1596" priority="1041" operator="equal">
+      <formula>"B"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1595" priority="1044" operator="equal">
+      <formula>"D"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1594" priority="1050" operator="equal">
+      <formula>"A"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="cellIs" dxfId="1596" priority="1042" operator="equal">
-      <formula>"B"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1595" priority="1043" operator="equal">
-      <formula>"B"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1594" priority="1045" operator="equal">
-      <formula>"C"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1593" priority="1046" operator="equal">
-      <formula>"C"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1592" priority="1047" operator="equal">
-      <formula>"C"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1591" priority="1048" operator="equal">
-      <formula>"B"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1590" priority="1049" operator="equal">
-      <formula>"B"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A4:A6 A2">
-    <cfRule type="cellIs" dxfId="1589" priority="1041" operator="equal">
-      <formula>"B"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1588" priority="1044" operator="equal">
-      <formula>"D"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1587" priority="1050" operator="equal">
-      <formula>"A"</formula>
+    <cfRule type="cellIs" dxfId="1593" priority="1042" operator="equal">
+      <formula>"B"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1592" priority="1043" operator="equal">
+      <formula>"B"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1591" priority="1045" operator="equal">
+      <formula>"C"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1590" priority="1046" operator="equal">
+      <formula>"C"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1589" priority="1047" operator="equal">
+      <formula>"C"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1588" priority="1048" operator="equal">
+      <formula>"B"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1587" priority="1049" operator="equal">
+      <formula>"B"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:A6">
@@ -24378,8 +24475,8 @@
       <formula>"B"</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.25" right="0.25" top="0.5" bottom="0.5" header="0" footer="0"/>
-  <pageSetup scale="16" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.5" bottom="0" header="0" footer="0"/>
+  <pageSetup scale="18" fitToWidth="0" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>